--- a/s60_signal/position-01988-600016.xlsx
+++ b/s60_signal/position-01988-600016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="485">
   <si>
     <t>trade_time</t>
   </si>
@@ -679,7 +679,10 @@
     <t>2021-06-18</t>
   </si>
   <si>
-    <t>2021-07-07</t>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
   </si>
   <si>
     <t>2016-07-22</t>
@@ -1108,10 +1111,7 @@
     <t>2021-06-24</t>
   </si>
   <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>2021-07-12</t>
+    <t>2021-07-14</t>
   </si>
   <si>
     <t>2016-05-24</t>
@@ -1456,7 +1456,19 @@
     <t>2021-06-16</t>
   </si>
   <si>
-    <t>2021-06-30</t>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>2021-07-07</t>
+  </si>
+  <si>
+    <t>2021-07-08</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1826,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1036"/>
+  <dimension ref="A1:P1040"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1878,7 +1890,7 @@
         <v>4.511229357554957</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E2">
         <v>4.134562114333581</v>
@@ -1928,7 +1940,7 @@
         <v>4.54637358977963</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E3">
         <v>4.134562114333581</v>
@@ -1978,7 +1990,7 @@
         <v>4.486167543744384</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E4">
         <v>4.134562114333581</v>
@@ -2028,7 +2040,7 @@
         <v>4.514809369575879</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E5">
         <v>4.134562114333581</v>
@@ -2078,7 +2090,7 @@
         <v>4.542134230445916</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E6">
         <v>4.134562114333581</v>
@@ -2378,7 +2390,7 @@
         <v>3.284532976858507</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E12">
         <v>2.677351292877795</v>
@@ -2428,7 +2440,7 @@
         <v>3.152631441452742</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E13">
         <v>2.677351292877795</v>
@@ -2478,7 +2490,7 @@
         <v>3.063344517229904</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E14">
         <v>2.677351292877795</v>
@@ -2528,7 +2540,7 @@
         <v>3.062156057601301</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E15">
         <v>2.677351292877795</v>
@@ -2578,7 +2590,7 @@
         <v>3.143633135364715</v>
       </c>
       <c r="D16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E16">
         <v>2.677351292877795</v>
@@ -2628,7 +2640,7 @@
         <v>3.110016830269812</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E17">
         <v>2.677351292877795</v>
@@ -2678,7 +2690,7 @@
         <v>2.366926835235442</v>
       </c>
       <c r="D18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E18">
         <v>2.179880990762272</v>
@@ -2728,7 +2740,7 @@
         <v>2.328641604924578</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E19">
         <v>2.179880990762272</v>
@@ -2778,7 +2790,7 @@
         <v>3.263301236899546</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E20">
         <v>2.652832252271777</v>
@@ -2828,7 +2840,7 @@
         <v>3.130193352632475</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E21">
         <v>2.652832252271777</v>
@@ -2878,7 +2890,7 @@
         <v>3.041358809232626</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E22">
         <v>2.652832252271777</v>
@@ -2928,7 +2940,7 @@
         <v>3.039416381565708</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E23">
         <v>2.652832252271777</v>
@@ -2978,7 +2990,7 @@
         <v>3.085920011765251</v>
       </c>
       <c r="D24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E24">
         <v>2.652832252271777</v>
@@ -3028,7 +3040,7 @@
         <v>2.240092728764494</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E25">
         <v>2.153548849017755</v>
@@ -3078,7 +3090,7 @@
         <v>2.302403517191201</v>
       </c>
       <c r="D26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E26">
         <v>2.153548849017755</v>
@@ -3128,7 +3140,7 @@
         <v>3.266809754119012</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E27">
         <v>2.656883991617553</v>
@@ -3178,7 +3190,7 @@
         <v>3.133901217421229</v>
       </c>
       <c r="D28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E28">
         <v>2.656883991617553</v>
@@ -3228,7 +3240,7 @@
         <v>3.044991918682897</v>
       </c>
       <c r="D29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E29">
         <v>2.656883991617553</v>
@@ -3278,7 +3290,7 @@
         <v>3.043174083246784</v>
       </c>
       <c r="D30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E30">
         <v>2.656883991617553</v>
@@ -3328,7 +3340,7 @@
         <v>3.089901979461776</v>
       </c>
       <c r="D31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E31">
         <v>2.656883991617553</v>
@@ -3378,7 +3390,7 @@
         <v>2.244448473153433</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E32">
         <v>2.223248320745323</v>
@@ -3428,7 +3440,7 @@
         <v>2.306739326823212</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E33">
         <v>2.223248320745323</v>
@@ -3478,7 +3490,7 @@
         <v>3.150232952413131</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E34">
         <v>2.674730363322413</v>
@@ -3528,7 +3540,7 @@
         <v>3.060994384824157</v>
       </c>
       <c r="D35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E35">
         <v>2.674730363322413</v>
@@ -3578,7 +3590,7 @@
         <v>3.059725330805781</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E36">
         <v>2.674730363322413</v>
@@ -3628,7 +3640,7 @@
         <v>2.263633871517577</v>
       </c>
       <c r="D37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E37">
         <v>2.243887682321252</v>
@@ -3678,7 +3690,7 @@
         <v>2.325836920160516</v>
       </c>
       <c r="D38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E38">
         <v>2.243887682321252</v>
@@ -3728,7 +3740,7 @@
         <v>3.082343576888696</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E39">
         <v>2.60054479571305</v>
@@ -3778,7 +3790,7 @@
         <v>2.994473746709487</v>
       </c>
       <c r="D40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E40">
         <v>2.60054479571305</v>
@@ -3828,7 +3840,7 @@
         <v>2.990923463674834</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E41">
         <v>2.60054479571305</v>
@@ -3978,7 +3990,7 @@
         <v>3.040409741296517</v>
       </c>
       <c r="D44" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E44">
         <v>2.508325187038523</v>
@@ -4028,7 +4040,7 @@
         <v>2.895004863307419</v>
       </c>
       <c r="D45" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E45">
         <v>2.508325187038523</v>
@@ -4078,7 +4090,7 @@
         <v>2.948426001260181</v>
       </c>
       <c r="D46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E46">
         <v>2.508325187038523</v>
@@ -4228,7 +4240,7 @@
         <v>3.031700902303593</v>
       </c>
       <c r="D49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E49">
         <v>2.49878526260407</v>
@@ -4278,7 +4290,7 @@
         <v>2.878860584574042</v>
       </c>
       <c r="D50" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E50">
         <v>2.49878526260407</v>
@@ -4428,7 +4440,7 @@
         <v>3.022635677892191</v>
       </c>
       <c r="D53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E53">
         <v>2.464854567988125</v>
@@ -4478,7 +4490,7 @@
         <v>2.869746622396987</v>
       </c>
       <c r="D54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E54">
         <v>2.464854567988125</v>
@@ -4628,7 +4640,7 @@
         <v>2.853132741882125</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E57">
         <v>2.446552646137529</v>
@@ -4678,7 +4690,7 @@
         <v>2.094328898937136</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E58">
         <v>1.842794376120828</v>
@@ -4728,7 +4740,7 @@
         <v>2.050128624441065</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E59">
         <v>1.842794376120828</v>
@@ -4828,7 +4840,7 @@
         <v>2.071512346378907</v>
       </c>
       <c r="D61" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E61">
         <v>1.858583178679253</v>
@@ -4878,7 +4890,7 @@
         <v>2.027077118824455</v>
       </c>
       <c r="D62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E62">
         <v>1.858583178679253</v>
@@ -4978,7 +4990,7 @@
         <v>1.952441204043576</v>
       </c>
       <c r="D64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E64">
         <v>1.768759504456596</v>
@@ -5028,7 +5040,7 @@
         <v>1.960665672922645</v>
       </c>
       <c r="D65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E65">
         <v>1.768759504456596</v>
@@ -5078,7 +5090,7 @@
         <v>1.911863728646695</v>
       </c>
       <c r="D66" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E66">
         <v>1.759452065017152</v>
@@ -5128,7 +5140,7 @@
         <v>1.919858426996902</v>
       </c>
       <c r="D67" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E67">
         <v>1.759452065017152</v>
@@ -5178,7 +5190,7 @@
         <v>1.905874331946279</v>
       </c>
       <c r="D68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E68">
         <v>1.759452065017152</v>
@@ -5278,7 +5290,7 @@
         <v>2.136708142214575</v>
       </c>
       <c r="D70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E70">
         <v>2.108561718819574</v>
@@ -5328,7 +5340,7 @@
         <v>2.067829601844572</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E71">
         <v>2.108561718819574</v>
@@ -5378,7 +5390,7 @@
         <v>2.12817237616458</v>
       </c>
       <c r="D72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E72">
         <v>2.108561718819574</v>
@@ -5628,7 +5640,7 @@
         <v>2.142301413025561</v>
       </c>
       <c r="D77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E77">
         <v>1.97780018839587</v>
@@ -5678,7 +5690,7 @@
         <v>2.110364066104271</v>
       </c>
       <c r="D78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E78">
         <v>1.97780018839587</v>
@@ -5778,7 +5790,7 @@
         <v>2.09768233828219</v>
       </c>
       <c r="D80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E80">
         <v>1.955795181546213</v>
@@ -5828,7 +5840,7 @@
         <v>2.065795181546212</v>
       </c>
       <c r="D81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E81">
         <v>1.955795181546213</v>
@@ -5878,7 +5890,7 @@
         <v>2.020133711338287</v>
       </c>
       <c r="D82" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E82">
         <v>1.955795181546213</v>
@@ -5928,7 +5940,7 @@
         <v>2.685866995679533</v>
       </c>
       <c r="D83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E83">
         <v>2.275991495057138</v>
@@ -5978,7 +5990,7 @@
         <v>1.920113324448644</v>
       </c>
       <c r="D84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E84">
         <v>1.858301408508103</v>
@@ -6028,7 +6040,7 @@
         <v>1.888425907885709</v>
       </c>
       <c r="D85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E85">
         <v>1.858301408508103</v>
@@ -6078,7 +6090,7 @@
         <v>1.843363658196906</v>
       </c>
       <c r="D86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E86">
         <v>1.858301408508103</v>
@@ -6128,7 +6140,7 @@
         <v>2.660449968537363</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E87">
         <v>2.250393991982597</v>
@@ -6178,7 +6190,7 @@
         <v>1.893372807135757</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E88">
         <v>1.76840079541314</v>
@@ -6228,7 +6240,7 @@
         <v>1.861715469894883</v>
       </c>
       <c r="D89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E89">
         <v>1.76840079541314</v>
@@ -6278,7 +6290,7 @@
         <v>1.816743458172266</v>
       </c>
       <c r="D90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E90">
         <v>1.76840079541314</v>
@@ -6328,7 +6340,7 @@
         <v>2.753045004490679</v>
       </c>
       <c r="D91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E91">
         <v>2.2971803418113</v>
@@ -6378,7 +6390,7 @@
         <v>1.990789359754097</v>
       </c>
       <c r="D92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E92">
         <v>1.832556276919175</v>
@@ -6428,7 +6440,7 @@
         <v>1.959022442589019</v>
       </c>
       <c r="D93" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E93">
         <v>1.832556276919175</v>
@@ -6478,7 +6490,7 @@
         <v>1.913721691093786</v>
       </c>
       <c r="D94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E94">
         <v>1.832556276919175</v>
@@ -6528,7 +6540,7 @@
         <v>2.92313924418029</v>
       </c>
       <c r="D95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E95">
         <v>2.468884941166612</v>
@@ -6578,7 +6590,7 @@
         <v>2.153677001851642</v>
       </c>
       <c r="D96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E96">
         <v>1.949422698837964</v>
@@ -6628,7 +6640,7 @@
         <v>2.13777236548177</v>
       </c>
       <c r="D97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E97">
         <v>1.949422698837964</v>
@@ -6678,7 +6690,7 @@
         <v>2.091867729111899</v>
       </c>
       <c r="D98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E98">
         <v>1.949422698837964</v>
@@ -6728,7 +6740,7 @@
         <v>2.894427873207131</v>
       </c>
       <c r="D99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E99">
         <v>2.439901746562937</v>
@@ -6778,7 +6790,7 @@
         <v>1.997271113341972</v>
       </c>
       <c r="D100" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E100">
         <v>2.044389132460881</v>
@@ -6828,7 +6840,7 @@
         <v>2.107599942494591</v>
       </c>
       <c r="D101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E101">
         <v>2.044389132460881</v>
@@ -6878,7 +6890,7 @@
         <v>2.061797239986165</v>
       </c>
       <c r="D102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E102">
         <v>2.044389132460881</v>
@@ -6928,7 +6940,7 @@
         <v>2.923596716153027</v>
       </c>
       <c r="D103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E103">
         <v>2.407065525827111</v>
@@ -6978,7 +6990,7 @@
         <v>2.028096884644558</v>
       </c>
       <c r="D104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E104">
         <v>2.036284363583118</v>
@@ -7028,7 +7040,7 @@
         <v>2.138253117093357</v>
       </c>
       <c r="D105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E105">
         <v>2.036284363583118</v>
@@ -7078,7 +7090,7 @@
         <v>2.092346856562636</v>
       </c>
       <c r="D106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E106">
         <v>2.036284363583118</v>
@@ -7128,7 +7140,7 @@
         <v>2.985463460161611</v>
       </c>
       <c r="D107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E107">
         <v>2.470176926224034</v>
@@ -7178,7 +7190,7 @@
         <v>2.093477952573156</v>
       </c>
       <c r="D108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E108">
         <v>2.244680549326919</v>
@@ -7228,7 +7240,7 @@
         <v>2.181435983981249</v>
       </c>
       <c r="D109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E109">
         <v>2.244680549326919</v>
@@ -7278,7 +7290,7 @@
         <v>2.157142203837899</v>
       </c>
       <c r="D110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E110">
         <v>2.244680549326919</v>
@@ -7328,7 +7340,7 @@
         <v>3.064233105493776</v>
       </c>
       <c r="D111" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E111">
         <v>2.550531286314361</v>
@@ -7378,7 +7390,7 @@
         <v>2.176722086634249</v>
       </c>
       <c r="D112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E112">
         <v>2.41693684763564</v>
@@ -7428,7 +7440,7 @@
         <v>2.264586899527156</v>
       </c>
       <c r="D113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E113">
         <v>2.41693684763564</v>
@@ -7478,7 +7490,7 @@
         <v>2.239640589777504</v>
       </c>
       <c r="D114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E114">
         <v>2.41693684763564</v>
@@ -7528,7 +7540,7 @@
         <v>3.110186183160804</v>
       </c>
       <c r="D115" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E115">
         <v>2.597408863768773</v>
@@ -7578,7 +7590,7 @@
         <v>2.225285516642126</v>
       </c>
       <c r="D116" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E116">
         <v>2.368062836034158</v>
@@ -7628,7 +7640,7 @@
         <v>2.313095947194598</v>
       </c>
       <c r="D117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E117">
         <v>2.368062836034158</v>
@@ -7678,7 +7690,7 @@
         <v>2.287768961061905</v>
       </c>
       <c r="D118" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E118">
         <v>2.368062836034158</v>
@@ -7728,7 +7740,7 @@
         <v>3.033340385849137</v>
       </c>
       <c r="D119" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E119">
         <v>2.719207193814303</v>
@@ -7778,7 +7790,7 @@
         <v>3.229582457973418</v>
       </c>
       <c r="D120" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E120">
         <v>2.719207193814303</v>
@@ -8128,7 +8140,7 @@
         <v>2.432163407485593</v>
       </c>
       <c r="D127" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E127">
         <v>2.56100240196795</v>
@@ -8178,7 +8190,7 @@
         <v>2.519742171866908</v>
       </c>
       <c r="D128" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E128">
         <v>2.56100240196795</v>
@@ -8228,7 +8240,7 @@
         <v>2.492793522536114</v>
       </c>
       <c r="D129" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E129">
         <v>2.56100240196795</v>
@@ -8278,7 +8290,7 @@
         <v>2.505529815680059</v>
       </c>
       <c r="D130" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E130">
         <v>2.56100240196795</v>
@@ -8528,7 +8540,7 @@
         <v>2.561090333833617</v>
       </c>
       <c r="D135" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E135">
         <v>2.754384456252795</v>
@@ -8578,7 +8590,7 @@
         <v>2.569312051271657</v>
       </c>
       <c r="D136" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E136">
         <v>2.754384456252795</v>
@@ -8628,7 +8640,7 @@
         <v>2.620565448424133</v>
       </c>
       <c r="D137" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E137">
         <v>2.754384456252795</v>
@@ -8678,7 +8690,7 @@
         <v>2.632868616395577</v>
       </c>
       <c r="D138" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E138">
         <v>2.754384456252795</v>
@@ -8928,7 +8940,7 @@
         <v>2.656093329609079</v>
       </c>
       <c r="D143" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E143">
         <v>2.992573434271657</v>
@@ -8978,7 +8990,7 @@
         <v>2.743421332599438</v>
       </c>
       <c r="D144" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E144">
         <v>2.992573434271657</v>
@@ -9028,7 +9040,7 @@
         <v>2.714717353531954</v>
       </c>
       <c r="D145" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E145">
         <v>2.992573434271657</v>
@@ -9078,7 +9090,7 @@
         <v>2.726701362503031</v>
       </c>
       <c r="D146" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E146">
         <v>2.992573434271657</v>
@@ -9378,7 +9390,7 @@
         <v>2.743265879725431</v>
       </c>
       <c r="D152" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E152">
         <v>3.076329367082216</v>
@@ -9428,7 +9440,7 @@
         <v>2.830496265078482</v>
       </c>
       <c r="D153" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E153">
         <v>3.076329367082216</v>
@@ -9478,7 +9490,7 @@
         <v>2.801108962549839</v>
       </c>
       <c r="D154" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E154">
         <v>3.076329367082216</v>
@@ -9528,7 +9540,7 @@
         <v>2.812800118608992</v>
       </c>
       <c r="D155" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E155">
         <v>3.076329367082216</v>
@@ -9578,7 +9590,7 @@
         <v>8.428041485362026</v>
       </c>
       <c r="D156" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E156">
         <v>7.860265385484505</v>
@@ -9628,7 +9640,7 @@
         <v>8.423754692426147</v>
       </c>
       <c r="D157" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E157">
         <v>7.860265385484505</v>
@@ -9678,7 +9690,7 @@
         <v>7.322493060882559</v>
       </c>
       <c r="D158" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E158">
         <v>7.276461614475858</v>
@@ -9728,7 +9740,7 @@
         <v>0.8245990177480174</v>
       </c>
       <c r="D159" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E159">
         <v>0.6142761207337122</v>
@@ -9778,7 +9790,7 @@
         <v>0.5627692680002871</v>
       </c>
       <c r="D160" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E160">
         <v>0.672123473971677</v>
@@ -9828,7 +9840,7 @@
         <v>0.5629845326764906</v>
       </c>
       <c r="D161" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E161">
         <v>0.7139532237194066</v>
@@ -9878,7 +9890,7 @@
         <v>0.5459982381433406</v>
       </c>
       <c r="D162" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E162">
         <v>0.7139532237194066</v>
@@ -9928,7 +9940,7 @@
         <v>0.5636303267051019</v>
       </c>
       <c r="D163" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E163">
         <v>0.8305089889001493</v>
@@ -10028,7 +10040,7 @@
         <v>0.8093250331810289</v>
       </c>
       <c r="D165" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E165">
         <v>0.8194326655191304</v>
@@ -10078,7 +10090,7 @@
         <v>0.8405770778352721</v>
       </c>
       <c r="D166" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E166">
         <v>0.6301931958588023</v>
@@ -10128,7 +10140,7 @@
         <v>0.5784017466352731</v>
       </c>
       <c r="D167" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E167">
         <v>0.7171221400470396</v>
@@ -10178,7 +10190,7 @@
         <v>0.5786576679529203</v>
       </c>
       <c r="D168" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E168">
         <v>0.7298093138823321</v>
@@ -10228,7 +10240,7 @@
         <v>0.5622405663999777</v>
       </c>
       <c r="D169" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E169">
         <v>0.7298093138823321</v>
@@ -10278,7 +10290,7 @@
         <v>0.5794254319058618</v>
       </c>
       <c r="D170" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E170">
         <v>0.84571457279998</v>
@@ -10328,7 +10340,7 @@
         <v>0.9516198317176272</v>
       </c>
       <c r="D171" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E171">
         <v>0.7660984547764507</v>
@@ -10378,7 +10390,7 @@
         <v>0.8243070055529209</v>
       </c>
       <c r="D172" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E172">
         <v>0.7660984547764507</v>
@@ -10428,7 +10440,7 @@
         <v>3.011517550684177</v>
       </c>
       <c r="D173" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E173">
         <v>3.259507704779772</v>
@@ -10478,7 +10490,7 @@
         <v>3.032305079205265</v>
       </c>
       <c r="D174" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E174">
         <v>3.259507704779772</v>
@@ -10528,7 +10540,7 @@
         <v>3.023912955928789</v>
       </c>
       <c r="D175" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E175">
         <v>3.259507704779772</v>
@@ -10578,7 +10590,7 @@
         <v>3.523510986747906</v>
       </c>
       <c r="D176" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E176">
         <v>3.205488012970963</v>
@@ -10628,7 +10640,7 @@
         <v>3.467481449034693</v>
       </c>
       <c r="D177" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E177">
         <v>3.205488012970963</v>
@@ -10678,7 +10690,7 @@
         <v>2.990019863222156</v>
       </c>
       <c r="D178" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E178">
         <v>3.2375712890022</v>
@@ -10728,7 +10740,7 @@
         <v>3.010251669210212</v>
       </c>
       <c r="D179" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E179">
         <v>3.2375712890022</v>
@@ -10778,7 +10790,7 @@
         <v>3.002210528586177</v>
       </c>
       <c r="D180" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E180">
         <v>3.2375712890022</v>
@@ -10828,7 +10840,7 @@
         <v>3.501720813742185</v>
       </c>
       <c r="D181" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E181">
         <v>3.182674140562288</v>
@@ -10878,7 +10890,7 @@
         <v>3.444375091082317</v>
       </c>
       <c r="D182" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E182">
         <v>3.182674140562288</v>
@@ -10928,7 +10940,7 @@
         <v>2.882489184657736</v>
       </c>
       <c r="D183" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E183">
         <v>3.127846106793607</v>
@@ -10978,7 +10990,7 @@
         <v>2.89994128602984</v>
       </c>
       <c r="D184" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E184">
         <v>3.127846106793607</v>
@@ -11028,7 +11040,7 @@
         <v>2.893655748321143</v>
       </c>
       <c r="D185" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E185">
         <v>3.127846106793607</v>
@@ -11078,7 +11090,7 @@
         <v>3.392727132748317</v>
       </c>
       <c r="D186" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E186">
         <v>3.602965080838898</v>
@@ -11128,7 +11140,7 @@
         <v>3.317869283583107</v>
       </c>
       <c r="D187" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E187">
         <v>3.602965080838898</v>
@@ -11178,7 +11190,7 @@
         <v>3.328797899155933</v>
       </c>
       <c r="D188" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E188">
         <v>3.602965080838898</v>
@@ -11228,7 +11240,7 @@
         <v>2.702672232723285</v>
       </c>
       <c r="D189" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E189">
         <v>2.944359421146208</v>
@@ -11278,7 +11290,7 @@
         <v>2.715476004725656</v>
       </c>
       <c r="D190" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E190">
         <v>2.944359421146208</v>
@@ -11328,7 +11340,7 @@
         <v>2.712126253987316</v>
       </c>
       <c r="D191" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E191">
         <v>2.944359421146208</v>
@@ -11378,7 +11390,7 @@
         <v>3.210463691671901</v>
       </c>
       <c r="D192" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E192">
         <v>3.418255150620516</v>
@@ -11428,7 +11440,7 @@
         <v>3.123862694625259</v>
       </c>
       <c r="D193" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E193">
         <v>3.418255150620516</v>
@@ -11478,7 +11490,7 @@
         <v>3.135525256940674</v>
       </c>
       <c r="D194" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E194">
         <v>3.418255150620516</v>
@@ -11528,7 +11540,7 @@
         <v>2.736071235676643</v>
       </c>
       <c r="D195" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E195">
         <v>2.942224758417352</v>
@@ -11578,7 +11590,7 @@
         <v>2.162283479363674</v>
       </c>
       <c r="D196" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E196">
         <v>2.372503094869548</v>
@@ -11614,7 +11626,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11628,7 +11640,7 @@
         <v>2.161118018285999</v>
       </c>
       <c r="D197" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E197">
         <v>2.372503094869548</v>
@@ -11664,7 +11676,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11678,7 +11690,7 @@
         <v>2.166590941071899</v>
       </c>
       <c r="D198" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E198">
         <v>2.372503094869548</v>
@@ -11714,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11728,7 +11740,7 @@
         <v>2.564986248982474</v>
       </c>
       <c r="D199" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E199">
         <v>2.863161941387174</v>
@@ -11764,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11778,7 +11790,7 @@
         <v>2.588567480624777</v>
       </c>
       <c r="D200" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E200">
         <v>2.863161941387174</v>
@@ -11814,7 +11826,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11828,7 +11840,7 @@
         <v>2.554699249928301</v>
       </c>
       <c r="D201" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E201">
         <v>2.863161941387174</v>
@@ -11864,7 +11876,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11878,7 +11890,7 @@
         <v>2.168347865118902</v>
       </c>
       <c r="D202" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E202">
         <v>2.433533788850627</v>
@@ -11914,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11928,7 +11940,7 @@
         <v>2.089009283775184</v>
       </c>
       <c r="D203" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E203">
         <v>2.29873043536549</v>
@@ -11978,7 +11990,7 @@
         <v>2.085949659818351</v>
       </c>
       <c r="D204" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E204">
         <v>2.29873043536549</v>
@@ -12028,7 +12040,7 @@
         <v>2.092618896001614</v>
       </c>
       <c r="D205" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E205">
         <v>2.29873043536549</v>
@@ -12078,7 +12090,7 @@
         <v>2.490116968864166</v>
       </c>
       <c r="D206" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E206">
         <v>2.787893890136412</v>
@@ -12128,7 +12140,7 @@
         <v>2.51010926031438</v>
       </c>
       <c r="D207" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E207">
         <v>2.787893890136412</v>
@@ -12178,7 +12190,7 @@
         <v>2.475941951268564</v>
       </c>
       <c r="D208" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E208">
         <v>2.787893890136412</v>
@@ -12228,7 +12240,7 @@
         <v>2.090388108724073</v>
       </c>
       <c r="D209" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E209">
         <v>2.352882327311732</v>
@@ -12278,7 +12290,7 @@
         <v>2.192228120172728</v>
       </c>
       <c r="D210" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E210">
         <v>2.40265144071812</v>
@@ -12328,7 +12340,7 @@
         <v>2.19183673824522</v>
       </c>
       <c r="D211" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E211">
         <v>2.40265144071812</v>
@@ -12378,7 +12390,7 @@
         <v>2.196820768936278</v>
       </c>
       <c r="D212" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E212">
         <v>2.40265144071812</v>
@@ -12428,7 +12440,7 @@
         <v>2.595582745917984</v>
       </c>
       <c r="D213" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E213">
         <v>2.893921402354298</v>
@@ -12478,7 +12490,7 @@
         <v>2.620630653844811</v>
       </c>
       <c r="D214" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E214">
         <v>2.893921402354298</v>
@@ -12528,7 +12540,7 @@
         <v>2.586884646172047</v>
       </c>
       <c r="D215" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E215">
         <v>2.893921402354298</v>
@@ -12578,7 +12590,7 @@
         <v>2.20020733329942</v>
       </c>
       <c r="D216" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E216">
         <v>2.466493264244539</v>
@@ -12628,7 +12640,7 @@
         <v>2.278141334918415</v>
       </c>
       <c r="D217" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E217">
         <v>2.511164627467769</v>
@@ -12678,7 +12690,7 @@
         <v>2.279970838814265</v>
       </c>
       <c r="D218" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E218">
         <v>2.511164627467769</v>
@@ -12728,7 +12740,7 @@
         <v>2.283552204774781</v>
       </c>
       <c r="D219" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E219">
         <v>2.511164627467769</v>
@@ -12778,7 +12790,7 @@
         <v>2.683366180304393</v>
       </c>
       <c r="D220" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E220">
         <v>2.982172391650888</v>
@@ -12828,7 +12840,7 @@
         <v>2.712622082422847</v>
       </c>
       <c r="D221" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E221">
         <v>2.982172391650888</v>
@@ -12878,7 +12890,7 @@
         <v>2.679226740932718</v>
       </c>
       <c r="D222" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E222">
         <v>2.982172391650888</v>
@@ -12928,7 +12940,7 @@
         <v>2.291614318239729</v>
       </c>
       <c r="D223" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E223">
         <v>2.561056244828568</v>
@@ -12978,7 +12990,7 @@
         <v>2.24731466049155</v>
       </c>
       <c r="D224" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E224">
         <v>2.478681691470373</v>
@@ -13028,7 +13040,7 @@
         <v>2.251415753428024</v>
       </c>
       <c r="D225" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E225">
         <v>2.478681691470373</v>
@@ -13078,7 +13090,7 @@
         <v>2.650839933725667</v>
       </c>
       <c r="D226" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E226">
         <v>2.949472902746843</v>
@@ -13128,7 +13140,7 @@
         <v>2.678536654916245</v>
       </c>
       <c r="D227" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E227">
         <v>2.949472902746843</v>
@@ -13178,7 +13190,7 @@
         <v>2.645011381682127</v>
       </c>
       <c r="D228" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E228">
         <v>2.949472902746843</v>
@@ -13228,7 +13240,7 @@
         <v>2.257745443639777</v>
       </c>
       <c r="D229" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E229">
         <v>2.526017984532709</v>
@@ -13278,7 +13290,7 @@
         <v>2.655872947978581</v>
       </c>
       <c r="D230" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E230">
         <v>2.262418029764449</v>
@@ -13328,7 +13340,7 @@
         <v>2.172840353015851</v>
       </c>
       <c r="D231" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E231">
         <v>2.384007773516882</v>
@@ -13378,7 +13390,7 @@
         <v>2.178126713445307</v>
       </c>
       <c r="D232" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E232">
         <v>2.384007773516882</v>
@@ -13428,7 +13440,7 @@
         <v>2.576661943123215</v>
       </c>
       <c r="D233" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E233">
         <v>2.874899822980062</v>
@@ -13478,7 +13490,7 @@
         <v>2.600802861834847</v>
       </c>
       <c r="D234" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E234">
         <v>2.874899822980062</v>
@@ -13528,7 +13540,7 @@
         <v>2.780802861834847</v>
       </c>
       <c r="D235" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E235">
         <v>2.874899822980062</v>
@@ -13578,7 +13590,7 @@
         <v>2.180505512013787</v>
       </c>
       <c r="D236" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E236">
         <v>2.44611120104751</v>
@@ -13628,7 +13640,7 @@
         <v>3.16471395829044</v>
       </c>
       <c r="D237" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E237">
         <v>2.876141169417832</v>
@@ -13678,7 +13690,7 @@
         <v>3.118858906274599</v>
       </c>
       <c r="D238" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E238">
         <v>2.876141169417832</v>
@@ -13728,7 +13740,7 @@
         <v>3.298858906274599</v>
       </c>
       <c r="D239" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E239">
         <v>2.876141169417832</v>
@@ -13778,7 +13790,7 @@
         <v>3.129205380823773</v>
       </c>
       <c r="D240" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E240">
         <v>2.765963171089123</v>
@@ -13828,7 +13840,7 @@
         <v>2.558576013370311</v>
       </c>
       <c r="D241" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E241">
         <v>2.956487643967009</v>
@@ -13878,7 +13890,7 @@
         <v>2.955013317141319</v>
       </c>
       <c r="D242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E242">
         <v>2.654899956071243</v>
@@ -13928,7 +13940,7 @@
         <v>2.897336215557339</v>
       </c>
       <c r="D243" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E243">
         <v>2.654899956071243</v>
@@ -13978,7 +13990,7 @@
         <v>3.077336215557339</v>
       </c>
       <c r="D244" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E244">
         <v>2.654899956071243</v>
@@ -14028,7 +14040,7 @@
         <v>2.891075525236986</v>
       </c>
       <c r="D245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E245">
         <v>2.512633537486157</v>
@@ -14078,7 +14090,7 @@
         <v>2.301868651319306</v>
       </c>
       <c r="D246" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E246">
         <v>2.718639265750892</v>
@@ -14128,7 +14140,7 @@
         <v>1.005369382839041</v>
       </c>
       <c r="D247" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E247">
         <v>0.9358262153664816</v>
@@ -14178,7 +14190,7 @@
         <v>1.044536476187351</v>
       </c>
       <c r="D248" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E248">
         <v>1.246336640426168</v>
@@ -14228,7 +14240,7 @@
         <v>1.031411989433655</v>
       </c>
       <c r="D249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E249">
         <v>1.246336640426168</v>
@@ -14278,7 +14290,7 @@
         <v>1.039611825194839</v>
       </c>
       <c r="D250" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E250">
         <v>1.246336640426168</v>
@@ -14328,7 +14340,7 @@
         <v>1.017811660956021</v>
       </c>
       <c r="D251" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E251">
         <v>1.246336640426168</v>
@@ -14378,7 +14390,7 @@
         <v>1.044036886784395</v>
       </c>
       <c r="D252" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E252">
         <v>1.246336640426168</v>
@@ -14428,7 +14440,7 @@
         <v>1.410611004000752</v>
       </c>
       <c r="D253" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E253">
         <v>1.196336640426169</v>
@@ -14478,7 +14490,7 @@
         <v>1.386986927844099</v>
       </c>
       <c r="D254" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E254">
         <v>1.320761702015725</v>
@@ -14528,7 +14540,7 @@
         <v>1.406011496717204</v>
       </c>
       <c r="D255" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E255">
         <v>1.320761702015725</v>
@@ -14578,7 +14590,7 @@
         <v>1.380936147709717</v>
       </c>
       <c r="D256" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E256">
         <v>1.320761702015725</v>
@@ -14628,7 +14640,7 @@
         <v>1.465686353008238</v>
       </c>
       <c r="D257" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E257">
         <v>1.320761702015725</v>
@@ -14678,7 +14690,7 @@
         <v>0.9661722288213106</v>
       </c>
       <c r="D258" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E258">
         <v>1.166850901147913</v>
@@ -14728,7 +14740,7 @@
         <v>0.9495430798419413</v>
       </c>
       <c r="D259" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E259">
         <v>1.166850901147913</v>
@@ -14778,7 +14790,7 @@
         <v>0.9588644075153399</v>
       </c>
       <c r="D260" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E260">
         <v>1.166850901147913</v>
@@ -14828,7 +14840,7 @@
         <v>0.9381857351887382</v>
       </c>
       <c r="D261" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E261">
         <v>1.166850901147913</v>
@@ -14878,7 +14890,7 @@
         <v>0.962868909637816</v>
       </c>
       <c r="D262" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E262">
         <v>1.166850901147913</v>
@@ -14928,7 +14940,7 @@
         <v>1.33547104588233</v>
       </c>
       <c r="D263" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E263">
         <v>1.116850901147913</v>
@@ -14978,7 +14990,7 @@
         <v>1.305538577719466</v>
       </c>
       <c r="D264" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E264">
         <v>1.19153407559699</v>
@@ -15028,7 +15040,7 @@
         <v>1.327507062862136</v>
       </c>
       <c r="D265" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E265">
         <v>1.19153407559699</v>
@@ -15078,7 +15090,7 @@
         <v>1.304814884168106</v>
       </c>
       <c r="D266" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E266">
         <v>1.19153407559699</v>
@@ -15128,7 +15140,7 @@
         <v>1.388163224576359</v>
       </c>
       <c r="D267" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E267">
         <v>1.19153407559699</v>
@@ -15178,7 +15190,7 @@
         <v>0.8431624363702266</v>
       </c>
       <c r="D268" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E268">
         <v>1.063566954489587</v>
@@ -15228,7 +15240,7 @@
         <v>0.8539410331322781</v>
       </c>
       <c r="D269" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E269">
         <v>1.063566954489587</v>
@@ -15278,7 +15290,7 @@
         <v>0.8347196298943302</v>
       </c>
       <c r="D270" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E270">
         <v>1.063566954489587</v>
@@ -15328,7 +15340,7 @@
         <v>0.8573990593465091</v>
       </c>
       <c r="D271" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E271">
         <v>1.063566954489587</v>
@@ -15378,7 +15390,7 @@
         <v>1.237834016942537</v>
       </c>
       <c r="D272" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E272">
         <v>1.013566954489587</v>
@@ -15428,7 +15440,7 @@
         <v>1.199704410155996</v>
       </c>
       <c r="D273" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E273">
         <v>1.035093708537022</v>
@@ -15478,7 +15490,7 @@
         <v>1.225498226656382</v>
       </c>
       <c r="D274" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E274">
         <v>1.035093708537022</v>
@@ -15528,7 +15540,7 @@
         <v>1.205902744775742</v>
       </c>
       <c r="D275" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E275">
         <v>1.035093708537022</v>
@@ -15578,7 +15590,7 @@
         <v>1.287429498823176</v>
       </c>
       <c r="D276" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E276">
         <v>1.035093708537022</v>
@@ -15628,7 +15640,7 @@
         <v>0.7929641978726467</v>
       </c>
       <c r="D277" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E277">
         <v>1.014829966085258</v>
@@ -15678,7 +15690,7 @@
         <v>0.8044304417374049</v>
       </c>
       <c r="D278" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E278">
         <v>1.014829966085258</v>
@@ -15728,7 +15740,7 @@
         <v>0.8309626123654903</v>
       </c>
       <c r="D279" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E279">
         <v>1.014829966085258</v>
@@ -15778,7 +15790,7 @@
         <v>0.7858966856021636</v>
       </c>
       <c r="D280" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E280">
         <v>1.014829966085258</v>
@@ -15828,7 +15840,7 @@
         <v>0.8076306002881211</v>
       </c>
       <c r="D281" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E281">
         <v>1.014829966085258</v>
@@ -15878,7 +15890,7 @@
         <v>1.191761661061197</v>
       </c>
       <c r="D282" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E282">
         <v>0.964829966085258</v>
@@ -15928,7 +15940,7 @@
         <v>1.177362929466922</v>
       </c>
       <c r="D283" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E283">
         <v>0.9893645149740777</v>
@@ -15978,7 +15990,7 @@
         <v>1.159228697679533</v>
       </c>
       <c r="D284" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E284">
         <v>0.9893645149740777</v>
@@ -16028,7 +16040,7 @@
         <v>1.239895892848584</v>
       </c>
       <c r="D285" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E285">
         <v>0.9893645149740777</v>
@@ -16078,7 +16090,7 @@
         <v>0.7494679440928866</v>
       </c>
       <c r="D286" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E286">
         <v>0.972599870377854</v>
@@ -16128,7 +16140,7 @@
         <v>0.7615300270505188</v>
       </c>
       <c r="D287" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E287">
         <v>0.972599870377854</v>
@@ -16178,7 +16190,7 @@
         <v>0.7897007551840058</v>
       </c>
       <c r="D288" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E288">
         <v>0.972599870377854</v>
@@ -16228,7 +16240,7 @@
         <v>0.7916076307475572</v>
       </c>
       <c r="D289" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E289">
         <v>0.972599870377854</v>
@@ -16278,7 +16290,7 @@
         <v>0.7645067459414072</v>
       </c>
       <c r="D290" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E290">
         <v>0.972599870377854</v>
@@ -16328,7 +16340,7 @@
         <v>1.151840441838677</v>
       </c>
       <c r="D291" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E291">
         <v>0.9225998703778542</v>
@@ -16378,7 +16390,7 @@
         <v>1.135654192965782</v>
       </c>
       <c r="D292" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E292">
         <v>0.9454213818746622</v>
@@ -16428,7 +16440,7 @@
         <v>1.118786119250749</v>
       </c>
       <c r="D293" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E293">
         <v>0.9454213818746622</v>
@@ -16478,7 +16490,7 @@
         <v>1.198708515553709</v>
       </c>
       <c r="D294" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E294">
         <v>0.9454213818746622</v>
@@ -16528,7 +16540,7 @@
         <v>0.707909471861206</v>
       </c>
       <c r="D295" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E295">
         <v>0.9322511481940143</v>
@@ -16578,7 +16590,7 @@
         <v>0.7205408489589988</v>
       </c>
       <c r="D296" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E296">
         <v>0.9322511481940143</v>
@@ -16628,7 +16640,7 @@
         <v>0.7586986932334456</v>
       </c>
       <c r="D297" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E297">
         <v>0.9322511481940143</v>
@@ -16678,7 +16690,7 @@
         <v>0.7502771359779254</v>
       </c>
       <c r="D298" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E298">
         <v>0.9322511481940143</v>
@@ -16728,7 +16740,7 @@
         <v>0.757645758880134</v>
       </c>
       <c r="D299" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E299">
         <v>0.9322511481940143</v>
@@ -16778,7 +16790,7 @@
         <v>0.7233040825473269</v>
       </c>
       <c r="D300" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E300">
         <v>0.9322511481940143</v>
@@ -16828,7 +16840,7 @@
         <v>1.113697734447957</v>
       </c>
       <c r="D301" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E301">
         <v>0.8822511481940145</v>
@@ -16878,7 +16890,7 @@
         <v>1.095803603154581</v>
       </c>
       <c r="D302" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E302">
         <v>0.9034359390378626</v>
@@ -16928,7 +16940,7 @@
         <v>1.080145279487389</v>
       </c>
       <c r="D303" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E303">
         <v>0.9034359390378626</v>
@@ -16978,7 +16990,7 @@
         <v>1.159356058115149</v>
       </c>
       <c r="D304" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E304">
         <v>0.9034359390378626</v>
@@ -17028,7 +17040,7 @@
         <v>0.6769872492951574</v>
       </c>
       <c r="D305" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E305">
         <v>0.9022290588191</v>
@@ -17078,7 +17090,7 @@
         <v>0.6900422184828958</v>
       </c>
       <c r="D306" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E306">
         <v>0.9022290588191</v>
@@ -17128,7 +17140,7 @@
         <v>0.7283059607798297</v>
       </c>
       <c r="D307" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E307">
         <v>0.9022290588191</v>
@@ -17178,7 +17190,7 @@
         <v>0.7209433837491739</v>
       </c>
       <c r="D308" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E308">
         <v>0.9022290588191</v>
@@ -17228,7 +17240,7 @@
         <v>0.7278884145614359</v>
       </c>
       <c r="D309" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E309">
         <v>0.9022290588191</v>
@@ -17278,7 +17290,7 @@
         <v>0.6926466050374938</v>
       </c>
       <c r="D310" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E310">
         <v>0.9022290588191</v>
@@ -17328,7 +17340,7 @@
         <v>1.085317064421583</v>
       </c>
       <c r="D311" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E311">
         <v>0.8522290588191002</v>
@@ -17378,7 +17390,7 @@
         <v>1.066152156858371</v>
       </c>
       <c r="D312" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E312">
         <v>0.8721960224043537</v>
@@ -17428,7 +17440,7 @@
         <v>1.051393966382313</v>
       </c>
       <c r="D313" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E313">
         <v>0.8721960224043537</v>
@@ -17478,7 +17490,7 @@
         <v>1.13007525489764</v>
       </c>
       <c r="D314" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E314">
         <v>0.8721960224043537</v>
@@ -17528,7 +17540,7 @@
         <v>0.6617004606469044</v>
       </c>
       <c r="D315" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E315">
         <v>0.8873872623061558</v>
@@ -17578,7 +17590,7 @@
         <v>0.6749648378983171</v>
       </c>
       <c r="D316" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E316">
         <v>0.8873872623061558</v>
@@ -17628,7 +17640,7 @@
         <v>0.7132809322111697</v>
       </c>
       <c r="D317" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E317">
         <v>0.8873872623061558</v>
@@ -17678,7 +17690,7 @@
         <v>0.706441875339701</v>
       </c>
       <c r="D318" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E318">
         <v>0.8873872623061558</v>
@@ -17728,7 +17740,7 @@
         <v>0.7131774980882888</v>
       </c>
       <c r="D319" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E319">
         <v>0.8873872623061558</v>
@@ -17778,7 +17790,7 @@
         <v>0.6774906964290377</v>
       </c>
       <c r="D320" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E320">
         <v>0.8873872623061558</v>
@@ -17828,7 +17840,7 @@
         <v>1.071286724155378</v>
       </c>
       <c r="D321" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E321">
         <v>0.837387262306156</v>
@@ -17878,7 +17890,7 @@
         <v>1.051493592401141</v>
       </c>
       <c r="D322" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E322">
         <v>0.8567521777083451</v>
@@ -17928,7 +17940,7 @@
         <v>1.037180394060393</v>
       </c>
       <c r="D323" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E323">
         <v>0.8567521777083451</v>
@@ -17978,7 +17990,7 @@
         <v>1.115599922496127</v>
       </c>
       <c r="D324" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E324">
         <v>0.8567521777083451</v>
@@ -18028,7 +18040,7 @@
         <v>0.6627117104425828</v>
       </c>
       <c r="D325" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E325">
         <v>0.8753255899669172</v>
@@ -18078,7 +18090,7 @@
         <v>0.7010703503368783</v>
       </c>
       <c r="D326" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E326">
         <v>0.8753255899669172</v>
@@ -18128,7 +18140,7 @@
         <v>0.6946567492798454</v>
       </c>
       <c r="D327" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E327">
         <v>0.8753255899669172</v>
@@ -18178,7 +18190,7 @@
         <v>0.7012221897026585</v>
       </c>
       <c r="D328" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E328">
         <v>0.8753255899669172</v>
@@ -18228,7 +18240,7 @@
         <v>0.6651737506011379</v>
       </c>
       <c r="D329" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E329">
         <v>0.8753255899669172</v>
@@ -18278,7 +18290,7 @@
         <v>1.059884508328515</v>
       </c>
       <c r="D330" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E330">
         <v>0.8253255899669174</v>
@@ -18328,7 +18340,7 @@
         <v>1.039580829596956</v>
       </c>
       <c r="D331" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E331">
         <v>0.844201231182506</v>
@@ -18378,7 +18390,7 @@
         <v>1.025629268698476</v>
       </c>
       <c r="D332" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E332">
         <v>0.844201231182506</v>
@@ -18428,7 +18440,7 @@
         <v>1.103836069226992</v>
       </c>
       <c r="D333" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E333">
         <v>0.844201231182506</v>
@@ -18478,7 +18490,7 @@
         <v>0.6443218537517277</v>
       </c>
       <c r="D334" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E334">
         <v>0.8572230747868561</v>
@@ -18528,7 +18540,7 @@
         <v>0.6827443473150883</v>
       </c>
       <c r="D335" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E335">
         <v>0.8572230747868561</v>
@@ -18578,7 +18590,7 @@
         <v>0.6769692829487095</v>
       </c>
       <c r="D336" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E336">
         <v>0.8572230747868561</v>
@@ -18628,7 +18640,7 @@
         <v>0.683279308695262</v>
       </c>
       <c r="D337" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E337">
         <v>0.8572230747868561</v>
@@ -18678,7 +18690,7 @@
         <v>0.6466881134066842</v>
       </c>
       <c r="D338" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E338">
         <v>0.8572230747868561</v>
@@ -18728,7 +18740,7 @@
         <v>1.042771725018969</v>
       </c>
       <c r="D339" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E339">
         <v>0.8072230747868563</v>
@@ -18778,7 +18790,7 @@
         <v>1.021701802258623</v>
       </c>
       <c r="D340" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E340">
         <v>0.8253643988081922</v>
@@ -18828,7 +18840,7 @@
         <v>1.008292997547201</v>
       </c>
       <c r="D341" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E341">
         <v>0.8253643988081922</v>
@@ -18878,7 +18890,7 @@
         <v>1.08618052973039</v>
       </c>
       <c r="D342" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E342">
         <v>0.8253643988081922</v>
@@ -18928,7 +18940,7 @@
         <v>0.626551025676668</v>
       </c>
       <c r="D343" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E343">
         <v>0.8397299159004703</v>
@@ -18978,7 +18990,7 @@
         <v>0.6650352235041792</v>
       </c>
       <c r="D344" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E344">
         <v>0.8397299159004703</v>
@@ -19028,7 +19040,7 @@
         <v>0.6598772017792953</v>
       </c>
       <c r="D345" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E345">
         <v>0.8397299159004703</v>
@@ -19078,7 +19090,7 @@
         <v>0.6659404104692488</v>
       </c>
       <c r="D346" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E346">
         <v>0.8397299159004703</v>
@@ -19128,7 +19140,7 @@
         <v>0.6288247289354008</v>
       </c>
       <c r="D347" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E347">
         <v>0.8397299159004703</v>
@@ -19178,7 +19190,7 @@
         <v>1.026234982226899</v>
       </c>
       <c r="D348" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E348">
         <v>0.7897299159004705</v>
@@ -19228,7 +19240,7 @@
         <v>1.004424608296761</v>
       </c>
       <c r="D349" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E349">
         <v>0.807161640884086</v>
@@ -19278,7 +19290,7 @@
         <v>0.9915402898306089</v>
       </c>
       <c r="D350" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E350">
         <v>0.807161640884086</v>
@@ -19328,7 +19340,7 @@
         <v>1.069119300693051</v>
       </c>
       <c r="D351" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E351">
         <v>0.807161640884086</v>
@@ -19378,7 +19390,7 @@
         <v>1.142735629781317</v>
       </c>
       <c r="D352" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E352">
         <v>1.359544955380558</v>
@@ -19428,7 +19440,7 @@
         <v>1.137455121112266</v>
       </c>
       <c r="D353" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E353">
         <v>1.359544955380558</v>
@@ -19478,7 +19490,7 @@
         <v>1.094341564253561</v>
       </c>
       <c r="D354" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E354">
         <v>1.359544955380558</v>
@@ -19728,7 +19740,7 @@
         <v>1.184551441658606</v>
       </c>
       <c r="D359" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E359">
         <v>1.405438550330987</v>
@@ -19778,7 +19790,7 @@
         <v>1.179048508458293</v>
       </c>
       <c r="D360" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E360">
         <v>1.405438550330987</v>
@@ -19828,7 +19840,7 @@
         <v>1.138752328995576</v>
       </c>
       <c r="D361" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E361">
         <v>1.405438550330987</v>
@@ -20128,7 +20140,7 @@
         <v>1.208450935989571</v>
       </c>
       <c r="D367" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E367">
         <v>1.43166866910912</v>
@@ -20178,7 +20190,7 @@
         <v>1.202820877819413</v>
       </c>
       <c r="D368" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E368">
         <v>1.43166866910912</v>
@@ -20228,7 +20240,7 @@
         <v>1.164134947974739</v>
       </c>
       <c r="D369" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E369">
         <v>1.43166866910912</v>
@@ -20278,7 +20290,7 @@
         <v>1.607271750371773</v>
       </c>
       <c r="D370" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E370">
         <v>1.654778494598649</v>
@@ -20328,7 +20340,7 @@
         <v>1.59290180854193</v>
       </c>
       <c r="D371" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E371">
         <v>1.654778494598649</v>
@@ -20378,7 +20390,7 @@
         <v>1.602847854726919</v>
       </c>
       <c r="D372" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E372">
         <v>1.654778494598649</v>
@@ -20428,7 +20440,7 @@
         <v>1.709711052329885</v>
       </c>
       <c r="D373" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E373">
         <v>1.654778494598649</v>
@@ -20478,7 +20490,7 @@
         <v>1.255887381215909</v>
       </c>
       <c r="D374" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E374">
         <v>1.479187680878161</v>
@@ -20528,7 +20540,7 @@
         <v>1.251747741543268</v>
       </c>
       <c r="D375" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E375">
         <v>1.479187680878161</v>
@@ -20578,7 +20590,7 @@
         <v>1.245887381215909</v>
       </c>
       <c r="D376" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E376">
         <v>1.479187680878161</v>
@@ -20628,7 +20640,7 @@
         <v>1.210118612029109</v>
       </c>
       <c r="D377" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E377">
         <v>1.479187680878161</v>
@@ -20678,7 +20690,7 @@
         <v>1.653792786126277</v>
       </c>
       <c r="D378" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E378">
         <v>1.675746239568729</v>
@@ -20728,7 +20740,7 @@
         <v>1.639653146453635</v>
       </c>
       <c r="D379" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E379">
         <v>1.675746239568729</v>
@@ -20778,7 +20790,7 @@
         <v>1.676211705144204</v>
       </c>
       <c r="D380" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E380">
         <v>1.675746239568729</v>
@@ -20828,7 +20840,7 @@
         <v>1.647142636295151</v>
       </c>
       <c r="D381" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E381">
         <v>1.675746239568729</v>
@@ -20878,7 +20890,7 @@
         <v>1.753468462197983</v>
       </c>
       <c r="D382" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E382">
         <v>1.675746239568729</v>
@@ -20928,7 +20940,7 @@
         <v>1.280568627878574</v>
       </c>
       <c r="D383" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E383">
         <v>1.506420642882063</v>
@@ -20978,7 +20990,7 @@
         <v>1.276560973482204</v>
       </c>
       <c r="D384" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E384">
         <v>1.506420642882063</v>
@@ -21028,7 +21040,7 @@
         <v>1.270568627878574</v>
       </c>
       <c r="D385" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E385">
         <v>1.506420642882063</v>
@@ -21078,7 +21090,7 @@
         <v>1.236471672191206</v>
       </c>
       <c r="D386" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E386">
         <v>1.506420642882063</v>
@@ -21378,7 +21390,7 @@
         <v>1.291319393306684</v>
       </c>
       <c r="D392" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E392">
         <v>1.518282895644987</v>
@@ -21428,7 +21440,7 @@
         <v>1.287369229634528</v>
       </c>
       <c r="D393" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E393">
         <v>1.518282895644987</v>
@@ -21478,7 +21490,7 @@
         <v>1.281319393306684</v>
       </c>
       <c r="D394" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E394">
         <v>1.518282895644987</v>
@@ -21528,7 +21540,7 @@
         <v>1.247950653459365</v>
       </c>
       <c r="D395" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E395">
         <v>1.518282895644987</v>
@@ -21578,7 +21590,7 @@
         <v>1.692066938224333</v>
       </c>
       <c r="D396" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E396">
         <v>1.787784532366555</v>
@@ -21628,7 +21640,7 @@
         <v>1.713917429240804</v>
       </c>
       <c r="D397" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E397">
         <v>1.787784532366555</v>
@@ -21678,7 +21690,7 @@
         <v>1.683585187055182</v>
       </c>
       <c r="D398" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E398">
         <v>1.787784532366555</v>
@@ -21728,7 +21740,7 @@
         <v>1.789468902290213</v>
       </c>
       <c r="D399" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E399">
         <v>1.787784532366555</v>
@@ -21778,7 +21790,7 @@
         <v>1.315907870194452</v>
       </c>
       <c r="D400" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E400">
         <v>1.545413496702969</v>
@@ -21828,7 +21840,7 @@
         <v>1.312089195703514</v>
       </c>
       <c r="D401" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E401">
         <v>1.545413496702969</v>
@@ -21878,7 +21890,7 @@
         <v>1.305907870194452</v>
       </c>
       <c r="D402" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E402">
         <v>1.545413496702969</v>
@@ -21928,7 +21940,7 @@
         <v>1.274204659975895</v>
       </c>
       <c r="D403" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E403">
         <v>1.545413496702969</v>
@@ -21978,7 +21990,7 @@
         <v>1.718627752830372</v>
       </c>
       <c r="D404" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E404">
         <v>1.809781567121418</v>
@@ -22028,7 +22040,7 @@
         <v>1.740083776303188</v>
       </c>
       <c r="D405" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E405">
         <v>1.809781567121418</v>
@@ -22078,7 +22090,7 @@
         <v>1.814451846721636</v>
       </c>
       <c r="D406" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E406">
         <v>1.809781567121418</v>
@@ -22128,7 +22140,7 @@
         <v>1.35168436621829</v>
       </c>
       <c r="D407" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E407">
         <v>1.584888810497543</v>
@@ -22178,7 +22190,7 @@
         <v>1.348057009887907</v>
       </c>
       <c r="D408" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E408">
         <v>1.584888810497543</v>
@@ -22228,7 +22240,7 @@
         <v>1.34168436621829</v>
       </c>
       <c r="D409" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E409">
         <v>1.584888810497543</v>
@@ -22278,7 +22290,7 @@
         <v>1.312404519366766</v>
       </c>
       <c r="D410" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E410">
         <v>1.584888810497543</v>
@@ -22328,7 +22340,7 @@
         <v>1.757274021262539</v>
       </c>
       <c r="D411" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E411">
         <v>1.821783446584072</v>
@@ -22378,7 +22390,7 @@
         <v>1.77815609025369</v>
       </c>
       <c r="D412" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E412">
         <v>1.821783446584072</v>
@@ -22428,7 +22440,7 @@
         <v>1.85080229722714</v>
       </c>
       <c r="D413" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E413">
         <v>1.821783446584072</v>
@@ -22478,7 +22490,7 @@
         <v>1.420621085395937</v>
       </c>
       <c r="D414" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E414">
         <v>1.660952677112452</v>
@@ -22528,7 +22540,7 @@
         <v>1.417362374622654</v>
       </c>
       <c r="D415" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E415">
         <v>1.660952677112452</v>
@@ -22578,7 +22590,7 @@
         <v>1.410621085395937</v>
       </c>
       <c r="D416" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E416">
         <v>1.660952677112452</v>
@@ -22628,7 +22640,7 @@
         <v>1.386010748934345</v>
       </c>
       <c r="D417" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E417">
         <v>1.660952677112452</v>
@@ -22678,7 +22690,7 @@
         <v>1.929717195067925</v>
       </c>
       <c r="D418" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E418">
         <v>1.895223002250114</v>
@@ -22728,7 +22740,7 @@
         <v>1.851516556116533</v>
       </c>
       <c r="D419" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E419">
         <v>1.895223002250114</v>
@@ -22778,7 +22790,7 @@
         <v>1.920844953076086</v>
       </c>
       <c r="D420" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E420">
         <v>1.895223002250114</v>
@@ -22828,7 +22840,7 @@
         <v>1.515514817968792</v>
       </c>
       <c r="D421" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E421">
         <v>1.765657169915654</v>
@@ -22878,7 +22890,7 @@
         <v>1.512763560310871</v>
       </c>
       <c r="D422" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E422">
         <v>1.765657169915654</v>
@@ -22928,7 +22940,7 @@
         <v>1.505514817968792</v>
       </c>
       <c r="D423" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E423">
         <v>1.765657169915654</v>
@@ -22978,7 +22990,7 @@
         <v>1.487332220968461</v>
       </c>
       <c r="D424" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E424">
         <v>1.765657169915654</v>
@@ -23028,7 +23040,7 @@
         <v>2.033575932678857</v>
       </c>
       <c r="D425" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E425">
         <v>2.006662200547338</v>
@@ -23078,7 +23090,7 @@
         <v>1.952499726073742</v>
       </c>
       <c r="D426" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E426">
         <v>2.006662200547338</v>
@@ -23128,7 +23140,7 @@
         <v>2.017261044995029</v>
       </c>
       <c r="D427" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E427">
         <v>2.006662200547338</v>
@@ -23178,7 +23190,7 @@
         <v>1.659769367802348</v>
       </c>
       <c r="D428" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E428">
         <v>1.924825737379062</v>
@@ -23228,7 +23240,7 @@
         <v>1.65778952484942</v>
       </c>
       <c r="D429" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E429">
         <v>1.924825737379062</v>
@@ -23278,7 +23290,7 @@
         <v>1.649769367802349</v>
       </c>
       <c r="D430" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E430">
         <v>1.924825737379062</v>
@@ -23328,7 +23340,7 @@
         <v>1.64135802373192</v>
       </c>
       <c r="D431" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E431">
         <v>1.924825737379062</v>
@@ -23378,7 +23390,7 @@
         <v>2.191458808967277</v>
       </c>
       <c r="D432" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E432">
         <v>2.110664481002491</v>
@@ -23428,7 +23440,7 @@
         <v>2.106011252367206</v>
       </c>
       <c r="D433" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E433">
         <v>2.110664481002491</v>
@@ -23478,7 +23490,7 @@
         <v>2.163829838943562</v>
       </c>
       <c r="D434" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E434">
         <v>2.110664481002491</v>
@@ -23528,7 +23540,7 @@
         <v>2.119970938273062</v>
       </c>
       <c r="D435" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E435">
         <v>2.110664481002491</v>
@@ -23578,7 +23590,7 @@
         <v>1.810285876772395</v>
       </c>
       <c r="D436" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E436">
         <v>2.090903667953855</v>
@@ -23628,7 +23640,7 @@
         <v>1.809110934936954</v>
       </c>
       <c r="D437" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E437">
         <v>2.090903667953855</v>
@@ -23678,7 +23690,7 @@
         <v>1.800285876772395</v>
       </c>
       <c r="D438" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E438">
         <v>2.090903667953855</v>
@@ -23728,7 +23740,7 @@
         <v>1.8020699468568</v>
       </c>
       <c r="D439" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E439">
         <v>2.090903667953855</v>
@@ -23778,7 +23790,7 @@
         <v>2.356195237679592</v>
       </c>
       <c r="D440" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E440">
         <v>2.212069946856801</v>
@@ -23828,7 +23840,7 @@
         <v>2.266186574747096</v>
       </c>
       <c r="D441" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E441">
         <v>2.212069946856801</v>
@@ -23878,7 +23890,7 @@
         <v>2.31676105126607</v>
       </c>
       <c r="D442" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E442">
         <v>2.212069946856801</v>
@@ -23928,7 +23940,7 @@
         <v>2.278536458417978</v>
       </c>
       <c r="D443" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E443">
         <v>2.212069946856801</v>
@@ -23978,7 +23990,7 @@
         <v>2.062986387766934</v>
       </c>
       <c r="D444" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E444">
         <v>2.369730078480806</v>
@@ -24028,7 +24040,7 @@
         <v>2.06316278556248</v>
       </c>
       <c r="D445" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E445">
         <v>2.369730078480806</v>
@@ -24078,7 +24090,7 @@
         <v>2.071887426510505</v>
       </c>
       <c r="D446" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E446">
         <v>2.369730078480806</v>
@@ -24128,7 +24140,7 @@
         <v>2.632769415488232</v>
       </c>
       <c r="D447" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E447">
         <v>2.50778970272981</v>
@@ -24178,7 +24190,7 @@
         <v>2.573515581153569</v>
       </c>
       <c r="D448" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E448">
         <v>2.50778970272981</v>
@@ -24228,7 +24240,7 @@
         <v>2.544750365722385</v>
       </c>
       <c r="D449" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E449">
         <v>2.50778970272981</v>
@@ -24278,7 +24290,7 @@
         <v>2.553999441272534</v>
       </c>
       <c r="D450" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E450">
         <v>2.813202993319117</v>
@@ -24328,7 +24340,7 @@
         <v>2.547533939997146</v>
       </c>
       <c r="D451" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E451">
         <v>2.813202993319117</v>
@@ -24378,7 +24390,7 @@
         <v>3.13326483080243</v>
       </c>
       <c r="D452" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E452">
         <v>2.87387576630591</v>
@@ -24428,7 +24440,7 @@
         <v>3.038144875500626</v>
       </c>
       <c r="D453" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E453">
         <v>2.87387576630591</v>
@@ -24478,7 +24490,7 @@
         <v>3.035948483419955</v>
       </c>
       <c r="D454" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E454">
         <v>2.87387576630591</v>
@@ -24528,7 +24540,7 @@
         <v>3.591660905082458</v>
       </c>
       <c r="D455" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E455">
         <v>3.945252973872349</v>
@@ -24678,7 +24690,7 @@
         <v>2.86820460595768</v>
       </c>
       <c r="D458" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E458">
         <v>3.138678397668333</v>
@@ -24728,7 +24740,7 @@
         <v>2.851519426722356</v>
       </c>
       <c r="D459" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E459">
         <v>3.138678397668333</v>
@@ -24778,7 +24790,7 @@
         <v>2.868149068251708</v>
       </c>
       <c r="D460" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E460">
         <v>3.138678397668333</v>
@@ -24828,7 +24840,7 @@
         <v>3.448970831229631</v>
       </c>
       <c r="D461" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E461">
         <v>3.183720050947811</v>
@@ -24878,7 +24890,7 @@
         <v>3.377034871712487</v>
       </c>
       <c r="D462" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E462">
         <v>3.183720050947811</v>
@@ -24928,7 +24940,7 @@
         <v>2.358110206260426</v>
       </c>
       <c r="D463" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E463">
         <v>2.638276257123781</v>
@@ -24978,7 +24990,7 @@
         <v>2.331756830399265</v>
       </c>
       <c r="D464" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E464">
         <v>2.638276257123781</v>
@@ -25028,7 +25040,7 @@
         <v>2.899146400442653</v>
       </c>
       <c r="D465" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E465">
         <v>2.658455604321169</v>
@@ -25078,7 +25090,7 @@
         <v>2.820803661648716</v>
       </c>
       <c r="D466" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E466">
         <v>2.658455604321169</v>
@@ -25128,7 +25140,7 @@
         <v>2.837060715744168</v>
       </c>
       <c r="D467" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E467">
         <v>2.658455604321169</v>
@@ -25178,7 +25190,7 @@
         <v>2.825582801735491</v>
       </c>
       <c r="D468" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E468">
         <v>2.658455604321169</v>
@@ -25228,7 +25240,7 @@
         <v>2.136909691166413</v>
       </c>
       <c r="D469" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E469">
         <v>2.404885634240017</v>
@@ -25278,7 +25290,7 @@
         <v>2.105907100015784</v>
       </c>
       <c r="D470" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E470">
         <v>2.404885634240017</v>
@@ -25328,7 +25340,7 @@
         <v>2.667641000683959</v>
       </c>
       <c r="D471" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E471">
         <v>2.457950031567318</v>
@@ -25378,7 +25390,7 @@
         <v>2.605888225390645</v>
       </c>
       <c r="D472" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E472">
         <v>2.457950031567318</v>
@@ -25428,7 +25440,7 @@
         <v>2.60970280686063</v>
       </c>
       <c r="D473" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E473">
         <v>2.457950031567318</v>
@@ -25478,7 +25490,7 @@
         <v>2.599356026726996</v>
       </c>
       <c r="D474" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E474">
         <v>2.457950031567318</v>
@@ -25528,7 +25540,7 @@
         <v>1.900611258233865</v>
       </c>
       <c r="D475" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E475">
         <v>2.138942488812295</v>
@@ -25578,7 +25590,7 @@
         <v>1.901190054137531</v>
       </c>
       <c r="D476" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E476">
         <v>2.138942488812295</v>
@@ -25628,7 +25640,7 @@
         <v>1.897421572498996</v>
       </c>
       <c r="D477" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E477">
         <v>2.138942488812295</v>
@@ -25678,7 +25690,7 @@
         <v>2.403846022828351</v>
       </c>
       <c r="D478" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E478">
         <v>2.266842776595331</v>
@@ -25728,7 +25740,7 @@
         <v>2.360997122169641</v>
       </c>
       <c r="D479" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E479">
         <v>2.266842776595331</v>
@@ -25778,7 +25790,7 @@
         <v>2.350633797663673</v>
       </c>
       <c r="D480" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E480">
         <v>2.266842776595331</v>
@@ -25828,7 +25840,7 @@
         <v>2.341575918073307</v>
       </c>
       <c r="D481" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E481">
         <v>2.266842776595331</v>
@@ -25878,7 +25890,7 @@
         <v>0.06833146887762798</v>
       </c>
       <c r="D482" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E482">
         <v>0.2515379924458756</v>
@@ -25928,7 +25940,7 @@
         <v>0.09559505684016401</v>
       </c>
       <c r="D483" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E483">
         <v>0.2515379924458756</v>
@@ -25978,7 +25990,7 @@
         <v>0.02229342594810202</v>
       </c>
       <c r="D484" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E484">
         <v>0.2515379924458756</v>
@@ -26028,7 +26040,7 @@
         <v>0.07493473066175138</v>
       </c>
       <c r="D485" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E485">
         <v>0.2515379924458756</v>
@@ -26078,7 +26090,7 @@
         <v>0.09682060187317454</v>
       </c>
       <c r="D486" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E486">
         <v>0.2921032113004749</v>
@@ -26128,7 +26140,7 @@
         <v>0.4058749537233215</v>
       </c>
       <c r="D487" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E487">
         <v>0.4152146275449082</v>
@@ -26178,7 +26190,7 @@
         <v>0.4038939751880841</v>
       </c>
       <c r="D488" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E488">
         <v>0.4152146275449082</v>
@@ -26228,7 +26240,7 @@
         <v>0.01461566789420843</v>
       </c>
       <c r="D489" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E489">
         <v>0.1862219618346161</v>
@@ -26278,7 +26290,7 @@
         <v>-0.05940006695681266</v>
       </c>
       <c r="D490" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E490">
         <v>0.1862219618346161</v>
@@ -26328,7 +26340,7 @@
         <v>-0.006187479075995483</v>
       </c>
       <c r="D491" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E491">
         <v>0.1862219618346161</v>
@@ -26378,7 +26390,7 @@
         <v>0.01826916638767973</v>
       </c>
       <c r="D492" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E492">
         <v>0.2146943421493139</v>
@@ -26428,7 +26440,7 @@
         <v>0.3336076330766655</v>
       </c>
       <c r="D493" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E493">
         <v>0.3744107800468699</v>
@@ -26478,7 +26490,7 @@
         <v>0.3311981921660534</v>
       </c>
       <c r="D494" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E494">
         <v>0.3744107800468699</v>
@@ -26528,7 +26540,7 @@
         <v>-0.03183657790337602</v>
       </c>
       <c r="D495" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E495">
         <v>0.1263451749282281</v>
@@ -26564,7 +26576,7 @@
         <v>1</v>
       </c>
       <c r="P495" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -26578,7 +26590,7 @@
         <v>-0.04547307224016794</v>
       </c>
       <c r="D496" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E496">
         <v>0.1263451749282281</v>
@@ -26614,7 +26626,7 @@
         <v>1</v>
       </c>
       <c r="P496" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -26628,7 +26640,7 @@
         <v>-0.06638219582436466</v>
       </c>
       <c r="D497" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E497">
         <v>0.1263451749282281</v>
@@ -26664,7 +26676,7 @@
         <v>1</v>
       </c>
       <c r="P497" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -26678,7 +26690,7 @@
         <v>-0.04001797130880469</v>
       </c>
       <c r="D498" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E498">
         <v>0.1572550173647782</v>
@@ -26714,7 +26726,7 @@
         <v>1</v>
       </c>
       <c r="P498" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -26728,7 +26740,7 @@
         <v>0.2799834663959002</v>
       </c>
       <c r="D499" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E499">
         <v>0.2990743428117018</v>
@@ -26764,7 +26776,7 @@
         <v>1</v>
       </c>
       <c r="P499" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -26778,7 +26790,7 @@
         <v>0.2927108371484932</v>
       </c>
       <c r="D500" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E500">
         <v>0.2990743428117018</v>
@@ -26814,7 +26826,7 @@
         <v>1</v>
       </c>
       <c r="P500" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -26828,7 +26840,7 @@
         <v>2.328573731313484</v>
       </c>
       <c r="D501" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E501">
         <v>2.38850098797026</v>
@@ -26878,7 +26890,7 @@
         <v>2.311727797453313</v>
       </c>
       <c r="D502" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E502">
         <v>2.38850098797026</v>
@@ -26928,7 +26940,7 @@
         <v>2.277498128152465</v>
       </c>
       <c r="D503" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E503">
         <v>2.38850098797026</v>
@@ -26978,7 +26990,7 @@
         <v>2.434271318669412</v>
       </c>
       <c r="D504" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E504">
         <v>2.368966046207545</v>
@@ -27028,7 +27040,7 @@
         <v>2.32366077374568</v>
       </c>
       <c r="D505" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E505">
         <v>2.390041649368564</v>
@@ -27078,7 +27090,7 @@
         <v>2.442730657271108</v>
       </c>
       <c r="D506" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E506">
         <v>2.371117252529581</v>
@@ -27128,7 +27140,7 @@
         <v>2.477425384809242</v>
       </c>
       <c r="D507" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E507">
         <v>2.518428244627036</v>
@@ -27178,7 +27190,7 @@
         <v>2.431582310766867</v>
       </c>
       <c r="D508" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E508">
         <v>2.369968906025341</v>
@@ -27478,7 +27490,7 @@
         <v>2.273423820568129</v>
       </c>
       <c r="D514" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E514">
         <v>2.348847751625323</v>
@@ -27528,7 +27540,7 @@
         <v>2.238819356972905</v>
       </c>
       <c r="D515" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E515">
         <v>2.348847751625323</v>
@@ -27578,7 +27590,7 @@
         <v>2.3942432880301</v>
       </c>
       <c r="D516" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E516">
         <v>2.328113468120607</v>
@@ -27628,7 +27640,7 @@
         <v>2.281983648211115</v>
       </c>
       <c r="D517" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E517">
         <v>2.349638824434876</v>
@@ -27678,7 +27690,7 @@
         <v>2.403452215220548</v>
       </c>
       <c r="D518" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E518">
         <v>2.331164180749144</v>
@@ -27728,7 +27740,7 @@
         <v>2.437322395311055</v>
       </c>
       <c r="D519" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E519">
         <v>2.477350789963473</v>
@@ -27778,7 +27790,7 @@
         <v>2.390429897244429</v>
       </c>
       <c r="D520" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E520">
         <v>2.328141862773026</v>
@@ -28078,7 +28090,7 @@
         <v>2.216097983185153</v>
       </c>
       <c r="D526" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E526">
         <v>2.278296441308225</v>
@@ -28128,7 +28140,7 @@
         <v>2.180932601415928</v>
       </c>
       <c r="D527" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E527">
         <v>2.289502608815942</v>
@@ -28178,7 +28190,7 @@
         <v>2.334337227046717</v>
       </c>
       <c r="D528" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E528">
         <v>2.26697338715442</v>
@@ -28228,7 +28240,7 @@
         <v>2.219609547262124</v>
       </c>
       <c r="D529" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E529">
         <v>2.289171845277491</v>
@@ -28278,7 +28290,7 @@
         <v>2.344667990585168</v>
       </c>
       <c r="D530" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E530">
         <v>2.271370303400561</v>
@@ -28328,7 +28340,7 @@
         <v>2.377304150692871</v>
       </c>
       <c r="D531" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E531">
         <v>2.415874158092884</v>
@@ -28378,7 +28390,7 @@
         <v>2.32884108173904</v>
       </c>
       <c r="D532" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E532">
         <v>2.265543394554435</v>
@@ -28678,7 +28690,7 @@
         <v>2.129304507872965</v>
       </c>
       <c r="D538" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E538">
         <v>2.23657380748992</v>
@@ -28728,7 +28740,7 @@
         <v>2.280908153496441</v>
       </c>
       <c r="D539" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E539">
         <v>2.212443714710786</v>
@@ -28778,7 +28790,7 @@
         <v>2.163979275925133</v>
       </c>
       <c r="D540" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E540">
         <v>2.235242499502962</v>
@@ -28828,7 +28840,7 @@
         <v>2.292239461483399</v>
       </c>
       <c r="D541" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E541">
         <v>2.218041284295136</v>
@@ -28878,7 +28890,7 @@
         <v>2.323775022697745</v>
       </c>
       <c r="D542" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E542">
         <v>2.361044322314699</v>
@@ -28928,7 +28940,7 @@
         <v>2.273911191516004</v>
       </c>
       <c r="D543" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E543">
         <v>2.209713014327742</v>
@@ -29278,7 +29290,7 @@
         <v>2.045412902019458</v>
       </c>
       <c r="D550" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E550">
         <v>2.135412902019459</v>
@@ -29328,7 +29340,7 @@
         <v>2.194090096275951</v>
       </c>
       <c r="D551" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E551">
         <v>2.123837270543807</v>
@@ -29378,7 +29390,7 @@
         <v>2.073584444811665</v>
       </c>
       <c r="D552" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E552">
         <v>2.147611539124977</v>
@@ -29428,7 +29440,7 @@
         <v>2.2070472105779</v>
       </c>
       <c r="D553" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E553">
         <v>2.131385807706146</v>
@@ -29478,7 +29490,7 @@
         <v>2.236794384845756</v>
       </c>
       <c r="D554" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E554">
         <v>2.271950136253223</v>
@@ -29528,7 +29540,7 @@
         <v>2.184654424823028</v>
       </c>
       <c r="D555" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E555">
         <v>2.118993021951275</v>
@@ -29878,7 +29890,7 @@
         <v>2.129009034907942</v>
       </c>
       <c r="D562" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E562">
         <v>2.057415588061476</v>
@@ -29928,7 +29940,7 @@
         <v>2.005822141215011</v>
       </c>
       <c r="D563" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E563">
         <v>2.081921104523186</v>
@@ -29978,7 +29990,7 @@
         <v>2.143184895677456</v>
       </c>
       <c r="D564" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E564">
         <v>2.205162829830622</v>
@@ -30028,7 +30040,7 @@
         <v>2.171591448830991</v>
       </c>
       <c r="D565" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E565">
         <v>2.205162829830622</v>
@@ -30078,7 +30090,7 @@
         <v>2.117745243753671</v>
       </c>
       <c r="D566" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E566">
         <v>2.050986969061109</v>
@@ -30378,7 +30390,7 @@
         <v>2.096029330113085</v>
       </c>
       <c r="D572" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E572">
         <v>2.023756526051743</v>
@@ -30414,7 +30426,7 @@
         <v>1</v>
       </c>
       <c r="P572" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -30428,7 +30440,7 @@
         <v>1.971483721990404</v>
       </c>
       <c r="D573" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E573">
         <v>2.048632600994294</v>
@@ -30464,7 +30476,7 @@
         <v>1</v>
       </c>
       <c r="P573" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -30478,7 +30490,7 @@
         <v>1.973756526051743</v>
       </c>
       <c r="D574" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E574">
         <v>2.048632600994294</v>
@@ -30514,7 +30526,7 @@
         <v>1</v>
       </c>
       <c r="P574" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -30528,7 +30540,7 @@
         <v>2.110822788350668</v>
       </c>
       <c r="D575" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E575">
         <v>2.171318488580469</v>
@@ -30564,7 +30576,7 @@
         <v>1</v>
       </c>
       <c r="P575" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="576" spans="1:16">
@@ -30578,7 +30590,7 @@
         <v>2.138549984289327</v>
       </c>
       <c r="D576" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E576">
         <v>2.171318488580469</v>
@@ -30614,7 +30626,7 @@
         <v>1</v>
       </c>
       <c r="P576" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -30628,7 +30640,7 @@
         <v>2.083839142756712</v>
       </c>
       <c r="D577" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E577">
         <v>2.016525030342887</v>
@@ -30664,7 +30676,7 @@
         <v>1</v>
       </c>
       <c r="P577" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -30714,7 +30726,7 @@
         <v>1</v>
       </c>
       <c r="P578" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -30764,7 +30776,7 @@
         <v>1</v>
       </c>
       <c r="P579" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="580" spans="1:16">
@@ -30814,7 +30826,7 @@
         <v>1</v>
       </c>
       <c r="P580" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="581" spans="1:16">
@@ -30828,7 +30840,7 @@
         <v>1.949210917929062</v>
       </c>
       <c r="D581" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E581">
         <v>1.907020730572688</v>
@@ -30864,7 +30876,7 @@
         <v>1</v>
       </c>
       <c r="P581" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -30878,7 +30890,7 @@
         <v>1.92954138474893</v>
       </c>
       <c r="D582" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E582">
         <v>1.907020730572688</v>
@@ -30914,7 +30926,7 @@
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -30928,7 +30940,7 @@
         <v>2.096163622975572</v>
       </c>
       <c r="D583" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E583">
         <v>2.023893585246604</v>
@@ -30964,7 +30976,7 @@
         <v>1</v>
       </c>
       <c r="P583" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="584" spans="1:16">
@@ -30978,7 +30990,7 @@
         <v>2.110954566365543</v>
       </c>
       <c r="D584" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E584">
         <v>2.171456302229613</v>
@@ -31014,7 +31026,7 @@
         <v>1</v>
       </c>
       <c r="P584" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -31028,7 +31040,7 @@
         <v>2.138684528636575</v>
       </c>
       <c r="D585" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E585">
         <v>2.171456302229613</v>
@@ -31064,7 +31076,7 @@
         <v>1</v>
       </c>
       <c r="P585" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="586" spans="1:16">
@@ -31114,7 +31126,7 @@
         <v>1</v>
       </c>
       <c r="P586" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="587" spans="1:16">
@@ -31164,7 +31176,7 @@
         <v>1</v>
       </c>
       <c r="P587" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="588" spans="1:16">
@@ -31214,7 +31226,7 @@
         <v>1</v>
       </c>
       <c r="P588" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="589" spans="1:16">
@@ -31264,7 +31276,7 @@
         <v>1</v>
       </c>
       <c r="P589" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="590" spans="1:16">
@@ -31314,7 +31326,7 @@
         <v>1</v>
       </c>
       <c r="P590" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="591" spans="1:16">
@@ -31328,7 +31340,7 @@
         <v>2.110759270205002</v>
       </c>
       <c r="D591" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E591">
         <v>2.038789891875891</v>
@@ -31364,7 +31376,7 @@
         <v>1</v>
       </c>
       <c r="P591" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="592" spans="1:16">
@@ -31378,7 +31390,7 @@
         <v>2.12527688686783</v>
       </c>
       <c r="D592" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E592">
         <v>2.013886368543326</v>
@@ -31414,7 +31426,7 @@
         <v>1</v>
       </c>
       <c r="P592" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="593" spans="1:16">
@@ -31428,7 +31440,7 @@
         <v>2.153307508538719</v>
       </c>
       <c r="D593" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E593">
         <v>2.013886368543326</v>
@@ -31464,7 +31476,7 @@
         <v>1</v>
       </c>
       <c r="P593" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="594" spans="1:16">
@@ -31514,7 +31526,7 @@
         <v>1</v>
       </c>
       <c r="P594" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="595" spans="1:16">
@@ -31564,7 +31576,7 @@
         <v>1</v>
       </c>
       <c r="P595" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="596" spans="1:16">
@@ -31614,7 +31626,7 @@
         <v>1</v>
       </c>
       <c r="P596" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="597" spans="1:16">
@@ -31664,7 +31676,7 @@
         <v>1</v>
       </c>
       <c r="P597" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="598" spans="1:16">
@@ -31714,7 +31726,7 @@
         <v>1</v>
       </c>
       <c r="P598" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="599" spans="1:16">
@@ -31778,7 +31790,7 @@
         <v>2.156860011399363</v>
       </c>
       <c r="D600" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E600">
         <v>2.046855775258495</v>
@@ -31828,7 +31840,7 @@
         <v>2.185553637592861</v>
       </c>
       <c r="D601" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E601">
         <v>2.046855775258495</v>
@@ -31878,7 +31890,7 @@
         <v>2.132072798202768</v>
       </c>
       <c r="D602" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E602">
         <v>2.065549401451994</v>
@@ -32228,7 +32240,7 @@
         <v>2.170392584088286</v>
       </c>
       <c r="D609" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E609">
         <v>2.060982334916589</v>
@@ -32278,7 +32290,7 @@
         <v>2.19937029100617</v>
       </c>
       <c r="D610" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E610">
         <v>2.060982334916589</v>
@@ -32328,7 +32340,7 @@
         <v>2.146251008901658</v>
       </c>
       <c r="D611" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E611">
         <v>2.079960041834473</v>
@@ -32664,7 +32676,7 @@
         <v>1</v>
       </c>
       <c r="P617" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="618" spans="1:16">
@@ -32678,7 +32690,7 @@
         <v>2.199468285459675</v>
       </c>
       <c r="D618" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E618">
         <v>2.091334259821454</v>
@@ -32714,7 +32726,7 @@
         <v>1</v>
       </c>
       <c r="P618" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -32728,7 +32740,7 @@
         <v>2.229056360154438</v>
       </c>
       <c r="D619" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E619">
         <v>2.091334259821454</v>
@@ -32764,7 +32776,7 @@
         <v>1</v>
       </c>
       <c r="P619" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -32778,7 +32790,7 @@
         <v>2.176713909765957</v>
       </c>
       <c r="D620" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E620">
         <v>2.110922334516219</v>
@@ -32814,7 +32826,7 @@
         <v>1</v>
       </c>
       <c r="P620" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -32864,7 +32876,7 @@
         <v>1</v>
       </c>
       <c r="P621" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -32914,7 +32926,7 @@
         <v>1</v>
       </c>
       <c r="P622" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -32964,7 +32976,7 @@
         <v>1</v>
       </c>
       <c r="P623" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="624" spans="1:16">
@@ -33014,7 +33026,7 @@
         <v>1</v>
       </c>
       <c r="P624" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -33064,7 +33076,7 @@
         <v>1</v>
       </c>
       <c r="P625" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="626" spans="1:16">
@@ -33078,7 +33090,7 @@
         <v>2.220298065961964</v>
       </c>
       <c r="D626" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E626">
         <v>2.113078324582432</v>
@@ -33114,7 +33126,7 @@
         <v>1</v>
       </c>
       <c r="P626" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="627" spans="1:16">
@@ -33128,7 +33140,7 @@
         <v>2.250323407041319</v>
       </c>
       <c r="D627" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E627">
         <v>2.113078324582432</v>
@@ -33164,7 +33176,7 @@
         <v>1</v>
       </c>
       <c r="P627" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="628" spans="1:16">
@@ -33178,7 +33190,7 @@
         <v>2.198537477505952</v>
       </c>
       <c r="D628" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E628">
         <v>2.133103665661787</v>
@@ -33214,7 +33226,7 @@
         <v>1</v>
       </c>
       <c r="P628" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="629" spans="1:16">
@@ -33264,7 +33276,7 @@
         <v>1</v>
       </c>
       <c r="P629" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="630" spans="1:16">
@@ -33314,7 +33326,7 @@
         <v>1</v>
       </c>
       <c r="P630" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="631" spans="1:16">
@@ -33364,7 +33376,7 @@
         <v>1</v>
       </c>
       <c r="P631" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="632" spans="1:16">
@@ -33414,7 +33426,7 @@
         <v>1</v>
       </c>
       <c r="P632" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -33478,7 +33490,7 @@
         <v>2.238063065063528</v>
       </c>
       <c r="D634" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E634">
         <v>2.131623085094942</v>
@@ -33528,7 +33540,7 @@
         <v>2.268461335513335</v>
       </c>
       <c r="D635" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E635">
         <v>2.131623085094942</v>
@@ -33578,7 +33590,7 @@
         <v>2.217150043358544</v>
       </c>
       <c r="D636" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E636">
         <v>2.15202135554475</v>
@@ -33878,7 +33890,7 @@
         <v>2.240855764159465</v>
       </c>
       <c r="D642" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E642">
         <v>2.134538364494709</v>
@@ -33928,7 +33940,7 @@
         <v>2.271312659971973</v>
       </c>
       <c r="D643" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E643">
         <v>2.134538364494709</v>
@@ -33978,7 +33990,7 @@
         <v>2.220075981915165</v>
       </c>
       <c r="D644" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E644">
         <v>2.154995260307217</v>
@@ -34228,7 +34240,7 @@
         <v>2.244303552497403</v>
       </c>
       <c r="D649" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E649">
         <v>2.138137487053587</v>
@@ -34278,7 +34290,7 @@
         <v>2.274832825546012</v>
       </c>
       <c r="D650" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E650">
         <v>2.138137487053587</v>
@@ -34328,7 +34340,7 @@
         <v>2.223688263971516</v>
       </c>
       <c r="D651" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E651">
         <v>2.149196033150806</v>
@@ -34628,7 +34640,7 @@
         <v>2.233337795982168</v>
       </c>
       <c r="D657" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E657">
         <v>2.126690409164592</v>
@@ -34664,7 +34676,7 @@
         <v>1</v>
       </c>
       <c r="P657" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="658" spans="1:16">
@@ -34678,7 +34690,7 @@
         <v>2.263636871852023</v>
       </c>
       <c r="D658" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E658">
         <v>2.126690409164592</v>
@@ -34714,7 +34726,7 @@
         <v>1</v>
       </c>
       <c r="P658" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="659" spans="1:16">
@@ -34728,7 +34740,7 @@
         <v>2.21219933205002</v>
       </c>
       <c r="D659" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E659">
         <v>2.137288560904301</v>
@@ -34764,7 +34776,7 @@
         <v>1</v>
       </c>
       <c r="P659" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="660" spans="1:16">
@@ -34814,7 +34826,7 @@
         <v>1</v>
       </c>
       <c r="P660" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -34864,7 +34876,7 @@
         <v>1</v>
       </c>
       <c r="P661" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="662" spans="1:16">
@@ -34914,7 +34926,7 @@
         <v>1</v>
       </c>
       <c r="P662" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="663" spans="1:16">
@@ -34964,7 +34976,7 @@
         <v>1</v>
       </c>
       <c r="P663" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="664" spans="1:16">
@@ -35014,7 +35026,7 @@
         <v>1</v>
       </c>
       <c r="P664" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="665" spans="1:16">
@@ -35028,7 +35040,7 @@
         <v>2.221972886589618</v>
       </c>
       <c r="D665" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E665">
         <v>2.114826658329239</v>
@@ -35078,7 +35090,7 @@
         <v>2.252033386117262</v>
       </c>
       <c r="D666" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E666">
         <v>2.114826658329239</v>
@@ -35128,7 +35140,7 @@
         <v>2.200292203697901</v>
       </c>
       <c r="D667" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E667">
         <v>2.124947657384527</v>
@@ -35228,7 +35240,7 @@
         <v>2.06227538422784</v>
       </c>
       <c r="D669" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E669">
         <v>1.996930837914467</v>
@@ -35278,7 +35290,7 @@
         <v>2.053206474965166</v>
       </c>
       <c r="D670" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E670">
         <v>1.996930837914467</v>
@@ -35328,7 +35340,7 @@
         <v>2.020473702280834</v>
       </c>
       <c r="D671" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E671">
         <v>1.996930837914467</v>
@@ -35378,7 +35390,7 @@
         <v>2.029603111071154</v>
       </c>
       <c r="D672" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E672">
         <v>1.996930837914467</v>
@@ -35428,7 +35440,7 @@
         <v>2.207355417889053</v>
       </c>
       <c r="D673" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E673">
         <v>2.099567583178076</v>
@@ -35478,7 +35490,7 @@
         <v>2.237109062157716</v>
       </c>
       <c r="D674" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E674">
         <v>2.099567583178076</v>
@@ -35528,7 +35540,7 @@
         <v>2.184977336681469</v>
       </c>
       <c r="D675" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E675">
         <v>2.109074871715402</v>
@@ -35628,7 +35640,7 @@
         <v>2.036943146239156</v>
       </c>
       <c r="D677" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E677">
         <v>2.010221174266302</v>
@@ -35678,7 +35690,7 @@
         <v>2.004238269487459</v>
       </c>
       <c r="D678" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E678">
         <v>2.010221174266302</v>
@@ -35728,7 +35740,7 @@
         <v>2.013172406749336</v>
       </c>
       <c r="D679" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E679">
         <v>2.010221174266302</v>
@@ -35778,7 +35790,7 @@
         <v>2.197603098441371</v>
       </c>
       <c r="D680" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E680">
         <v>2.089387203907309</v>
@@ -35828,7 +35840,7 @@
         <v>2.22715201844682</v>
       </c>
       <c r="D681" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E681">
         <v>2.089387203907309</v>
@@ -35878,7 +35890,7 @@
         <v>2.174759734817391</v>
       </c>
       <c r="D682" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E682">
         <v>2.098485043918206</v>
@@ -35978,7 +35990,7 @@
         <v>2.184014672997228</v>
       </c>
       <c r="D684" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E684">
         <v>2.09430865482284</v>
@@ -36128,7 +36140,7 @@
         <v>2.195758520592005</v>
       </c>
       <c r="D687" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E687">
         <v>2.087461661763028</v>
@@ -36178,7 +36190,7 @@
         <v>2.225268718543363</v>
       </c>
       <c r="D688" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E688">
         <v>2.087461661763028</v>
@@ -36328,7 +36340,7 @@
         <v>2.182096171226417</v>
       </c>
       <c r="D691" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E691">
         <v>2.092337350250998</v>
@@ -36378,7 +36390,7 @@
         <v>1.991357746153715</v>
       </c>
       <c r="D692" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E692">
         <v>1.93891617990999</v>
@@ -36428,7 +36440,7 @@
         <v>2.000136963031852</v>
       </c>
       <c r="D693" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E693">
         <v>1.93891617990999</v>
@@ -36478,7 +36490,7 @@
         <v>2.189904250619724</v>
       </c>
       <c r="D694" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E694">
         <v>2.08135042955914</v>
@@ -36528,7 +36540,7 @@
         <v>2.219291553590749</v>
       </c>
       <c r="D695" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E695">
         <v>2.08135042955914</v>
@@ -36678,7 +36690,7 @@
         <v>2.176007283564408</v>
       </c>
       <c r="D698" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E698">
         <v>2.086080878524897</v>
@@ -36728,7 +36740,7 @@
         <v>1.984855484466945</v>
       </c>
       <c r="D699" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E699">
         <v>1.914929079427434</v>
@@ -36778,7 +36790,7 @@
         <v>1.993556495448507</v>
       </c>
       <c r="D700" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E700">
         <v>1.914929079427434</v>
@@ -36828,7 +36840,7 @@
         <v>2.193018564119005</v>
       </c>
       <c r="D701" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E701">
         <v>2.084601440024992</v>
@@ -36864,7 +36876,7 @@
         <v>1</v>
       </c>
       <c r="P701" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="702" spans="1:16">
@@ -36878,7 +36890,7 @@
         <v>2.222471243900129</v>
       </c>
       <c r="D702" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E702">
         <v>2.084601440024992</v>
@@ -36914,7 +36926,7 @@
         <v>1</v>
       </c>
       <c r="P702" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="703" spans="1:16">
@@ -36964,7 +36976,7 @@
         <v>1</v>
       </c>
       <c r="P703" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="704" spans="1:16">
@@ -37014,7 +37026,7 @@
         <v>1</v>
       </c>
       <c r="P704" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="705" spans="1:16">
@@ -37028,7 +37040,7 @@
         <v>2.179246407337514</v>
       </c>
       <c r="D705" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E705">
         <v>2.089409152493594</v>
@@ -37064,7 +37076,7 @@
         <v>1</v>
       </c>
       <c r="P705" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="706" spans="1:16">
@@ -37114,7 +37126,7 @@
         <v>1</v>
       </c>
       <c r="P706" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="707" spans="1:16">
@@ -37164,7 +37176,7 @@
         <v>1</v>
       </c>
       <c r="P707" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="708" spans="1:16">
@@ -37178,7 +37190,7 @@
         <v>2.19977860938273</v>
       </c>
       <c r="D708" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E708">
         <v>2.091658204832735</v>
@@ -37228,7 +37240,7 @@
         <v>2.229373198510994</v>
       </c>
       <c r="D709" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E709">
         <v>2.091658204832735</v>
@@ -37428,7 +37440,7 @@
         <v>1.995822806604482</v>
       </c>
       <c r="D713" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E713">
         <v>2.003132389411005</v>
@@ -37478,7 +37490,7 @@
         <v>2.004655726958832</v>
       </c>
       <c r="D714" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E714">
         <v>2.003132389411005</v>
@@ -37528,7 +37540,7 @@
         <v>2.193355078571245</v>
       </c>
       <c r="D715" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E715">
         <v>2.084952725149754</v>
@@ -37578,7 +37590,7 @@
         <v>2.222814822587054</v>
       </c>
       <c r="D716" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E716">
         <v>2.084952725149754</v>
@@ -39178,7 +39190,7 @@
         <v>2.337261384103764</v>
       </c>
       <c r="D748" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E748">
         <v>2.334684098776408</v>
@@ -40164,7 +40176,7 @@
         <v>1</v>
       </c>
       <c r="P767" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="768" spans="1:16">
@@ -40214,7 +40226,7 @@
         <v>1</v>
       </c>
       <c r="P768" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="769" spans="1:16">
@@ -40264,7 +40276,7 @@
         <v>1</v>
       </c>
       <c r="P769" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="770" spans="1:16">
@@ -40314,7 +40326,7 @@
         <v>1</v>
       </c>
       <c r="P770" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="771" spans="1:16">
@@ -40364,7 +40376,7 @@
         <v>1</v>
       </c>
       <c r="P771" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="772" spans="1:16">
@@ -40414,7 +40426,7 @@
         <v>1</v>
       </c>
       <c r="P772" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="773" spans="1:16">
@@ -40678,7 +40690,7 @@
         <v>2.194922646011972</v>
       </c>
       <c r="D778" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E778">
         <v>2.189382078142695</v>
@@ -40728,7 +40740,7 @@
         <v>2.206481859731435</v>
       </c>
       <c r="D779" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E779">
         <v>2.189382078142695</v>
@@ -40928,7 +40940,7 @@
         <v>2.131068921554799</v>
       </c>
       <c r="D783" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E783">
         <v>2.092957793173342</v>
@@ -40978,7 +40990,7 @@
         <v>2.132036227593599</v>
       </c>
       <c r="D784" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E784">
         <v>2.092957793173342</v>
@@ -41028,7 +41040,7 @@
         <v>2.146598315033257</v>
       </c>
       <c r="D785" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E785">
         <v>2.092957793173342</v>
@@ -41078,7 +41090,7 @@
         <v>2.102497010383471</v>
       </c>
       <c r="D786" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E786">
         <v>2.092957793173342</v>
@@ -41578,7 +41590,7 @@
         <v>2.073856432611444</v>
       </c>
       <c r="D796" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E796">
         <v>2.047486402626956</v>
@@ -41628,7 +41640,7 @@
         <v>2.077590491138006</v>
       </c>
       <c r="D797" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E797">
         <v>2.047486402626956</v>
@@ -41678,7 +41690,7 @@
         <v>2.08056732910815</v>
       </c>
       <c r="D798" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E798">
         <v>2.047486402626956</v>
@@ -41728,7 +41740,7 @@
         <v>2.048347711694423</v>
       </c>
       <c r="D799" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E799">
         <v>2.047486402626956</v>
@@ -41778,7 +41790,7 @@
         <v>2.04370029984487</v>
       </c>
       <c r="D800" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E800">
         <v>2.047486402626956</v>
@@ -41928,7 +41940,7 @@
         <v>2.024445400397088</v>
       </c>
       <c r="D803" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E803">
         <v>2.022683653209794</v>
@@ -41978,7 +41990,7 @@
         <v>2.030568938892565</v>
       </c>
       <c r="D804" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E804">
         <v>2.022683653209794</v>
@@ -42028,7 +42040,7 @@
         <v>2.034621883962056</v>
       </c>
       <c r="D805" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E805">
         <v>2.022683653209794</v>
@@ -42078,7 +42090,7 @@
         <v>2.001582175159937</v>
       </c>
       <c r="D806" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E806">
         <v>2.022683653209794</v>
@@ -42128,7 +42140,7 @@
         <v>1.997617471872931</v>
       </c>
       <c r="D807" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E807">
         <v>2.022683653209794</v>
@@ -43578,7 +43590,7 @@
         <v>1.759602623534774</v>
       </c>
       <c r="D836" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E836">
         <v>1.719390259748886</v>
@@ -43628,7 +43640,7 @@
         <v>1.825899932835016</v>
       </c>
       <c r="D837" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E837">
         <v>1.719390259748886</v>
@@ -43678,7 +43690,7 @@
         <v>1.830538284330232</v>
       </c>
       <c r="D838" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E838">
         <v>1.719390259748886</v>
@@ -43728,7 +43740,7 @@
         <v>1.836410866058698</v>
       </c>
       <c r="D839" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E839">
         <v>1.719390259748886</v>
@@ -43778,7 +43790,7 @@
         <v>1.829091690311091</v>
       </c>
       <c r="D840" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E840">
         <v>1.719390259748886</v>
@@ -43828,7 +43840,7 @@
         <v>1.827645096291951</v>
       </c>
       <c r="D841" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E841">
         <v>1.719390259748886</v>
@@ -43878,7 +43890,7 @@
         <v>1.815986138486923</v>
       </c>
       <c r="D842" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E842">
         <v>1.719390259748886</v>
@@ -43928,7 +43940,7 @@
         <v>2.078884835277132</v>
       </c>
       <c r="D843" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E843">
         <v>1.919229396577419</v>
@@ -44278,7 +44290,7 @@
         <v>2.058494156511253</v>
       </c>
       <c r="D850" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E850">
         <v>1.898167274316649</v>
@@ -44428,7 +44440,7 @@
         <v>2.05395617407601</v>
       </c>
       <c r="D853" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E853">
         <v>1.893479860917333</v>
@@ -44478,7 +44490,7 @@
         <v>1.719695780725853</v>
       </c>
       <c r="D854" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E854">
         <v>1.897089270892098</v>
@@ -44528,7 +44540,7 @@
         <v>1.731500485713235</v>
       </c>
       <c r="D855" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E855">
         <v>1.603580408564653</v>
@@ -44578,7 +44590,7 @@
         <v>2.009186193442025</v>
       </c>
       <c r="D856" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E856">
         <v>1.863835939658896</v>
@@ -44628,7 +44640,7 @@
         <v>2.007288122382748</v>
       </c>
       <c r="D857" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E857">
         <v>1.863835939658896</v>
@@ -44678,7 +44690,7 @@
         <v>1.708676548738404</v>
       </c>
       <c r="D858" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E858">
         <v>1.886090558889729</v>
@@ -44728,7 +44740,7 @@
         <v>1.721096853278158</v>
       </c>
       <c r="D859" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E859">
         <v>1.580396345711901</v>
@@ -44778,7 +44790,7 @@
         <v>1.963236498776014</v>
       </c>
       <c r="D860" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E860">
         <v>1.815877954142098</v>
@@ -44828,7 +44840,7 @@
         <v>1.960776106278517</v>
       </c>
       <c r="D861" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E861">
         <v>1.815877954142098</v>
@@ -44878,7 +44890,7 @@
         <v>1.665538461263496</v>
       </c>
       <c r="D862" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E862">
         <v>1.843032803048852</v>
@@ -44928,7 +44940,7 @@
         <v>1.680368714824194</v>
       </c>
       <c r="D863" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E863">
         <v>1.46569689127351</v>
@@ -44978,7 +44990,7 @@
         <v>1.897510677314785</v>
       </c>
       <c r="D864" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E864">
         <v>1.747279500623998</v>
@@ -45028,7 +45040,7 @@
         <v>1.894245947841364</v>
       </c>
       <c r="D865" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E865">
         <v>1.747279500623998</v>
@@ -45078,7 +45090,7 @@
         <v>1.603834324681888</v>
       </c>
       <c r="D866" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E866">
         <v>1.755351101073204</v>
@@ -45128,7 +45140,7 @@
         <v>1.536662065884782</v>
       </c>
       <c r="D867" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E867">
         <v>1.400775406788205</v>
@@ -45178,7 +45190,7 @@
         <v>1.895854864894484</v>
       </c>
       <c r="D868" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E868">
         <v>1.745551318779732</v>
@@ -45228,7 +45240,7 @@
         <v>1.892569871982353</v>
       </c>
       <c r="D869" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E869">
         <v>1.745551318779732</v>
@@ -45278,7 +45290,7 @@
         <v>1.602279829455136</v>
       </c>
       <c r="D870" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E870">
         <v>1.753770552853825</v>
@@ -45328,7 +45340,7 @@
         <v>1.535116254988906</v>
       </c>
       <c r="D871" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E871">
         <v>1.325406297516124</v>
@@ -45478,7 +45490,7 @@
         <v>1.521259989314879</v>
       </c>
       <c r="D874" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E874">
         <v>1.310460213193578</v>
@@ -45678,7 +45690,7 @@
         <v>1.513048711151803</v>
       </c>
       <c r="D878" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E878">
         <v>1.301603104163743</v>
@@ -45878,7 +45890,7 @@
         <v>1.507728180990036</v>
       </c>
       <c r="D882" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E882">
         <v>1.295864105337568</v>
@@ -46028,7 +46040,7 @@
         <v>1.483132200904999</v>
       </c>
       <c r="D885" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E885">
         <v>1.269333609964943</v>
@@ -46114,7 +46126,7 @@
         <v>1</v>
       </c>
       <c r="P886" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="887" spans="1:16">
@@ -46164,7 +46176,7 @@
         <v>1</v>
       </c>
       <c r="P887" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="888" spans="1:16">
@@ -46178,7 +46190,7 @@
         <v>1.477459737368338</v>
       </c>
       <c r="D888" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E888">
         <v>1.263214997610793</v>
@@ -46214,7 +46226,7 @@
         <v>1</v>
       </c>
       <c r="P888" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="889" spans="1:16">
@@ -46228,7 +46240,7 @@
         <v>1.484299398814228</v>
       </c>
       <c r="D889" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E889">
         <v>1.263214997610793</v>
@@ -46264,7 +46276,7 @@
         <v>1</v>
       </c>
       <c r="P889" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="890" spans="1:16">
@@ -46328,7 +46340,7 @@
         <v>1.488270615876439</v>
       </c>
       <c r="D891" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E891">
         <v>1.274876169934136</v>
@@ -46378,7 +46390,7 @@
         <v>1.495171012594845</v>
       </c>
       <c r="D892" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E892">
         <v>1.274876169934136</v>
@@ -46478,7 +46490,7 @@
         <v>1.49050375652243</v>
       </c>
       <c r="D894" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E894">
         <v>1.277284950855655</v>
@@ -46528,7 +46540,7 @@
         <v>1.497416698974804</v>
       </c>
       <c r="D895" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E895">
         <v>1.277284950855655</v>
@@ -46628,7 +46640,7 @@
         <v>1.508128402761513</v>
       </c>
       <c r="D897" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E897">
         <v>1.296295805225902</v>
@@ -46678,7 +46690,7 @@
         <v>1.515140360080398</v>
       </c>
       <c r="D898" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E898">
         <v>1.296295805225902</v>
@@ -46778,7 +46790,7 @@
         <v>1.51528028529547</v>
       </c>
       <c r="D900" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E900">
         <v>1.304010195374889</v>
@@ -46828,7 +46840,7 @@
         <v>1.452891679611439</v>
       </c>
       <c r="D901" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E901">
         <v>1.304010195374889</v>
@@ -47114,7 +47126,7 @@
         <v>1</v>
       </c>
       <c r="P906" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="907" spans="1:16">
@@ -47128,7 +47140,7 @@
         <v>1.771438143096434</v>
       </c>
       <c r="D907" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E907">
         <v>1.769334769083512</v>
@@ -47164,7 +47176,7 @@
         <v>1</v>
       </c>
       <c r="P907" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="908" spans="1:16">
@@ -47178,7 +47190,7 @@
         <v>1.793666905958362</v>
       </c>
       <c r="D908" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E908">
         <v>1.769334769083512</v>
@@ -47214,7 +47226,7 @@
         <v>1</v>
       </c>
       <c r="P908" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="909" spans="1:16">
@@ -47278,7 +47290,7 @@
         <v>1.811874519598647</v>
       </c>
       <c r="D910" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E910">
         <v>1.900918826425524</v>
@@ -47328,7 +47340,7 @@
         <v>1.834912009990619</v>
       </c>
       <c r="D911" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E911">
         <v>1.900918826425524</v>
@@ -47428,7 +47440,7 @@
         <v>1.895528965493513</v>
       </c>
       <c r="D913" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E913">
         <v>1.932861573643335</v>
@@ -47478,7 +47490,7 @@
         <v>1.920239544803383</v>
       </c>
       <c r="D914" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E914">
         <v>1.932861573643335</v>
@@ -47564,7 +47576,7 @@
         <v>1</v>
       </c>
       <c r="P915" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="916" spans="1:16">
@@ -47578,7 +47590,7 @@
         <v>2.14694519285309</v>
       </c>
       <c r="D916" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E916">
         <v>2.227783075723198</v>
@@ -47614,7 +47626,7 @@
         <v>1</v>
       </c>
       <c r="P916" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="917" spans="1:16">
@@ -47628,7 +47640,7 @@
         <v>2.127521979580261</v>
       </c>
       <c r="D917" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E917">
         <v>2.227783075723198</v>
@@ -47664,7 +47676,7 @@
         <v>1</v>
       </c>
       <c r="P917" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="918" spans="1:16">
@@ -47678,7 +47690,7 @@
         <v>2.083648255813952</v>
       </c>
       <c r="D918" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E918">
         <v>2.227783075723198</v>
@@ -47714,7 +47726,7 @@
         <v>1</v>
       </c>
       <c r="P918" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="919" spans="1:16">
@@ -47778,7 +47790,7 @@
         <v>2.161847691918457</v>
       </c>
       <c r="D920" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E920">
         <v>2.29633267654658</v>
@@ -47828,7 +47840,7 @@
         <v>2.142803814985473</v>
       </c>
       <c r="D921" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E921">
         <v>2.29633267654658</v>
@@ -47878,7 +47890,7 @@
         <v>2.099201045747626</v>
       </c>
       <c r="D922" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E922">
         <v>2.29633267654658</v>
@@ -47964,7 +47976,7 @@
         <v>1</v>
       </c>
       <c r="P923" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="924" spans="1:16">
@@ -48014,7 +48026,7 @@
         <v>1</v>
       </c>
       <c r="P924" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="925" spans="1:16">
@@ -48064,7 +48076,7 @@
         <v>1</v>
       </c>
       <c r="P925" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="926" spans="1:16">
@@ -48114,7 +48126,7 @@
         <v>1</v>
       </c>
       <c r="P926" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="927" spans="1:16">
@@ -48128,7 +48140,7 @@
         <v>2.281990200644458</v>
       </c>
       <c r="D927" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E927">
         <v>2.416557544639771</v>
@@ -48164,7 +48176,7 @@
         <v>1</v>
       </c>
       <c r="P927" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="928" spans="1:16">
@@ -48178,7 +48190,7 @@
         <v>2.266004496660863</v>
       </c>
       <c r="D928" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E928">
         <v>2.416557544639771</v>
@@ -48214,7 +48226,7 @@
         <v>1</v>
       </c>
       <c r="P928" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="929" spans="1:16">
@@ -48228,7 +48240,7 @@
         <v>2.22458613667258</v>
       </c>
       <c r="D929" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E929">
         <v>2.416557544639771</v>
@@ -48264,7 +48276,7 @@
         <v>1</v>
       </c>
       <c r="P929" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="930" spans="1:16">
@@ -48528,7 +48540,7 @@
         <v>2.294610334852642</v>
       </c>
       <c r="D935" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E935">
         <v>2.429085896053713</v>
@@ -48578,7 +48590,7 @@
         <v>2.278945870648891</v>
       </c>
       <c r="D936" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E936">
         <v>2.429085896053713</v>
@@ -48628,7 +48640,7 @@
         <v>2.237756967646212</v>
       </c>
       <c r="D937" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E937">
         <v>2.429085896053713</v>
@@ -48678,7 +48690,7 @@
         <v>1.478865024995372</v>
       </c>
       <c r="D938" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E938">
         <v>1.091736715423069</v>
@@ -48728,7 +48740,7 @@
         <v>1.38490187002407</v>
       </c>
       <c r="D939" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E939">
         <v>1.556095167561563</v>
@@ -48778,7 +48790,7 @@
         <v>1.411000217357541</v>
       </c>
       <c r="D940" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E940">
         <v>1.026647048618012</v>
@@ -48828,7 +48840,7 @@
         <v>1.329020625073216</v>
       </c>
       <c r="D941" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E941">
         <v>1.617052203789723</v>
@@ -48878,7 +48890,7 @@
         <v>1.335000528139656</v>
       </c>
       <c r="D942" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E942">
         <v>0.9537551533830149</v>
@@ -48928,7 +48940,7 @@
         <v>1.274396341734775</v>
       </c>
       <c r="D943" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E943">
         <v>1.498550586395873</v>
@@ -48978,7 +48990,7 @@
         <v>1.286901151623061</v>
       </c>
       <c r="D944" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E944">
         <v>0.9076226658689572</v>
@@ -49028,7 +49040,7 @@
         <v>1.247256712491893</v>
       </c>
       <c r="D945" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E945">
         <v>1.441230237098444</v>
@@ -49078,7 +49090,7 @@
         <v>1.233587671663713</v>
       </c>
       <c r="D946" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E946">
         <v>0.8564892910380584</v>
@@ -49128,7 +49140,7 @@
         <v>1.211322305183469</v>
       </c>
       <c r="D947" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E947">
         <v>1.391965348904197</v>
@@ -49178,7 +49190,7 @@
         <v>1.21037766405574</v>
       </c>
       <c r="D948" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E948">
         <v>0.8342283915478834</v>
@@ -49228,7 +49240,7 @@
         <v>1.192426425383669</v>
       </c>
       <c r="D949" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E949">
         <v>1.2587927643563</v>
@@ -49278,7 +49290,7 @@
         <v>1.194808180139088</v>
       </c>
       <c r="D950" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E950">
         <v>0.8192955779772646</v>
@@ -49328,7 +49340,7 @@
         <v>1.198498033457667</v>
       </c>
       <c r="D951" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E951">
         <v>1.158999179108742</v>
@@ -49378,7 +49390,7 @@
         <v>1.182088322901234</v>
       </c>
       <c r="D952" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E952">
         <v>0.8070958636004386</v>
@@ -49478,7 +49490,7 @@
         <v>1.320193729932789</v>
       </c>
       <c r="D954" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E954">
         <v>0.7970809127030485</v>
@@ -49528,7 +49540,7 @@
         <v>1.179856657365155</v>
       </c>
       <c r="D955" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E955">
         <v>1.189234093919208</v>
@@ -49578,7 +49590,7 @@
         <v>1.227366403581364</v>
       </c>
       <c r="D956" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E956">
         <v>1.189234093919208</v>
@@ -49628,7 +49640,7 @@
         <v>1.310478356163625</v>
       </c>
       <c r="D957" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E957">
         <v>0.7876399845205837</v>
@@ -49678,7 +49690,7 @@
         <v>0.6344231633251383</v>
       </c>
       <c r="D958" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E958">
         <v>0.9193140943676656</v>
@@ -49728,7 +49740,7 @@
         <v>1.171934328095761</v>
       </c>
       <c r="D959" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E959">
         <v>1.093069676752978</v>
@@ -49778,7 +49790,7 @@
         <v>1.219663630781329</v>
       </c>
       <c r="D960" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E960">
         <v>1.093069676752978</v>
@@ -49828,7 +49840,7 @@
         <v>1.353847387031876</v>
       </c>
       <c r="D961" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E961">
         <v>0.8297839015225001</v>
@@ -49878,7 +49890,7 @@
         <v>0.6751786179452095</v>
       </c>
       <c r="D962" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E962">
         <v>0.9775934449943753</v>
@@ -49928,7 +49940,7 @@
         <v>1.245944786534167</v>
       </c>
       <c r="D963" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E963">
         <v>1.097570180737918</v>
@@ -49978,7 +49990,7 @@
         <v>1.254048493296459</v>
       </c>
       <c r="D964" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E964">
         <v>1.097570180737918</v>
@@ -50028,7 +50040,7 @@
         <v>3.119396810901764</v>
       </c>
       <c r="D965" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E965">
         <v>2.981001707605099</v>
@@ -50078,7 +50090,7 @@
         <v>3.159377089407229</v>
       </c>
       <c r="D966" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E966">
         <v>2.981001707605099</v>
@@ -50128,7 +50140,7 @@
         <v>3.120981986110565</v>
       </c>
       <c r="D967" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E967">
         <v>2.981001707605099</v>
@@ -50228,7 +50240,7 @@
         <v>2.837870800176567</v>
       </c>
       <c r="D969" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E969">
         <v>2.894132615033631</v>
@@ -50278,7 +50290,7 @@
         <v>2.879396810901763</v>
       </c>
       <c r="D970" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E970">
         <v>2.894132615033631</v>
@@ -50328,7 +50340,7 @@
         <v>3.139316734249427</v>
       </c>
       <c r="D971" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E971">
         <v>2.958809334024729</v>
@@ -50378,7 +50390,7 @@
         <v>3.085357479560983</v>
       </c>
       <c r="D972" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E972">
         <v>2.958809334024729</v>
@@ -50478,7 +50490,7 @@
         <v>2.814418597528316</v>
       </c>
       <c r="D974" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E974">
         <v>2.897121366001221</v>
@@ -50528,7 +50540,7 @@
         <v>2.858415811425125</v>
       </c>
       <c r="D975" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E975">
         <v>2.897121366001221</v>
@@ -50578,7 +50590,7 @@
         <v>3.109459846308594</v>
       </c>
       <c r="D976" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E976">
         <v>2.925779250264097</v>
@@ -50628,7 +50640,7 @@
         <v>3.053481285189368</v>
       </c>
       <c r="D977" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E977">
         <v>2.925779250264097</v>
@@ -50728,7 +50740,7 @@
         <v>2.77951344351053</v>
       </c>
       <c r="D979" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E979">
         <v>2.852045057017663</v>
@@ -50778,7 +50790,7 @@
         <v>2.827188679834833</v>
       </c>
       <c r="D980" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E980">
         <v>2.852045057017663</v>
@@ -50828,7 +50840,7 @@
         <v>3.01635970015435</v>
       </c>
       <c r="D981" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E981">
         <v>2.903149755514105</v>
@@ -50928,7 +50940,7 @@
         <v>2.75559930495377</v>
       </c>
       <c r="D983" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E983">
         <v>2.855417565754478</v>
@@ -50978,7 +50990,7 @@
         <v>2.805794419514426</v>
       </c>
       <c r="D984" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E984">
         <v>2.855417565754478</v>
@@ -51228,7 +51240,7 @@
         <v>2.647424121190128</v>
       </c>
       <c r="D989" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E989">
         <v>2.713888571480405</v>
@@ -51278,7 +51290,7 @@
         <v>2.709017860486209</v>
       </c>
       <c r="D990" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E990">
         <v>2.713888571480405</v>
@@ -51328,7 +51340,7 @@
         <v>2.709276438497821</v>
       </c>
       <c r="D991" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E991">
         <v>2.713888571480405</v>
@@ -51728,7 +51740,7 @@
         <v>2.507960672292075</v>
       </c>
       <c r="D999" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E999">
         <v>2.634810324051362</v>
@@ -51778,7 +51790,7 @@
         <v>2.480590741940218</v>
       </c>
       <c r="D1000" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E1000">
         <v>2.521446129036562</v>
@@ -51828,7 +51840,7 @@
         <v>2.525024170825448</v>
       </c>
       <c r="D1001" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E1001">
         <v>2.521446129036562</v>
@@ -51878,7 +51890,7 @@
         <v>2.374355272751924</v>
       </c>
       <c r="D1002" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E1002">
         <v>2.508178066449632</v>
@@ -52028,7 +52040,7 @@
         <v>2.297264431187501</v>
       </c>
       <c r="D1005" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E1005">
         <v>2.435110755238258</v>
@@ -52078,7 +52090,7 @@
         <v>2.26769516637735</v>
       </c>
       <c r="D1006" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E1006">
         <v>2.422957079289015</v>
@@ -52228,7 +52240,7 @@
         <v>2.219172623318876</v>
       </c>
       <c r="D1009" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E1009">
         <v>2.361094720222901</v>
@@ -52278,7 +52290,7 @@
         <v>2.188788203938071</v>
       </c>
       <c r="D1010" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E1010">
         <v>2.345170584879249</v>
@@ -52328,7 +52340,7 @@
         <v>2.193248487975224</v>
       </c>
       <c r="D1011" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E1011">
         <v>2.145170584879249</v>
@@ -52378,7 +52390,7 @@
         <v>2.244786165498444</v>
       </c>
       <c r="D1012" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E1012">
         <v>2.145170584879249</v>
@@ -52428,7 +52440,7 @@
         <v>2.139178489138268</v>
       </c>
       <c r="D1013" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E1013">
         <v>2.285275645237524</v>
@@ -52478,7 +52490,7 @@
         <v>2.107959057918417</v>
       </c>
       <c r="D1014" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E1014">
         <v>2.27386057382472</v>
@@ -52528,7 +52540,7 @@
         <v>2.117763417725465</v>
       </c>
       <c r="D1015" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E1015">
         <v>2.06381166377648</v>
@@ -52578,7 +52590,7 @@
         <v>2.156397256360898</v>
       </c>
       <c r="D1016" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E1016">
         <v>2.06381166377648</v>
@@ -52628,7 +52640,7 @@
         <v>2.057977785544642</v>
       </c>
       <c r="D1017" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E1017">
         <v>2.208312974190537</v>
@@ -52678,7 +52690,7 @@
         <v>2.273206827011388</v>
       </c>
       <c r="D1018" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E1018">
         <v>2.138737562907135</v>
@@ -52728,7 +52740,7 @@
         <v>2.025910747815463</v>
       </c>
       <c r="D1019" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E1019">
         <v>2.201474977928105</v>
@@ -52778,7 +52790,7 @@
         <v>2.04113978928221</v>
       </c>
       <c r="D1020" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E1020">
         <v>2.069195645840627</v>
@@ -52828,7 +52840,7 @@
         <v>2.08299453265309</v>
       </c>
       <c r="D1021" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E1021">
         <v>2.069195645840627</v>
@@ -52878,7 +52890,7 @@
         <v>1.942015135643571</v>
       </c>
       <c r="D1022" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E1022">
         <v>2.098402654660086</v>
@@ -52928,7 +52940,7 @@
         <v>2.154957662266692</v>
       </c>
       <c r="D1023" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E1023">
         <v>2.02204863336159</v>
@@ -52978,7 +52990,7 @@
         <v>2.151713656181408</v>
       </c>
       <c r="D1024" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E1024">
         <v>2.02204863336159</v>
@@ -53028,7 +53040,7 @@
         <v>1.968838124994323</v>
       </c>
       <c r="D1025" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E1025">
         <v>2.061613163027353</v>
@@ -53078,7 +53090,7 @@
         <v>1.931713656181408</v>
       </c>
       <c r="D1026" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E1026">
         <v>2.044455196496419</v>
@@ -53128,7 +53140,7 @@
         <v>1.918201668351977</v>
       </c>
       <c r="D1027" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E1027">
         <v>2.044455196496419</v>
@@ -53178,7 +53190,7 @@
         <v>2.558838698778969</v>
       </c>
       <c r="D1028" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E1028">
         <v>2.418783335811877</v>
@@ -53228,7 +53240,7 @@
         <v>2.549888393340562</v>
       </c>
       <c r="D1029" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E1029">
         <v>2.418783335811877</v>
@@ -53278,7 +53290,7 @@
         <v>2.349004347317614</v>
       </c>
       <c r="D1030" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E1030">
         <v>2.458617687273231</v>
@@ -53328,7 +53340,7 @@
         <v>2.342871828486698</v>
       </c>
       <c r="D1031" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E1031">
         <v>2.213976886015383</v>
@@ -53378,7 +53390,7 @@
         <v>2.314805569071239</v>
       </c>
       <c r="D1032" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E1032">
         <v>2.213976886015383</v>
@@ -53428,7 +53440,7 @@
         <v>2.286739309655781</v>
       </c>
       <c r="D1033" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E1033">
         <v>2.213976886015383</v>
@@ -53478,7 +53490,7 @@
         <v>2.066190481835586</v>
       </c>
       <c r="D1034" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E1034">
         <v>1.900325886585777</v>
@@ -53525,40 +53537,40 @@
         <v>221</v>
       </c>
       <c r="C1035">
-        <v>1.796190481835586</v>
+        <v>1.779844643735662</v>
       </c>
       <c r="D1035" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E1035">
-        <v>1.779844643735662</v>
+        <v>1.710325886585777</v>
       </c>
       <c r="F1035">
         <v>1</v>
       </c>
       <c r="G1035">
-        <v>0.006943809518164415</v>
+        <v>0.006900155356264337</v>
       </c>
       <c r="H1035">
-        <v>0.006900155356264337</v>
+        <v>0.006789674113414224</v>
       </c>
       <c r="I1035">
-        <v>-0.01634583809992396</v>
+        <v>-0.06951875714988542</v>
       </c>
       <c r="J1035">
         <v>0.6827080950038233</v>
       </c>
       <c r="K1035">
-        <v>3.77</v>
+        <v>3.75</v>
       </c>
       <c r="L1035">
-        <v>4.37</v>
+        <v>4.34</v>
       </c>
       <c r="M1035">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="N1035">
-        <v>4.34</v>
+        <v>4.25</v>
       </c>
       <c r="O1035">
         <v>1</v>
@@ -53572,40 +53584,40 @@
         <v>0</v>
       </c>
       <c r="B1036" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1036">
+        <v>1.745068418380975</v>
+      </c>
+      <c r="D1036" t="s">
         <v>221</v>
       </c>
-      <c r="C1036">
-        <v>1.769217957779625</v>
-      </c>
-      <c r="D1036" t="s">
-        <v>365</v>
-      </c>
       <c r="E1036">
-        <v>1.815102844953163</v>
+        <v>1.681258625390344</v>
       </c>
       <c r="F1036">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1036">
-        <v>0.006970782042220375</v>
+        <v>0.006934931581619024</v>
       </c>
       <c r="H1036">
-        <v>0.006864897155046836</v>
+        <v>0.006998741374609656</v>
       </c>
       <c r="I1036">
-        <v>0.04588488717353822</v>
+        <v>0.06380979299063139</v>
       </c>
       <c r="J1036">
-        <v>0.6898626106685345</v>
+        <v>0.7089976998959082</v>
       </c>
       <c r="K1036">
-        <v>3.77</v>
+        <v>3.66</v>
       </c>
       <c r="L1036">
-        <v>4.37</v>
+        <v>4.34</v>
       </c>
       <c r="M1036">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="N1036">
         <v>4.34</v>
@@ -53615,6 +53627,206 @@
       </c>
       <c r="P1036" t="s">
         <v>480</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:16">
+      <c r="A1037" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1037">
+        <v>1.725336643125503</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1037">
+        <v>1.661041642546622</v>
+      </c>
+      <c r="F1037">
+        <v>-1</v>
+      </c>
+      <c r="G1037">
+        <v>0.006954663356874498</v>
+      </c>
+      <c r="H1037">
+        <v>0.007018958357453379</v>
+      </c>
+      <c r="I1037">
+        <v>0.06429500057888093</v>
+      </c>
+      <c r="J1037">
+        <v>0.7143888953209009</v>
+      </c>
+      <c r="K1037">
+        <v>3.66</v>
+      </c>
+      <c r="L1037">
+        <v>4.34</v>
+      </c>
+      <c r="M1037">
+        <v>3.75</v>
+      </c>
+      <c r="N1037">
+        <v>4.34</v>
+      </c>
+      <c r="O1037">
+        <v>1</v>
+      </c>
+      <c r="P1037" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:16">
+      <c r="A1038" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1038">
+        <v>1.706714139491356</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1038">
+        <v>1.641961208495242</v>
+      </c>
+      <c r="F1038">
+        <v>-1</v>
+      </c>
+      <c r="G1038">
+        <v>0.006973285860508644</v>
+      </c>
+      <c r="H1038">
+        <v>0.007038038791504758</v>
+      </c>
+      <c r="I1038">
+        <v>0.0647529309961139</v>
+      </c>
+      <c r="J1038">
+        <v>0.7194770110679355</v>
+      </c>
+      <c r="K1038">
+        <v>3.66</v>
+      </c>
+      <c r="L1038">
+        <v>4.34</v>
+      </c>
+      <c r="M1038">
+        <v>3.75</v>
+      </c>
+      <c r="N1038">
+        <v>4.34</v>
+      </c>
+      <c r="O1038">
+        <v>1</v>
+      </c>
+      <c r="P1038" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:16">
+      <c r="A1039" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1039">
+        <v>1.687585123258323</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1039">
+        <v>1.622361806617135</v>
+      </c>
+      <c r="F1039">
+        <v>-1</v>
+      </c>
+      <c r="G1039">
+        <v>0.006992414876741677</v>
+      </c>
+      <c r="H1039">
+        <v>0.007057638193382865</v>
+      </c>
+      <c r="I1039">
+        <v>0.06522331664118841</v>
+      </c>
+      <c r="J1039">
+        <v>0.7247035182354308</v>
+      </c>
+      <c r="K1039">
+        <v>3.66</v>
+      </c>
+      <c r="L1039">
+        <v>4.34</v>
+      </c>
+      <c r="M1039">
+        <v>3.75</v>
+      </c>
+      <c r="N1039">
+        <v>4.34</v>
+      </c>
+      <c r="O1039">
+        <v>1</v>
+      </c>
+      <c r="P1039" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:16">
+      <c r="A1040" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1040">
+        <v>1.674071021437449</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1040">
+        <v>1.608515390817058</v>
+      </c>
+      <c r="F1040">
+        <v>-1</v>
+      </c>
+      <c r="G1040">
+        <v>0.007005928978562551</v>
+      </c>
+      <c r="H1040">
+        <v>0.007071484609182941</v>
+      </c>
+      <c r="I1040">
+        <v>0.06555563062039038</v>
+      </c>
+      <c r="J1040">
+        <v>0.7283958957821177</v>
+      </c>
+      <c r="K1040">
+        <v>3.66</v>
+      </c>
+      <c r="L1040">
+        <v>4.34</v>
+      </c>
+      <c r="M1040">
+        <v>3.75</v>
+      </c>
+      <c r="N1040">
+        <v>4.34</v>
+      </c>
+      <c r="O1040">
+        <v>1</v>
+      </c>
+      <c r="P1040" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-01988-600016.xlsx
+++ b/s60_signal/position-01988-600016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="488">
   <si>
     <t>trade_time</t>
   </si>
@@ -679,7 +679,7 @@
     <t>2021-06-18</t>
   </si>
   <si>
-    <t>2021-07-13</t>
+    <t>2021-07-14</t>
   </si>
   <si>
     <t>2021-07-12</t>
@@ -1108,10 +1108,13 @@
     <t>2021-05-10</t>
   </si>
   <si>
-    <t>2021-06-24</t>
+    <t>2021-06-29</t>
   </si>
   <si>
-    <t>2021-07-14</t>
+    <t>2021-07-15</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
   </si>
   <si>
     <t>2016-05-24</t>
@@ -1454,6 +1457,12 @@
   </si>
   <si>
     <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
   </si>
   <si>
     <t>2021-07-05</t>
@@ -1826,7 +1835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1040"/>
+  <dimension ref="A1:P1046"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1926,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1976,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2026,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2076,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2126,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2176,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2226,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2276,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2326,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2376,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2426,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2476,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2526,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2576,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2626,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2676,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2726,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2776,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2826,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2876,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2926,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2976,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -3026,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3076,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3126,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3176,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3226,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3276,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3326,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3376,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3426,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3476,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3776,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3826,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3876,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3926,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3976,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -4026,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -4076,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -4126,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4176,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4226,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4276,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4326,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4376,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4426,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4476,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4526,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4576,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4626,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4676,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4726,7 +4735,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4776,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4826,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4876,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4926,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4976,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -5026,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -5076,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -5126,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5176,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -5226,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5276,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5326,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5376,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5426,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5476,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5526,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5576,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5626,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5676,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5726,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5976,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -6026,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -6076,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -6126,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6776,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6826,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6876,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6926,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6976,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -7026,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -7076,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -7126,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -7176,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -7226,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -7276,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7326,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7576,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7626,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7676,7 +7685,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7726,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -8026,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -8076,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -8126,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -8176,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -8226,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8276,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8326,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8776,7 +8785,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8826,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8876,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8926,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8976,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -9026,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -9076,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -9126,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -9176,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -9226,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -9276,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9326,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9376,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9426,7 +9435,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9476,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9526,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9576,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9626,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9676,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9726,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9776,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9826,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9876,7 +9885,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9926,7 +9935,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9976,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -10026,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -10076,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -10126,7 +10135,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -10176,7 +10185,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -10226,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -10276,7 +10285,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -10326,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -10376,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10426,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -10476,7 +10485,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10526,7 +10535,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10576,7 +10585,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10626,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10676,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10726,7 +10735,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10776,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10826,7 +10835,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10876,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10926,7 +10935,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -11276,7 +11285,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11326,7 +11335,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11376,7 +11385,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11426,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11476,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11526,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11576,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11976,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -12026,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -12076,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -12126,7 +12135,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -12176,7 +12185,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -12226,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12276,7 +12285,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12326,7 +12335,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -12376,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12426,7 +12435,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12476,7 +12485,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12526,7 +12535,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12576,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12626,7 +12635,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12676,7 +12685,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12726,7 +12735,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12776,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12826,7 +12835,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12876,7 +12885,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12926,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12976,7 +12985,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -13926,7 +13935,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13976,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -14026,7 +14035,7 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -14076,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -14126,7 +14135,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -14176,7 +14185,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -14226,7 +14235,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14276,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -14326,7 +14335,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -14376,7 +14385,7 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -14426,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14476,7 +14485,7 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14526,7 +14535,7 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14576,7 +14585,7 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14626,7 +14635,7 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14676,7 +14685,7 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14726,7 +14735,7 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14776,7 +14785,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14826,7 +14835,7 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -14876,7 +14885,7 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -14926,7 +14935,7 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -14976,7 +14985,7 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -15026,7 +15035,7 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -15076,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -15126,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -15176,7 +15185,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -15226,7 +15235,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15276,7 +15285,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15326,7 +15335,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15376,7 +15385,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15426,7 +15435,7 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -15476,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15526,7 +15535,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15576,7 +15585,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15626,7 +15635,7 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -15676,7 +15685,7 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -15726,7 +15735,7 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -15776,7 +15785,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15826,7 +15835,7 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -15876,7 +15885,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15926,7 +15935,7 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15976,7 +15985,7 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -16026,7 +16035,7 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -16076,7 +16085,7 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -16126,7 +16135,7 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="287" spans="1:16">
@@ -16176,7 +16185,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="288" spans="1:16">
@@ -16226,7 +16235,7 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="289" spans="1:16">
@@ -16276,7 +16285,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16326,7 +16335,7 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16376,7 +16385,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -16426,7 +16435,7 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -16476,7 +16485,7 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16526,7 +16535,7 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16576,7 +16585,7 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16626,7 +16635,7 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16676,7 +16685,7 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16726,7 +16735,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -16776,7 +16785,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -16826,7 +16835,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16876,7 +16885,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16926,7 +16935,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -16976,7 +16985,7 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="304" spans="1:16">
@@ -17026,7 +17035,7 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -17076,7 +17085,7 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -17126,7 +17135,7 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -17176,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -17226,7 +17235,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -17276,7 +17285,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -17326,7 +17335,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -17376,7 +17385,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -17426,7 +17435,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17476,7 +17485,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17526,7 +17535,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17576,7 +17585,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17626,7 +17635,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17676,7 +17685,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17726,7 +17735,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17776,7 +17785,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17826,7 +17835,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17876,7 +17885,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17926,7 +17935,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17976,7 +17985,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -18026,7 +18035,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -18526,7 +18535,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18576,7 +18585,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -18626,7 +18635,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -18676,7 +18685,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18726,7 +18735,7 @@
         <v>1</v>
       </c>
       <c r="P338" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -18776,7 +18785,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -18826,7 +18835,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -18876,7 +18885,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -18926,7 +18935,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -18976,7 +18985,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -19026,7 +19035,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -19076,7 +19085,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -19126,7 +19135,7 @@
         <v>1</v>
       </c>
       <c r="P346" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -19176,7 +19185,7 @@
         <v>1</v>
       </c>
       <c r="P347" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -19226,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="P348" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -19276,7 +19285,7 @@
         <v>1</v>
       </c>
       <c r="P349" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -19326,7 +19335,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19376,7 +19385,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -19426,7 +19435,7 @@
         <v>1</v>
       </c>
       <c r="P352" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -19476,7 +19485,7 @@
         <v>1</v>
       </c>
       <c r="P353" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="354" spans="1:16">
@@ -19526,7 +19535,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -19576,7 +19585,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -19626,7 +19635,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19676,7 +19685,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19726,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="P358" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -19776,7 +19785,7 @@
         <v>1</v>
       </c>
       <c r="P359" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -19826,7 +19835,7 @@
         <v>1</v>
       </c>
       <c r="P360" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -19876,7 +19885,7 @@
         <v>1</v>
       </c>
       <c r="P361" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -19926,7 +19935,7 @@
         <v>1</v>
       </c>
       <c r="P362" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="363" spans="1:16">
@@ -19976,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="P363" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="364" spans="1:16">
@@ -20026,7 +20035,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -20076,7 +20085,7 @@
         <v>1</v>
       </c>
       <c r="P365" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -20126,7 +20135,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -20176,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -20226,7 +20235,7 @@
         <v>1</v>
       </c>
       <c r="P368" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -20276,7 +20285,7 @@
         <v>1</v>
       </c>
       <c r="P369" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -20326,7 +20335,7 @@
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -20376,7 +20385,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -20426,7 +20435,7 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -20476,7 +20485,7 @@
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -20526,7 +20535,7 @@
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -20576,7 +20585,7 @@
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -20626,7 +20635,7 @@
         <v>1</v>
       </c>
       <c r="P376" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="377" spans="1:16">
@@ -20676,7 +20685,7 @@
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -20726,7 +20735,7 @@
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="379" spans="1:16">
@@ -20776,7 +20785,7 @@
         <v>1</v>
       </c>
       <c r="P379" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="380" spans="1:16">
@@ -20826,7 +20835,7 @@
         <v>1</v>
       </c>
       <c r="P380" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="381" spans="1:16">
@@ -20876,7 +20885,7 @@
         <v>1</v>
       </c>
       <c r="P381" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="382" spans="1:16">
@@ -20926,7 +20935,7 @@
         <v>1</v>
       </c>
       <c r="P382" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -20976,7 +20985,7 @@
         <v>1</v>
       </c>
       <c r="P383" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -21026,7 +21035,7 @@
         <v>1</v>
       </c>
       <c r="P384" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="385" spans="1:16">
@@ -21076,7 +21085,7 @@
         <v>1</v>
       </c>
       <c r="P385" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="386" spans="1:16">
@@ -21126,7 +21135,7 @@
         <v>1</v>
       </c>
       <c r="P386" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -21176,7 +21185,7 @@
         <v>1</v>
       </c>
       <c r="P387" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="388" spans="1:16">
@@ -21226,7 +21235,7 @@
         <v>1</v>
       </c>
       <c r="P388" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="389" spans="1:16">
@@ -21276,7 +21285,7 @@
         <v>1</v>
       </c>
       <c r="P389" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="390" spans="1:16">
@@ -21326,7 +21335,7 @@
         <v>1</v>
       </c>
       <c r="P390" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="391" spans="1:16">
@@ -21376,7 +21385,7 @@
         <v>1</v>
       </c>
       <c r="P391" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="392" spans="1:16">
@@ -21426,7 +21435,7 @@
         <v>1</v>
       </c>
       <c r="P392" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="393" spans="1:16">
@@ -21476,7 +21485,7 @@
         <v>1</v>
       </c>
       <c r="P393" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="394" spans="1:16">
@@ -21526,7 +21535,7 @@
         <v>1</v>
       </c>
       <c r="P394" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="395" spans="1:16">
@@ -21576,7 +21585,7 @@
         <v>1</v>
       </c>
       <c r="P395" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -21626,7 +21635,7 @@
         <v>1</v>
       </c>
       <c r="P396" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="397" spans="1:16">
@@ -21676,7 +21685,7 @@
         <v>1</v>
       </c>
       <c r="P397" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="398" spans="1:16">
@@ -21726,7 +21735,7 @@
         <v>1</v>
       </c>
       <c r="P398" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="399" spans="1:16">
@@ -21776,7 +21785,7 @@
         <v>1</v>
       </c>
       <c r="P399" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="400" spans="1:16">
@@ -21826,7 +21835,7 @@
         <v>1</v>
       </c>
       <c r="P400" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="401" spans="1:16">
@@ -21876,7 +21885,7 @@
         <v>1</v>
       </c>
       <c r="P401" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="402" spans="1:16">
@@ -21926,7 +21935,7 @@
         <v>1</v>
       </c>
       <c r="P402" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="403" spans="1:16">
@@ -21976,7 +21985,7 @@
         <v>1</v>
       </c>
       <c r="P403" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="404" spans="1:16">
@@ -22026,7 +22035,7 @@
         <v>1</v>
       </c>
       <c r="P404" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="405" spans="1:16">
@@ -22076,7 +22085,7 @@
         <v>1</v>
       </c>
       <c r="P405" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="406" spans="1:16">
@@ -22126,7 +22135,7 @@
         <v>1</v>
       </c>
       <c r="P406" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -22176,7 +22185,7 @@
         <v>1</v>
       </c>
       <c r="P407" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="408" spans="1:16">
@@ -22226,7 +22235,7 @@
         <v>1</v>
       </c>
       <c r="P408" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="409" spans="1:16">
@@ -22276,7 +22285,7 @@
         <v>1</v>
       </c>
       <c r="P409" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="410" spans="1:16">
@@ -22326,7 +22335,7 @@
         <v>1</v>
       </c>
       <c r="P410" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="411" spans="1:16">
@@ -22376,7 +22385,7 @@
         <v>1</v>
       </c>
       <c r="P411" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="412" spans="1:16">
@@ -22426,7 +22435,7 @@
         <v>1</v>
       </c>
       <c r="P412" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="413" spans="1:16">
@@ -22476,7 +22485,7 @@
         <v>1</v>
       </c>
       <c r="P413" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -22526,7 +22535,7 @@
         <v>1</v>
       </c>
       <c r="P414" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -22576,7 +22585,7 @@
         <v>1</v>
       </c>
       <c r="P415" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="416" spans="1:16">
@@ -22626,7 +22635,7 @@
         <v>1</v>
       </c>
       <c r="P416" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -22676,7 +22685,7 @@
         <v>1</v>
       </c>
       <c r="P417" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="418" spans="1:16">
@@ -22726,7 +22735,7 @@
         <v>1</v>
       </c>
       <c r="P418" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -22776,7 +22785,7 @@
         <v>1</v>
       </c>
       <c r="P419" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="420" spans="1:16">
@@ -22826,7 +22835,7 @@
         <v>1</v>
       </c>
       <c r="P420" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -22876,7 +22885,7 @@
         <v>1</v>
       </c>
       <c r="P421" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -22926,7 +22935,7 @@
         <v>1</v>
       </c>
       <c r="P422" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="423" spans="1:16">
@@ -22976,7 +22985,7 @@
         <v>1</v>
       </c>
       <c r="P423" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="424" spans="1:16">
@@ -23026,7 +23035,7 @@
         <v>1</v>
       </c>
       <c r="P424" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="425" spans="1:16">
@@ -23076,7 +23085,7 @@
         <v>1</v>
       </c>
       <c r="P425" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="426" spans="1:16">
@@ -23126,7 +23135,7 @@
         <v>1</v>
       </c>
       <c r="P426" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="427" spans="1:16">
@@ -23176,7 +23185,7 @@
         <v>1</v>
       </c>
       <c r="P427" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="428" spans="1:16">
@@ -23226,7 +23235,7 @@
         <v>1</v>
       </c>
       <c r="P428" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="429" spans="1:16">
@@ -23276,7 +23285,7 @@
         <v>1</v>
       </c>
       <c r="P429" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="430" spans="1:16">
@@ -23326,7 +23335,7 @@
         <v>1</v>
       </c>
       <c r="P430" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="431" spans="1:16">
@@ -23376,7 +23385,7 @@
         <v>1</v>
       </c>
       <c r="P431" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -23426,7 +23435,7 @@
         <v>1</v>
       </c>
       <c r="P432" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="433" spans="1:16">
@@ -23476,7 +23485,7 @@
         <v>1</v>
       </c>
       <c r="P433" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="434" spans="1:16">
@@ -23526,7 +23535,7 @@
         <v>1</v>
       </c>
       <c r="P434" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="435" spans="1:16">
@@ -23576,7 +23585,7 @@
         <v>1</v>
       </c>
       <c r="P435" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="436" spans="1:16">
@@ -23626,7 +23635,7 @@
         <v>1</v>
       </c>
       <c r="P436" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -23676,7 +23685,7 @@
         <v>1</v>
       </c>
       <c r="P437" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -23726,7 +23735,7 @@
         <v>1</v>
       </c>
       <c r="P438" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -23776,7 +23785,7 @@
         <v>1</v>
       </c>
       <c r="P439" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="440" spans="1:16">
@@ -23826,7 +23835,7 @@
         <v>1</v>
       </c>
       <c r="P440" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -23876,7 +23885,7 @@
         <v>1</v>
       </c>
       <c r="P441" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="442" spans="1:16">
@@ -23926,7 +23935,7 @@
         <v>1</v>
       </c>
       <c r="P442" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -23976,7 +23985,7 @@
         <v>1</v>
       </c>
       <c r="P443" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="444" spans="1:16">
@@ -24026,7 +24035,7 @@
         <v>1</v>
       </c>
       <c r="P444" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="445" spans="1:16">
@@ -24076,7 +24085,7 @@
         <v>1</v>
       </c>
       <c r="P445" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="446" spans="1:16">
@@ -24126,7 +24135,7 @@
         <v>1</v>
       </c>
       <c r="P446" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="447" spans="1:16">
@@ -24176,7 +24185,7 @@
         <v>1</v>
       </c>
       <c r="P447" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -24226,7 +24235,7 @@
         <v>1</v>
       </c>
       <c r="P448" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -24276,7 +24285,7 @@
         <v>1</v>
       </c>
       <c r="P449" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -24326,7 +24335,7 @@
         <v>1</v>
       </c>
       <c r="P450" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="451" spans="1:16">
@@ -24376,7 +24385,7 @@
         <v>1</v>
       </c>
       <c r="P451" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="452" spans="1:16">
@@ -24426,7 +24435,7 @@
         <v>1</v>
       </c>
       <c r="P452" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="453" spans="1:16">
@@ -24476,7 +24485,7 @@
         <v>1</v>
       </c>
       <c r="P453" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="454" spans="1:16">
@@ -24526,7 +24535,7 @@
         <v>1</v>
       </c>
       <c r="P454" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="455" spans="1:16">
@@ -24576,7 +24585,7 @@
         <v>1</v>
       </c>
       <c r="P455" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="456" spans="1:16">
@@ -24626,7 +24635,7 @@
         <v>1</v>
       </c>
       <c r="P456" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -24676,7 +24685,7 @@
         <v>1</v>
       </c>
       <c r="P457" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="458" spans="1:16">
@@ -24726,7 +24735,7 @@
         <v>1</v>
       </c>
       <c r="P458" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="459" spans="1:16">
@@ -24776,7 +24785,7 @@
         <v>1</v>
       </c>
       <c r="P459" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="460" spans="1:16">
@@ -24826,7 +24835,7 @@
         <v>1</v>
       </c>
       <c r="P460" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="461" spans="1:16">
@@ -24876,7 +24885,7 @@
         <v>1</v>
       </c>
       <c r="P461" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="462" spans="1:16">
@@ -24926,7 +24935,7 @@
         <v>1</v>
       </c>
       <c r="P462" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="463" spans="1:16">
@@ -25276,7 +25285,7 @@
         <v>1</v>
       </c>
       <c r="P469" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="470" spans="1:16">
@@ -25326,7 +25335,7 @@
         <v>1</v>
       </c>
       <c r="P470" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="471" spans="1:16">
@@ -25376,7 +25385,7 @@
         <v>1</v>
       </c>
       <c r="P471" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -25426,7 +25435,7 @@
         <v>1</v>
       </c>
       <c r="P472" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -25476,7 +25485,7 @@
         <v>1</v>
       </c>
       <c r="P473" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -25526,7 +25535,7 @@
         <v>1</v>
       </c>
       <c r="P474" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -25576,7 +25585,7 @@
         <v>1</v>
       </c>
       <c r="P475" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -25626,7 +25635,7 @@
         <v>1</v>
       </c>
       <c r="P476" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -25676,7 +25685,7 @@
         <v>1</v>
       </c>
       <c r="P477" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -25726,7 +25735,7 @@
         <v>1</v>
       </c>
       <c r="P478" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -25776,7 +25785,7 @@
         <v>1</v>
       </c>
       <c r="P479" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -25826,7 +25835,7 @@
         <v>1</v>
       </c>
       <c r="P480" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -25876,7 +25885,7 @@
         <v>1</v>
       </c>
       <c r="P481" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -25926,7 +25935,7 @@
         <v>1</v>
       </c>
       <c r="P482" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -25976,7 +25985,7 @@
         <v>1</v>
       </c>
       <c r="P483" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -26026,7 +26035,7 @@
         <v>1</v>
       </c>
       <c r="P484" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -26076,7 +26085,7 @@
         <v>1</v>
       </c>
       <c r="P485" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -26126,7 +26135,7 @@
         <v>1</v>
       </c>
       <c r="P486" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -26176,7 +26185,7 @@
         <v>1</v>
       </c>
       <c r="P487" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -26226,7 +26235,7 @@
         <v>1</v>
       </c>
       <c r="P488" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -26876,7 +26885,7 @@
         <v>1</v>
       </c>
       <c r="P501" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="502" spans="1:16">
@@ -26926,7 +26935,7 @@
         <v>1</v>
       </c>
       <c r="P502" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="503" spans="1:16">
@@ -26976,7 +26985,7 @@
         <v>1</v>
       </c>
       <c r="P503" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -27026,7 +27035,7 @@
         <v>1</v>
       </c>
       <c r="P504" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="505" spans="1:16">
@@ -27076,7 +27085,7 @@
         <v>1</v>
       </c>
       <c r="P505" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="506" spans="1:16">
@@ -27126,7 +27135,7 @@
         <v>1</v>
       </c>
       <c r="P506" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="507" spans="1:16">
@@ -27176,7 +27185,7 @@
         <v>1</v>
       </c>
       <c r="P507" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="508" spans="1:16">
@@ -27226,7 +27235,7 @@
         <v>1</v>
       </c>
       <c r="P508" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="509" spans="1:16">
@@ -27276,7 +27285,7 @@
         <v>1</v>
       </c>
       <c r="P509" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="510" spans="1:16">
@@ -27326,7 +27335,7 @@
         <v>1</v>
       </c>
       <c r="P510" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -27376,7 +27385,7 @@
         <v>1</v>
       </c>
       <c r="P511" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="512" spans="1:16">
@@ -27426,7 +27435,7 @@
         <v>1</v>
       </c>
       <c r="P512" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="513" spans="1:16">
@@ -27476,7 +27485,7 @@
         <v>1</v>
       </c>
       <c r="P513" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="514" spans="1:16">
@@ -28126,7 +28135,7 @@
         <v>1</v>
       </c>
       <c r="P526" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="527" spans="1:16">
@@ -28176,7 +28185,7 @@
         <v>1</v>
       </c>
       <c r="P527" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="528" spans="1:16">
@@ -28226,7 +28235,7 @@
         <v>1</v>
       </c>
       <c r="P528" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="529" spans="1:16">
@@ -28276,7 +28285,7 @@
         <v>1</v>
       </c>
       <c r="P529" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="530" spans="1:16">
@@ -28326,7 +28335,7 @@
         <v>1</v>
       </c>
       <c r="P530" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="531" spans="1:16">
@@ -28376,7 +28385,7 @@
         <v>1</v>
       </c>
       <c r="P531" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="532" spans="1:16">
@@ -28426,7 +28435,7 @@
         <v>1</v>
       </c>
       <c r="P532" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="533" spans="1:16">
@@ -28476,7 +28485,7 @@
         <v>1</v>
       </c>
       <c r="P533" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="534" spans="1:16">
@@ -28526,7 +28535,7 @@
         <v>1</v>
       </c>
       <c r="P534" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="535" spans="1:16">
@@ -28576,7 +28585,7 @@
         <v>1</v>
       </c>
       <c r="P535" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="536" spans="1:16">
@@ -28626,7 +28635,7 @@
         <v>1</v>
       </c>
       <c r="P536" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="537" spans="1:16">
@@ -28676,7 +28685,7 @@
         <v>1</v>
       </c>
       <c r="P537" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="538" spans="1:16">
@@ -32226,7 +32235,7 @@
         <v>1</v>
       </c>
       <c r="P608" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -32276,7 +32285,7 @@
         <v>1</v>
       </c>
       <c r="P609" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="610" spans="1:16">
@@ -32326,7 +32335,7 @@
         <v>1</v>
       </c>
       <c r="P610" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="611" spans="1:16">
@@ -32376,7 +32385,7 @@
         <v>1</v>
       </c>
       <c r="P611" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="612" spans="1:16">
@@ -32426,7 +32435,7 @@
         <v>1</v>
       </c>
       <c r="P612" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -32476,7 +32485,7 @@
         <v>1</v>
       </c>
       <c r="P613" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="614" spans="1:16">
@@ -32526,7 +32535,7 @@
         <v>1</v>
       </c>
       <c r="P614" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="615" spans="1:16">
@@ -32576,7 +32585,7 @@
         <v>1</v>
       </c>
       <c r="P615" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="616" spans="1:16">
@@ -32626,7 +32635,7 @@
         <v>1</v>
       </c>
       <c r="P616" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="617" spans="1:16">
@@ -33476,7 +33485,7 @@
         <v>1</v>
       </c>
       <c r="P633" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="634" spans="1:16">
@@ -33526,7 +33535,7 @@
         <v>1</v>
       </c>
       <c r="P634" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="635" spans="1:16">
@@ -33576,7 +33585,7 @@
         <v>1</v>
       </c>
       <c r="P635" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="636" spans="1:16">
@@ -33626,7 +33635,7 @@
         <v>1</v>
       </c>
       <c r="P636" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="637" spans="1:16">
@@ -33676,7 +33685,7 @@
         <v>1</v>
       </c>
       <c r="P637" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="638" spans="1:16">
@@ -33726,7 +33735,7 @@
         <v>1</v>
       </c>
       <c r="P638" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="639" spans="1:16">
@@ -33776,7 +33785,7 @@
         <v>1</v>
       </c>
       <c r="P639" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="640" spans="1:16">
@@ -33826,7 +33835,7 @@
         <v>1</v>
       </c>
       <c r="P640" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="641" spans="1:16">
@@ -33876,7 +33885,7 @@
         <v>1</v>
       </c>
       <c r="P641" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="642" spans="1:16">
@@ -33926,7 +33935,7 @@
         <v>1</v>
       </c>
       <c r="P642" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="643" spans="1:16">
@@ -33976,7 +33985,7 @@
         <v>1</v>
       </c>
       <c r="P643" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="644" spans="1:16">
@@ -34026,7 +34035,7 @@
         <v>1</v>
       </c>
       <c r="P644" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="645" spans="1:16">
@@ -34076,7 +34085,7 @@
         <v>1</v>
       </c>
       <c r="P645" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="646" spans="1:16">
@@ -34126,7 +34135,7 @@
         <v>1</v>
       </c>
       <c r="P646" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="647" spans="1:16">
@@ -34176,7 +34185,7 @@
         <v>1</v>
       </c>
       <c r="P647" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="648" spans="1:16">
@@ -34226,7 +34235,7 @@
         <v>1</v>
       </c>
       <c r="P648" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="649" spans="1:16">
@@ -35076,7 +35085,7 @@
         <v>1</v>
       </c>
       <c r="P665" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="666" spans="1:16">
@@ -35126,7 +35135,7 @@
         <v>1</v>
       </c>
       <c r="P666" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="667" spans="1:16">
@@ -35176,7 +35185,7 @@
         <v>1</v>
       </c>
       <c r="P667" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="668" spans="1:16">
@@ -35226,7 +35235,7 @@
         <v>1</v>
       </c>
       <c r="P668" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="669" spans="1:16">
@@ -35276,7 +35285,7 @@
         <v>1</v>
       </c>
       <c r="P669" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="670" spans="1:16">
@@ -35326,7 +35335,7 @@
         <v>1</v>
       </c>
       <c r="P670" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="671" spans="1:16">
@@ -35376,7 +35385,7 @@
         <v>1</v>
       </c>
       <c r="P671" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="672" spans="1:16">
@@ -35426,7 +35435,7 @@
         <v>1</v>
       </c>
       <c r="P672" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="673" spans="1:16">
@@ -35476,7 +35485,7 @@
         <v>1</v>
       </c>
       <c r="P673" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="674" spans="1:16">
@@ -35526,7 +35535,7 @@
         <v>1</v>
       </c>
       <c r="P674" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="675" spans="1:16">
@@ -35576,7 +35585,7 @@
         <v>1</v>
       </c>
       <c r="P675" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="676" spans="1:16">
@@ -35626,7 +35635,7 @@
         <v>1</v>
       </c>
       <c r="P676" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="677" spans="1:16">
@@ -35676,7 +35685,7 @@
         <v>1</v>
       </c>
       <c r="P677" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="678" spans="1:16">
@@ -35726,7 +35735,7 @@
         <v>1</v>
       </c>
       <c r="P678" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="679" spans="1:16">
@@ -35776,7 +35785,7 @@
         <v>1</v>
       </c>
       <c r="P679" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="680" spans="1:16">
@@ -36176,7 +36185,7 @@
         <v>1</v>
       </c>
       <c r="P687" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="688" spans="1:16">
@@ -36226,7 +36235,7 @@
         <v>1</v>
       </c>
       <c r="P688" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="689" spans="1:16">
@@ -36276,7 +36285,7 @@
         <v>1</v>
       </c>
       <c r="P689" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="690" spans="1:16">
@@ -36326,7 +36335,7 @@
         <v>1</v>
       </c>
       <c r="P690" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="691" spans="1:16">
@@ -36376,7 +36385,7 @@
         <v>1</v>
       </c>
       <c r="P691" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="692" spans="1:16">
@@ -36426,7 +36435,7 @@
         <v>1</v>
       </c>
       <c r="P692" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="693" spans="1:16">
@@ -36476,7 +36485,7 @@
         <v>1</v>
       </c>
       <c r="P693" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="694" spans="1:16">
@@ -37226,7 +37235,7 @@
         <v>1</v>
       </c>
       <c r="P708" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="709" spans="1:16">
@@ -37276,7 +37285,7 @@
         <v>1</v>
       </c>
       <c r="P709" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="710" spans="1:16">
@@ -37326,7 +37335,7 @@
         <v>1</v>
       </c>
       <c r="P710" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="711" spans="1:16">
@@ -37376,7 +37385,7 @@
         <v>1</v>
       </c>
       <c r="P711" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="712" spans="1:16">
@@ -37426,7 +37435,7 @@
         <v>1</v>
       </c>
       <c r="P712" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="713" spans="1:16">
@@ -37476,7 +37485,7 @@
         <v>1</v>
       </c>
       <c r="P713" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="714" spans="1:16">
@@ -37526,7 +37535,7 @@
         <v>1</v>
       </c>
       <c r="P714" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="715" spans="1:16">
@@ -37576,7 +37585,7 @@
         <v>1</v>
       </c>
       <c r="P715" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="716" spans="1:16">
@@ -37626,7 +37635,7 @@
         <v>1</v>
       </c>
       <c r="P716" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="717" spans="1:16">
@@ -37676,7 +37685,7 @@
         <v>1</v>
       </c>
       <c r="P717" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="718" spans="1:16">
@@ -37726,7 +37735,7 @@
         <v>1</v>
       </c>
       <c r="P718" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="719" spans="1:16">
@@ -37776,7 +37785,7 @@
         <v>1</v>
       </c>
       <c r="P719" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="720" spans="1:16">
@@ -37826,7 +37835,7 @@
         <v>1</v>
       </c>
       <c r="P720" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="721" spans="1:16">
@@ -37876,7 +37885,7 @@
         <v>1</v>
       </c>
       <c r="P721" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="722" spans="1:16">
@@ -37926,7 +37935,7 @@
         <v>1</v>
       </c>
       <c r="P722" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="723" spans="1:16">
@@ -37976,7 +37985,7 @@
         <v>1</v>
       </c>
       <c r="P723" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="724" spans="1:16">
@@ -38026,7 +38035,7 @@
         <v>1</v>
       </c>
       <c r="P724" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="725" spans="1:16">
@@ -38076,7 +38085,7 @@
         <v>1</v>
       </c>
       <c r="P725" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="726" spans="1:16">
@@ -38126,7 +38135,7 @@
         <v>1</v>
       </c>
       <c r="P726" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="727" spans="1:16">
@@ -38176,7 +38185,7 @@
         <v>1</v>
       </c>
       <c r="P727" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="728" spans="1:16">
@@ -38626,7 +38635,7 @@
         <v>1</v>
       </c>
       <c r="P736" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="737" spans="1:16">
@@ -38676,7 +38685,7 @@
         <v>1</v>
       </c>
       <c r="P737" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="738" spans="1:16">
@@ -38726,7 +38735,7 @@
         <v>1</v>
       </c>
       <c r="P738" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="739" spans="1:16">
@@ -38776,7 +38785,7 @@
         <v>1</v>
       </c>
       <c r="P739" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="740" spans="1:16">
@@ -38826,7 +38835,7 @@
         <v>1</v>
       </c>
       <c r="P740" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="741" spans="1:16">
@@ -38876,7 +38885,7 @@
         <v>1</v>
       </c>
       <c r="P741" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="742" spans="1:16">
@@ -38926,7 +38935,7 @@
         <v>1</v>
       </c>
       <c r="P742" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="743" spans="1:16">
@@ -39276,7 +39285,7 @@
         <v>1</v>
       </c>
       <c r="P749" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="750" spans="1:16">
@@ -39326,7 +39335,7 @@
         <v>1</v>
       </c>
       <c r="P750" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="751" spans="1:16">
@@ -39376,7 +39385,7 @@
         <v>1</v>
       </c>
       <c r="P751" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="752" spans="1:16">
@@ -39426,7 +39435,7 @@
         <v>1</v>
       </c>
       <c r="P752" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="753" spans="1:16">
@@ -39476,7 +39485,7 @@
         <v>1</v>
       </c>
       <c r="P753" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="754" spans="1:16">
@@ -39526,7 +39535,7 @@
         <v>1</v>
       </c>
       <c r="P754" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="755" spans="1:16">
@@ -39576,7 +39585,7 @@
         <v>1</v>
       </c>
       <c r="P755" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="756" spans="1:16">
@@ -39626,7 +39635,7 @@
         <v>1</v>
       </c>
       <c r="P756" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="757" spans="1:16">
@@ -39676,7 +39685,7 @@
         <v>1</v>
       </c>
       <c r="P757" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="758" spans="1:16">
@@ -39726,7 +39735,7 @@
         <v>1</v>
       </c>
       <c r="P758" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="759" spans="1:16">
@@ -39776,7 +39785,7 @@
         <v>1</v>
       </c>
       <c r="P759" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="760" spans="1:16">
@@ -41876,7 +41885,7 @@
         <v>1</v>
       </c>
       <c r="P801" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="802" spans="1:16">
@@ -41926,7 +41935,7 @@
         <v>1</v>
       </c>
       <c r="P802" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="803" spans="1:16">
@@ -41976,7 +41985,7 @@
         <v>1</v>
       </c>
       <c r="P803" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="804" spans="1:16">
@@ -42026,7 +42035,7 @@
         <v>1</v>
       </c>
       <c r="P804" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="805" spans="1:16">
@@ -42076,7 +42085,7 @@
         <v>1</v>
       </c>
       <c r="P805" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="806" spans="1:16">
@@ -42126,7 +42135,7 @@
         <v>1</v>
       </c>
       <c r="P806" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="807" spans="1:16">
@@ -42176,7 +42185,7 @@
         <v>1</v>
       </c>
       <c r="P807" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="808" spans="1:16">
@@ -42226,7 +42235,7 @@
         <v>1</v>
       </c>
       <c r="P808" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="809" spans="1:16">
@@ -42276,7 +42285,7 @@
         <v>1</v>
       </c>
       <c r="P809" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="810" spans="1:16">
@@ -42326,7 +42335,7 @@
         <v>1</v>
       </c>
       <c r="P810" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="811" spans="1:16">
@@ -42376,7 +42385,7 @@
         <v>1</v>
       </c>
       <c r="P811" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="812" spans="1:16">
@@ -42426,7 +42435,7 @@
         <v>1</v>
       </c>
       <c r="P812" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="813" spans="1:16">
@@ -42476,7 +42485,7 @@
         <v>1</v>
       </c>
       <c r="P813" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="814" spans="1:16">
@@ -42526,7 +42535,7 @@
         <v>1</v>
       </c>
       <c r="P814" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="815" spans="1:16">
@@ -42576,7 +42585,7 @@
         <v>1</v>
       </c>
       <c r="P815" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="816" spans="1:16">
@@ -42626,7 +42635,7 @@
         <v>1</v>
       </c>
       <c r="P816" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="817" spans="1:16">
@@ -42676,7 +42685,7 @@
         <v>1</v>
       </c>
       <c r="P817" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="818" spans="1:16">
@@ -42726,7 +42735,7 @@
         <v>1</v>
       </c>
       <c r="P818" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="819" spans="1:16">
@@ -42776,7 +42785,7 @@
         <v>1</v>
       </c>
       <c r="P819" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="820" spans="1:16">
@@ -42826,7 +42835,7 @@
         <v>1</v>
       </c>
       <c r="P820" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="821" spans="1:16">
@@ -42876,7 +42885,7 @@
         <v>1</v>
       </c>
       <c r="P821" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="822" spans="1:16">
@@ -42926,7 +42935,7 @@
         <v>1</v>
       </c>
       <c r="P822" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="823" spans="1:16">
@@ -42976,7 +42985,7 @@
         <v>1</v>
       </c>
       <c r="P823" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="824" spans="1:16">
@@ -44626,7 +44635,7 @@
         <v>1</v>
       </c>
       <c r="P856" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="857" spans="1:16">
@@ -44676,7 +44685,7 @@
         <v>1</v>
       </c>
       <c r="P857" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="858" spans="1:16">
@@ -44726,7 +44735,7 @@
         <v>1</v>
       </c>
       <c r="P858" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="859" spans="1:16">
@@ -44776,7 +44785,7 @@
         <v>1</v>
       </c>
       <c r="P859" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="860" spans="1:16">
@@ -44826,7 +44835,7 @@
         <v>1</v>
       </c>
       <c r="P860" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="861" spans="1:16">
@@ -44876,7 +44885,7 @@
         <v>1</v>
       </c>
       <c r="P861" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="862" spans="1:16">
@@ -44926,7 +44935,7 @@
         <v>1</v>
       </c>
       <c r="P862" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="863" spans="1:16">
@@ -44976,7 +44985,7 @@
         <v>1</v>
       </c>
       <c r="P863" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="864" spans="1:16">
@@ -45026,7 +45035,7 @@
         <v>1</v>
       </c>
       <c r="P864" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="865" spans="1:16">
@@ -45076,7 +45085,7 @@
         <v>1</v>
       </c>
       <c r="P865" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="866" spans="1:16">
@@ -45126,7 +45135,7 @@
         <v>1</v>
       </c>
       <c r="P866" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="867" spans="1:16">
@@ -45176,7 +45185,7 @@
         <v>1</v>
       </c>
       <c r="P867" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="868" spans="1:16">
@@ -45426,7 +45435,7 @@
         <v>1</v>
       </c>
       <c r="P872" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="873" spans="1:16">
@@ -45476,7 +45485,7 @@
         <v>1</v>
       </c>
       <c r="P873" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="874" spans="1:16">
@@ -45526,7 +45535,7 @@
         <v>1</v>
       </c>
       <c r="P874" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="875" spans="1:16">
@@ -45576,7 +45585,7 @@
         <v>1</v>
       </c>
       <c r="P875" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="876" spans="1:16">
@@ -45626,7 +45635,7 @@
         <v>1</v>
       </c>
       <c r="P876" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="877" spans="1:16">
@@ -45676,7 +45685,7 @@
         <v>1</v>
       </c>
       <c r="P877" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="878" spans="1:16">
@@ -45726,7 +45735,7 @@
         <v>1</v>
       </c>
       <c r="P878" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="879" spans="1:16">
@@ -45776,7 +45785,7 @@
         <v>1</v>
       </c>
       <c r="P879" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="880" spans="1:16">
@@ -45826,7 +45835,7 @@
         <v>1</v>
       </c>
       <c r="P880" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="881" spans="1:16">
@@ -45876,7 +45885,7 @@
         <v>1</v>
       </c>
       <c r="P881" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="882" spans="1:16">
@@ -45926,7 +45935,7 @@
         <v>1</v>
       </c>
       <c r="P882" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="883" spans="1:16">
@@ -45976,7 +45985,7 @@
         <v>1</v>
       </c>
       <c r="P883" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="884" spans="1:16">
@@ -46026,7 +46035,7 @@
         <v>1</v>
       </c>
       <c r="P884" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="885" spans="1:16">
@@ -46076,7 +46085,7 @@
         <v>1</v>
       </c>
       <c r="P885" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="886" spans="1:16">
@@ -46476,7 +46485,7 @@
         <v>1</v>
       </c>
       <c r="P893" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="894" spans="1:16">
@@ -46526,7 +46535,7 @@
         <v>1</v>
       </c>
       <c r="P894" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="895" spans="1:16">
@@ -46576,7 +46585,7 @@
         <v>1</v>
       </c>
       <c r="P895" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="896" spans="1:16">
@@ -48726,7 +48735,7 @@
         <v>1</v>
       </c>
       <c r="P938" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="939" spans="1:16">
@@ -48776,7 +48785,7 @@
         <v>1</v>
       </c>
       <c r="P939" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="940" spans="1:16">
@@ -48826,7 +48835,7 @@
         <v>1</v>
       </c>
       <c r="P940" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="941" spans="1:16">
@@ -48876,7 +48885,7 @@
         <v>1</v>
       </c>
       <c r="P941" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="942" spans="1:16">
@@ -48926,7 +48935,7 @@
         <v>1</v>
       </c>
       <c r="P942" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="943" spans="1:16">
@@ -48976,7 +48985,7 @@
         <v>1</v>
       </c>
       <c r="P943" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="944" spans="1:16">
@@ -49026,7 +49035,7 @@
         <v>1</v>
       </c>
       <c r="P944" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="945" spans="1:16">
@@ -49076,7 +49085,7 @@
         <v>1</v>
       </c>
       <c r="P945" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="946" spans="1:16">
@@ -49126,7 +49135,7 @@
         <v>1</v>
       </c>
       <c r="P946" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="947" spans="1:16">
@@ -49176,7 +49185,7 @@
         <v>1</v>
       </c>
       <c r="P947" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="948" spans="1:16">
@@ -49226,7 +49235,7 @@
         <v>1</v>
       </c>
       <c r="P948" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="949" spans="1:16">
@@ -49276,7 +49285,7 @@
         <v>1</v>
       </c>
       <c r="P949" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="950" spans="1:16">
@@ -49326,7 +49335,7 @@
         <v>1</v>
       </c>
       <c r="P950" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="951" spans="1:16">
@@ -49376,7 +49385,7 @@
         <v>1</v>
       </c>
       <c r="P951" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="952" spans="1:16">
@@ -49426,7 +49435,7 @@
         <v>1</v>
       </c>
       <c r="P952" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="953" spans="1:16">
@@ -49476,7 +49485,7 @@
         <v>1</v>
       </c>
       <c r="P953" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="954" spans="1:16">
@@ -49526,7 +49535,7 @@
         <v>1</v>
       </c>
       <c r="P954" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="955" spans="1:16">
@@ -49576,7 +49585,7 @@
         <v>1</v>
       </c>
       <c r="P955" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="956" spans="1:16">
@@ -49626,7 +49635,7 @@
         <v>1</v>
       </c>
       <c r="P956" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="957" spans="1:16">
@@ -49676,7 +49685,7 @@
         <v>1</v>
       </c>
       <c r="P957" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="958" spans="1:16">
@@ -49726,7 +49735,7 @@
         <v>1</v>
       </c>
       <c r="P958" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="959" spans="1:16">
@@ -49776,7 +49785,7 @@
         <v>1</v>
       </c>
       <c r="P959" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="960" spans="1:16">
@@ -49826,7 +49835,7 @@
         <v>1</v>
       </c>
       <c r="P960" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="961" spans="1:16">
@@ -49876,7 +49885,7 @@
         <v>1</v>
       </c>
       <c r="P961" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="962" spans="1:16">
@@ -49926,7 +49935,7 @@
         <v>1</v>
       </c>
       <c r="P962" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="963" spans="1:16">
@@ -49976,7 +49985,7 @@
         <v>1</v>
       </c>
       <c r="P963" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="964" spans="1:16">
@@ -50026,7 +50035,7 @@
         <v>1</v>
       </c>
       <c r="P964" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="965" spans="1:16">
@@ -50076,7 +50085,7 @@
         <v>1</v>
       </c>
       <c r="P965" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="966" spans="1:16">
@@ -50126,7 +50135,7 @@
         <v>1</v>
       </c>
       <c r="P966" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="967" spans="1:16">
@@ -50176,7 +50185,7 @@
         <v>1</v>
       </c>
       <c r="P967" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="968" spans="1:16">
@@ -50226,7 +50235,7 @@
         <v>1</v>
       </c>
       <c r="P968" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="969" spans="1:16">
@@ -50276,7 +50285,7 @@
         <v>1</v>
       </c>
       <c r="P969" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="970" spans="1:16">
@@ -50326,7 +50335,7 @@
         <v>1</v>
       </c>
       <c r="P970" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="971" spans="1:16">
@@ -50376,7 +50385,7 @@
         <v>1</v>
       </c>
       <c r="P971" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="972" spans="1:16">
@@ -50426,7 +50435,7 @@
         <v>1</v>
       </c>
       <c r="P972" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="973" spans="1:16">
@@ -50476,7 +50485,7 @@
         <v>1</v>
       </c>
       <c r="P973" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="974" spans="1:16">
@@ -50526,7 +50535,7 @@
         <v>1</v>
       </c>
       <c r="P974" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="975" spans="1:16">
@@ -50576,7 +50585,7 @@
         <v>1</v>
       </c>
       <c r="P975" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="976" spans="1:16">
@@ -50626,7 +50635,7 @@
         <v>1</v>
       </c>
       <c r="P976" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="977" spans="1:16">
@@ -50676,7 +50685,7 @@
         <v>1</v>
       </c>
       <c r="P977" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="978" spans="1:16">
@@ -50726,7 +50735,7 @@
         <v>1</v>
       </c>
       <c r="P978" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="979" spans="1:16">
@@ -50776,7 +50785,7 @@
         <v>1</v>
       </c>
       <c r="P979" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="980" spans="1:16">
@@ -50826,7 +50835,7 @@
         <v>1</v>
       </c>
       <c r="P980" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="981" spans="1:16">
@@ -50876,7 +50885,7 @@
         <v>1</v>
       </c>
       <c r="P981" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="982" spans="1:16">
@@ -50926,7 +50935,7 @@
         <v>1</v>
       </c>
       <c r="P982" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="983" spans="1:16">
@@ -50976,7 +50985,7 @@
         <v>1</v>
       </c>
       <c r="P983" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="984" spans="1:16">
@@ -51026,7 +51035,7 @@
         <v>1</v>
       </c>
       <c r="P984" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="985" spans="1:16">
@@ -51076,7 +51085,7 @@
         <v>1</v>
       </c>
       <c r="P985" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="986" spans="1:16">
@@ -51126,7 +51135,7 @@
         <v>1</v>
       </c>
       <c r="P986" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="987" spans="1:16">
@@ -51176,7 +51185,7 @@
         <v>1</v>
       </c>
       <c r="P987" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="988" spans="1:16">
@@ -51226,7 +51235,7 @@
         <v>1</v>
       </c>
       <c r="P988" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="989" spans="1:16">
@@ -51276,7 +51285,7 @@
         <v>1</v>
       </c>
       <c r="P989" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="990" spans="1:16">
@@ -51326,7 +51335,7 @@
         <v>1</v>
       </c>
       <c r="P990" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="991" spans="1:16">
@@ -51376,7 +51385,7 @@
         <v>1</v>
       </c>
       <c r="P991" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="992" spans="1:16">
@@ -51426,7 +51435,7 @@
         <v>1</v>
       </c>
       <c r="P992" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="993" spans="1:16">
@@ -51476,7 +51485,7 @@
         <v>1</v>
       </c>
       <c r="P993" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="994" spans="1:16">
@@ -51526,7 +51535,7 @@
         <v>1</v>
       </c>
       <c r="P994" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="995" spans="1:16">
@@ -51576,7 +51585,7 @@
         <v>1</v>
       </c>
       <c r="P995" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="996" spans="1:16">
@@ -51626,7 +51635,7 @@
         <v>1</v>
       </c>
       <c r="P996" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="997" spans="1:16">
@@ -51676,7 +51685,7 @@
         <v>1</v>
       </c>
       <c r="P997" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="998" spans="1:16">
@@ -51726,7 +51735,7 @@
         <v>1</v>
       </c>
       <c r="P998" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="999" spans="1:16">
@@ -51776,7 +51785,7 @@
         <v>1</v>
       </c>
       <c r="P999" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1000" spans="1:16">
@@ -51826,7 +51835,7 @@
         <v>1</v>
       </c>
       <c r="P1000" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1001" spans="1:16">
@@ -51876,7 +51885,7 @@
         <v>1</v>
       </c>
       <c r="P1001" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1002" spans="1:16">
@@ -52076,7 +52085,7 @@
         <v>1</v>
       </c>
       <c r="P1005" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1006" spans="1:16">
@@ -52126,7 +52135,7 @@
         <v>1</v>
       </c>
       <c r="P1006" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1007" spans="1:16">
@@ -52176,7 +52185,7 @@
         <v>1</v>
       </c>
       <c r="P1007" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1008" spans="1:16">
@@ -52226,7 +52235,7 @@
         <v>1</v>
       </c>
       <c r="P1008" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1009" spans="1:16">
@@ -52476,7 +52485,7 @@
         <v>1</v>
       </c>
       <c r="P1013" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1014" spans="1:16">
@@ -52526,7 +52535,7 @@
         <v>1</v>
       </c>
       <c r="P1014" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1015" spans="1:16">
@@ -52576,7 +52585,7 @@
         <v>1</v>
       </c>
       <c r="P1015" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1016" spans="1:16">
@@ -52626,7 +52635,7 @@
         <v>1</v>
       </c>
       <c r="P1016" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1017" spans="1:16">
@@ -52676,7 +52685,7 @@
         <v>1</v>
       </c>
       <c r="P1017" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1018" spans="1:16">
@@ -52726,7 +52735,7 @@
         <v>1</v>
       </c>
       <c r="P1018" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1019" spans="1:16">
@@ -52776,7 +52785,7 @@
         <v>1</v>
       </c>
       <c r="P1019" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1020" spans="1:16">
@@ -52826,7 +52835,7 @@
         <v>1</v>
       </c>
       <c r="P1020" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1021" spans="1:16">
@@ -52876,7 +52885,7 @@
         <v>1</v>
       </c>
       <c r="P1021" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1022" spans="1:16">
@@ -52926,7 +52935,7 @@
         <v>1</v>
       </c>
       <c r="P1022" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1023" spans="1:16">
@@ -52976,7 +52985,7 @@
         <v>1</v>
       </c>
       <c r="P1023" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1024" spans="1:16">
@@ -53026,7 +53035,7 @@
         <v>1</v>
       </c>
       <c r="P1024" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1025" spans="1:16">
@@ -53076,7 +53085,7 @@
         <v>1</v>
       </c>
       <c r="P1025" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1026" spans="1:16">
@@ -53126,7 +53135,7 @@
         <v>1</v>
       </c>
       <c r="P1026" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1027" spans="1:16">
@@ -53176,7 +53185,7 @@
         <v>1</v>
       </c>
       <c r="P1027" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1028" spans="1:16">
@@ -53226,7 +53235,7 @@
         <v>1</v>
       </c>
       <c r="P1028" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1029" spans="1:16">
@@ -53276,7 +53285,7 @@
         <v>1</v>
       </c>
       <c r="P1029" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1030" spans="1:16">
@@ -53326,7 +53335,7 @@
         <v>1</v>
       </c>
       <c r="P1030" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1031" spans="1:16">
@@ -53376,7 +53385,7 @@
         <v>1</v>
       </c>
       <c r="P1031" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1032" spans="1:16">
@@ -53426,7 +53435,7 @@
         <v>1</v>
       </c>
       <c r="P1032" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1033" spans="1:16">
@@ -53476,7 +53485,7 @@
         <v>1</v>
       </c>
       <c r="P1033" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1034" spans="1:16">
@@ -53493,7 +53502,7 @@
         <v>364</v>
       </c>
       <c r="E1034">
-        <v>1.900325886585777</v>
+        <v>1.877152967535816</v>
       </c>
       <c r="F1034">
         <v>-1</v>
@@ -53502,10 +53511,10 @@
         <v>0.007213809518164414</v>
       </c>
       <c r="H1034">
-        <v>0.006979674113414223</v>
+        <v>0.006942847032464185</v>
       </c>
       <c r="I1034">
-        <v>0.1658645952498086</v>
+        <v>0.1890375142997702</v>
       </c>
       <c r="J1034">
         <v>0.6827080950038233</v>
@@ -53517,16 +53526,16 @@
         <v>4.64</v>
       </c>
       <c r="M1034">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="N1034">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="O1034">
         <v>1</v>
       </c>
       <c r="P1034" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1035" spans="1:16">
@@ -53537,46 +53546,46 @@
         <v>221</v>
       </c>
       <c r="C1035">
-        <v>1.779844643735662</v>
+        <v>1.710325886585777</v>
       </c>
       <c r="D1035" t="s">
         <v>365</v>
       </c>
       <c r="E1035">
-        <v>1.710325886585777</v>
+        <v>1.7166717246857</v>
       </c>
       <c r="F1035">
         <v>1</v>
       </c>
       <c r="G1035">
-        <v>0.006900155356264337</v>
+        <v>0.006789674113414224</v>
       </c>
       <c r="H1035">
-        <v>0.006789674113414224</v>
+        <v>0.006823328275314299</v>
       </c>
       <c r="I1035">
-        <v>-0.06951875714988542</v>
+        <v>0.006345838099923284</v>
       </c>
       <c r="J1035">
         <v>0.6827080950038233</v>
       </c>
       <c r="K1035">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="L1035">
-        <v>4.34</v>
+        <v>4.25</v>
       </c>
       <c r="M1035">
-        <v>3.72</v>
+        <v>3.74</v>
       </c>
       <c r="N1035">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="O1035">
         <v>1</v>
       </c>
       <c r="P1035" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1036" spans="1:16">
@@ -53584,49 +53593,49 @@
         <v>0</v>
       </c>
       <c r="B1036" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1036">
-        <v>1.745068418380975</v>
+        <v>1.683711088313052</v>
       </c>
       <c r="D1036" t="s">
-        <v>221</v>
+        <v>365</v>
       </c>
       <c r="E1036">
-        <v>1.681258625390344</v>
+        <v>1.68991383609968</v>
       </c>
       <c r="F1036">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1036">
-        <v>0.006934931581619024</v>
+        <v>0.006816288911686948</v>
       </c>
       <c r="H1036">
-        <v>0.006998741374609656</v>
+        <v>0.006850086163900319</v>
       </c>
       <c r="I1036">
-        <v>0.06380979299063139</v>
+        <v>0.00620274778662866</v>
       </c>
       <c r="J1036">
-        <v>0.7089976998959082</v>
+        <v>0.6898626106685345</v>
       </c>
       <c r="K1036">
-        <v>3.66</v>
+        <v>3.72</v>
       </c>
       <c r="L1036">
-        <v>4.34</v>
+        <v>4.25</v>
       </c>
       <c r="M1036">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="N1036">
-        <v>4.34</v>
+        <v>4.27</v>
       </c>
       <c r="O1036">
         <v>1</v>
       </c>
       <c r="P1036" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1037" spans="1:16">
@@ -53634,49 +53643,49 @@
         <v>0</v>
       </c>
       <c r="B1037" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1037">
-        <v>1.725336643125503</v>
+        <v>1.642597950562186</v>
       </c>
       <c r="D1037" t="s">
-        <v>221</v>
+        <v>365</v>
       </c>
       <c r="E1037">
-        <v>1.661041642546622</v>
+        <v>1.64857965997381</v>
       </c>
       <c r="F1037">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1037">
-        <v>0.006954663356874498</v>
+        <v>0.006857402049437814</v>
       </c>
       <c r="H1037">
-        <v>0.007018958357453379</v>
+        <v>0.006891420340026189</v>
       </c>
       <c r="I1037">
-        <v>0.06429500057888093</v>
+        <v>0.005981709411624347</v>
       </c>
       <c r="J1037">
-        <v>0.7143888953209009</v>
+        <v>0.7009145294187672</v>
       </c>
       <c r="K1037">
-        <v>3.66</v>
+        <v>3.72</v>
       </c>
       <c r="L1037">
-        <v>4.34</v>
+        <v>4.25</v>
       </c>
       <c r="M1037">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="N1037">
-        <v>4.34</v>
+        <v>4.27</v>
       </c>
       <c r="O1037">
         <v>1</v>
       </c>
       <c r="P1037" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1038" spans="1:16">
@@ -53687,28 +53696,28 @@
         <v>222</v>
       </c>
       <c r="C1038">
-        <v>1.706714139491356</v>
+        <v>1.745068418380975</v>
       </c>
       <c r="D1038" t="s">
-        <v>221</v>
+        <v>366</v>
       </c>
       <c r="E1038">
-        <v>1.641961208495242</v>
+        <v>1.681258625390344</v>
       </c>
       <c r="F1038">
         <v>-1</v>
       </c>
       <c r="G1038">
-        <v>0.006973285860508644</v>
+        <v>0.006934931581619024</v>
       </c>
       <c r="H1038">
-        <v>0.007038038791504758</v>
+        <v>0.006998741374609656</v>
       </c>
       <c r="I1038">
-        <v>0.0647529309961139</v>
+        <v>0.06380979299063139</v>
       </c>
       <c r="J1038">
-        <v>0.7194770110679355</v>
+        <v>0.7089976998959082</v>
       </c>
       <c r="K1038">
         <v>3.66</v>
@@ -53726,51 +53735,51 @@
         <v>1</v>
       </c>
       <c r="P1038" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1039" spans="1:16">
       <c r="A1039" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1039" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1039">
-        <v>1.687585123258323</v>
+        <v>1.612528556387221</v>
       </c>
       <c r="D1039" t="s">
-        <v>221</v>
+        <v>365</v>
       </c>
       <c r="E1039">
-        <v>1.622361806617135</v>
+        <v>1.618348602389303</v>
       </c>
       <c r="F1039">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1039">
-        <v>0.006992414876741677</v>
+        <v>0.006887471443612779</v>
       </c>
       <c r="H1039">
-        <v>0.007057638193382865</v>
+        <v>0.006921651397610697</v>
       </c>
       <c r="I1039">
-        <v>0.06522331664118841</v>
+        <v>0.005820046002081192</v>
       </c>
       <c r="J1039">
-        <v>0.7247035182354308</v>
+        <v>0.7089976998959082</v>
       </c>
       <c r="K1039">
-        <v>3.66</v>
+        <v>3.72</v>
       </c>
       <c r="L1039">
-        <v>4.34</v>
+        <v>4.25</v>
       </c>
       <c r="M1039">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="N1039">
-        <v>4.34</v>
+        <v>4.27</v>
       </c>
       <c r="O1039">
         <v>1</v>
@@ -53787,28 +53796,28 @@
         <v>222</v>
       </c>
       <c r="C1040">
-        <v>1.674071021437449</v>
+        <v>1.725336643125503</v>
       </c>
       <c r="D1040" t="s">
-        <v>221</v>
+        <v>366</v>
       </c>
       <c r="E1040">
-        <v>1.608515390817058</v>
+        <v>1.661041642546622</v>
       </c>
       <c r="F1040">
         <v>-1</v>
       </c>
       <c r="G1040">
-        <v>0.007005928978562551</v>
+        <v>0.006954663356874498</v>
       </c>
       <c r="H1040">
-        <v>0.007071484609182941</v>
+        <v>0.007018958357453379</v>
       </c>
       <c r="I1040">
-        <v>0.06555563062039038</v>
+        <v>0.06429500057888093</v>
       </c>
       <c r="J1040">
-        <v>0.7283958957821177</v>
+        <v>0.7143888953209009</v>
       </c>
       <c r="K1040">
         <v>3.66</v>
@@ -53827,6 +53836,306 @@
       </c>
       <c r="P1040" t="s">
         <v>484</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:16">
+      <c r="A1041" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1041">
+        <v>1.592473309406249</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1041">
+        <v>1.59818553149983</v>
+      </c>
+      <c r="F1041">
+        <v>1</v>
+      </c>
+      <c r="G1041">
+        <v>0.006907526690593752</v>
+      </c>
+      <c r="H1041">
+        <v>0.006941814468500169</v>
+      </c>
+      <c r="I1041">
+        <v>0.005712222093581243</v>
+      </c>
+      <c r="J1041">
+        <v>0.7143888953209009</v>
+      </c>
+      <c r="K1041">
+        <v>3.72</v>
+      </c>
+      <c r="L1041">
+        <v>4.25</v>
+      </c>
+      <c r="M1041">
+        <v>3.74</v>
+      </c>
+      <c r="N1041">
+        <v>4.27</v>
+      </c>
+      <c r="O1041">
+        <v>1</v>
+      </c>
+      <c r="P1041" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:16">
+      <c r="A1042" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1042">
+        <v>1.706714139491356</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1042">
+        <v>1.641961208495242</v>
+      </c>
+      <c r="F1042">
+        <v>-1</v>
+      </c>
+      <c r="G1042">
+        <v>0.006973285860508644</v>
+      </c>
+      <c r="H1042">
+        <v>0.007038038791504758</v>
+      </c>
+      <c r="I1042">
+        <v>0.0647529309961139</v>
+      </c>
+      <c r="J1042">
+        <v>0.7194770110679355</v>
+      </c>
+      <c r="K1042">
+        <v>3.66</v>
+      </c>
+      <c r="L1042">
+        <v>4.34</v>
+      </c>
+      <c r="M1042">
+        <v>3.75</v>
+      </c>
+      <c r="N1042">
+        <v>4.34</v>
+      </c>
+      <c r="O1042">
+        <v>1</v>
+      </c>
+      <c r="P1042" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:16">
+      <c r="A1043" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1043">
+        <v>1.57354551882728</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1043">
+        <v>1.579155978605921</v>
+      </c>
+      <c r="F1043">
+        <v>1</v>
+      </c>
+      <c r="G1043">
+        <v>0.00692645448117272</v>
+      </c>
+      <c r="H1043">
+        <v>0.006960844021394078</v>
+      </c>
+      <c r="I1043">
+        <v>0.005610459778640831</v>
+      </c>
+      <c r="J1043">
+        <v>0.7194770110679355</v>
+      </c>
+      <c r="K1043">
+        <v>3.72</v>
+      </c>
+      <c r="L1043">
+        <v>4.25</v>
+      </c>
+      <c r="M1043">
+        <v>3.74</v>
+      </c>
+      <c r="N1043">
+        <v>4.27</v>
+      </c>
+      <c r="O1043">
+        <v>1</v>
+      </c>
+      <c r="P1043" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:16">
+      <c r="A1044" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1044">
+        <v>1.687585123258323</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1044">
+        <v>1.622361806617135</v>
+      </c>
+      <c r="F1044">
+        <v>-1</v>
+      </c>
+      <c r="G1044">
+        <v>0.006992414876741677</v>
+      </c>
+      <c r="H1044">
+        <v>0.007057638193382865</v>
+      </c>
+      <c r="I1044">
+        <v>0.06522331664118841</v>
+      </c>
+      <c r="J1044">
+        <v>0.7247035182354308</v>
+      </c>
+      <c r="K1044">
+        <v>3.66</v>
+      </c>
+      <c r="L1044">
+        <v>4.34</v>
+      </c>
+      <c r="M1044">
+        <v>3.75</v>
+      </c>
+      <c r="N1044">
+        <v>4.34</v>
+      </c>
+      <c r="O1044">
+        <v>1</v>
+      </c>
+      <c r="P1044" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:16">
+      <c r="A1045" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1045">
+        <v>1.554102912164197</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1045">
+        <v>1.559608841799488</v>
+      </c>
+      <c r="F1045">
+        <v>1</v>
+      </c>
+      <c r="G1045">
+        <v>0.006945897087835803</v>
+      </c>
+      <c r="H1045">
+        <v>0.006980391158200512</v>
+      </c>
+      <c r="I1045">
+        <v>0.00550592963529084</v>
+      </c>
+      <c r="J1045">
+        <v>0.7247035182354308</v>
+      </c>
+      <c r="K1045">
+        <v>3.72</v>
+      </c>
+      <c r="L1045">
+        <v>4.25</v>
+      </c>
+      <c r="M1045">
+        <v>3.74</v>
+      </c>
+      <c r="N1045">
+        <v>4.27</v>
+      </c>
+      <c r="O1045">
+        <v>1</v>
+      </c>
+      <c r="P1045" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:16">
+      <c r="A1046" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1046">
+        <v>1.674071021437449</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1046">
+        <v>1.540367267690522</v>
+      </c>
+      <c r="F1046">
+        <v>-1</v>
+      </c>
+      <c r="G1046">
+        <v>0.007005928978562551</v>
+      </c>
+      <c r="H1046">
+        <v>0.006959632732309478</v>
+      </c>
+      <c r="I1046">
+        <v>0.1337037537469268</v>
+      </c>
+      <c r="J1046">
+        <v>0.7283958957821177</v>
+      </c>
+      <c r="K1046">
+        <v>3.66</v>
+      </c>
+      <c r="L1046">
+        <v>4.34</v>
+      </c>
+      <c r="M1046">
+        <v>3.72</v>
+      </c>
+      <c r="N1046">
+        <v>4.25</v>
+      </c>
+      <c r="O1046">
+        <v>1</v>
+      </c>
+      <c r="P1046" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-01988-600016.xlsx
+++ b/s60_signal/position-01988-600016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="488">
   <si>
     <t>trade_time</t>
   </si>
@@ -1111,7 +1111,7 @@
     <t>2021-06-29</t>
   </si>
   <si>
-    <t>2021-07-15</t>
+    <t>2021-07-16</t>
   </si>
   <si>
     <t>2021-07-13</t>
@@ -1835,7 +1835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1046"/>
+  <dimension ref="A1:P1043"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -53552,7 +53552,7 @@
         <v>365</v>
       </c>
       <c r="E1035">
-        <v>1.7166717246857</v>
+        <v>1.679844643735663</v>
       </c>
       <c r="F1035">
         <v>1</v>
@@ -53561,10 +53561,10 @@
         <v>0.006789674113414224</v>
       </c>
       <c r="H1035">
-        <v>0.006823328275314299</v>
+        <v>0.006800155356264337</v>
       </c>
       <c r="I1035">
-        <v>0.006345838099923284</v>
+        <v>-0.03048124285011422</v>
       </c>
       <c r="J1035">
         <v>0.6827080950038233</v>
@@ -53576,10 +53576,10 @@
         <v>4.25</v>
       </c>
       <c r="M1035">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="N1035">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="O1035">
         <v>1</v>
@@ -53602,7 +53602,7 @@
         <v>365</v>
       </c>
       <c r="E1036">
-        <v>1.68991383609968</v>
+        <v>1.653015209992996</v>
       </c>
       <c r="F1036">
         <v>1</v>
@@ -53611,10 +53611,10 @@
         <v>0.006816288911686948</v>
       </c>
       <c r="H1036">
-        <v>0.006850086163900319</v>
+        <v>0.006826984790007005</v>
       </c>
       <c r="I1036">
-        <v>0.00620274778662866</v>
+        <v>-0.03069587832005594</v>
       </c>
       <c r="J1036">
         <v>0.6898626106685345</v>
@@ -53626,10 +53626,10 @@
         <v>4.25</v>
       </c>
       <c r="M1036">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="N1036">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="O1036">
         <v>1</v>
@@ -53652,7 +53652,7 @@
         <v>365</v>
       </c>
       <c r="E1037">
-        <v>1.64857965997381</v>
+        <v>1.611570514679623</v>
       </c>
       <c r="F1037">
         <v>1</v>
@@ -53661,10 +53661,10 @@
         <v>0.006857402049437814</v>
       </c>
       <c r="H1037">
-        <v>0.006891420340026189</v>
+        <v>0.006868429485320376</v>
       </c>
       <c r="I1037">
-        <v>0.005981709411624347</v>
+        <v>-0.0310274358825624</v>
       </c>
       <c r="J1037">
         <v>0.7009145294187672</v>
@@ -53676,10 +53676,10 @@
         <v>4.25</v>
       </c>
       <c r="M1037">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="N1037">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="O1037">
         <v>1</v>
@@ -53752,7 +53752,7 @@
         <v>365</v>
       </c>
       <c r="E1039">
-        <v>1.618348602389303</v>
+        <v>1.581258625390344</v>
       </c>
       <c r="F1039">
         <v>1</v>
@@ -53761,10 +53761,10 @@
         <v>0.006887471443612779</v>
       </c>
       <c r="H1039">
-        <v>0.006921651397610697</v>
+        <v>0.006898741374609657</v>
       </c>
       <c r="I1039">
-        <v>0.005820046002081192</v>
+        <v>-0.03126993099687692</v>
       </c>
       <c r="J1039">
         <v>0.7089976998959082</v>
@@ -53776,10 +53776,10 @@
         <v>4.25</v>
       </c>
       <c r="M1039">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="N1039">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="O1039">
         <v>1</v>
@@ -53799,10 +53799,10 @@
         <v>1.725336643125503</v>
       </c>
       <c r="D1040" t="s">
-        <v>366</v>
+        <v>221</v>
       </c>
       <c r="E1040">
-        <v>1.661041642546622</v>
+        <v>1.592473309406249</v>
       </c>
       <c r="F1040">
         <v>-1</v>
@@ -53811,10 +53811,10 @@
         <v>0.006954663356874498</v>
       </c>
       <c r="H1040">
-        <v>0.007018958357453379</v>
+        <v>0.006907526690593752</v>
       </c>
       <c r="I1040">
-        <v>0.06429500057888093</v>
+        <v>0.132863333719254</v>
       </c>
       <c r="J1040">
         <v>0.7143888953209009</v>
@@ -53826,10 +53826,10 @@
         <v>4.34</v>
       </c>
       <c r="M1040">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="N1040">
-        <v>4.34</v>
+        <v>4.25</v>
       </c>
       <c r="O1040">
         <v>1</v>
@@ -53840,52 +53840,52 @@
     </row>
     <row r="1041" spans="1:16">
       <c r="A1041" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1041" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1041">
+        <v>1.706714139491356</v>
+      </c>
+      <c r="D1041" t="s">
         <v>221</v>
       </c>
-      <c r="C1041">
-        <v>1.592473309406249</v>
-      </c>
-      <c r="D1041" t="s">
-        <v>365</v>
-      </c>
       <c r="E1041">
-        <v>1.59818553149983</v>
+        <v>1.57354551882728</v>
       </c>
       <c r="F1041">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1041">
-        <v>0.006907526690593752</v>
+        <v>0.006973285860508644</v>
       </c>
       <c r="H1041">
-        <v>0.006941814468500169</v>
+        <v>0.00692645448117272</v>
       </c>
       <c r="I1041">
-        <v>0.005712222093581243</v>
+        <v>0.1331686206640756</v>
       </c>
       <c r="J1041">
-        <v>0.7143888953209009</v>
+        <v>0.7194770110679355</v>
       </c>
       <c r="K1041">
+        <v>3.66</v>
+      </c>
+      <c r="L1041">
+        <v>4.34</v>
+      </c>
+      <c r="M1041">
         <v>3.72</v>
       </c>
-      <c r="L1041">
+      <c r="N1041">
         <v>4.25</v>
       </c>
-      <c r="M1041">
-        <v>3.74</v>
-      </c>
-      <c r="N1041">
-        <v>4.27</v>
-      </c>
       <c r="O1041">
         <v>1</v>
       </c>
       <c r="P1041" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1042" spans="1:16">
@@ -53896,28 +53896,28 @@
         <v>222</v>
       </c>
       <c r="C1042">
-        <v>1.706714139491356</v>
+        <v>1.687585123258323</v>
       </c>
       <c r="D1042" t="s">
-        <v>366</v>
+        <v>221</v>
       </c>
       <c r="E1042">
-        <v>1.641961208495242</v>
+        <v>1.554102912164197</v>
       </c>
       <c r="F1042">
         <v>-1</v>
       </c>
       <c r="G1042">
-        <v>0.006973285860508644</v>
+        <v>0.006992414876741677</v>
       </c>
       <c r="H1042">
-        <v>0.007038038791504758</v>
+        <v>0.006945897087835803</v>
       </c>
       <c r="I1042">
-        <v>0.0647529309961139</v>
+        <v>0.1334822110941256</v>
       </c>
       <c r="J1042">
-        <v>0.7194770110679355</v>
+        <v>0.7247035182354308</v>
       </c>
       <c r="K1042">
         <v>3.66</v>
@@ -53926,215 +53926,65 @@
         <v>4.34</v>
       </c>
       <c r="M1042">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="N1042">
-        <v>4.34</v>
+        <v>4.25</v>
       </c>
       <c r="O1042">
         <v>1</v>
       </c>
       <c r="P1042" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1043" spans="1:16">
       <c r="A1043" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1043" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1043">
+        <v>1.674071021437449</v>
+      </c>
+      <c r="D1043" t="s">
         <v>221</v>
       </c>
-      <c r="C1043">
-        <v>1.57354551882728</v>
-      </c>
-      <c r="D1043" t="s">
-        <v>365</v>
-      </c>
       <c r="E1043">
-        <v>1.579155978605921</v>
+        <v>1.540367267690522</v>
       </c>
       <c r="F1043">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1043">
-        <v>0.00692645448117272</v>
+        <v>0.007005928978562551</v>
       </c>
       <c r="H1043">
-        <v>0.006960844021394078</v>
+        <v>0.006959632732309478</v>
       </c>
       <c r="I1043">
-        <v>0.005610459778640831</v>
+        <v>0.1337037537469268</v>
       </c>
       <c r="J1043">
-        <v>0.7194770110679355</v>
+        <v>0.7283958957821177</v>
       </c>
       <c r="K1043">
+        <v>3.66</v>
+      </c>
+      <c r="L1043">
+        <v>4.34</v>
+      </c>
+      <c r="M1043">
         <v>3.72</v>
       </c>
-      <c r="L1043">
+      <c r="N1043">
         <v>4.25</v>
       </c>
-      <c r="M1043">
-        <v>3.74</v>
-      </c>
-      <c r="N1043">
-        <v>4.27</v>
-      </c>
       <c r="O1043">
         <v>1</v>
       </c>
       <c r="P1043" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:16">
-      <c r="A1044" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1044" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1044">
-        <v>1.687585123258323</v>
-      </c>
-      <c r="D1044" t="s">
-        <v>366</v>
-      </c>
-      <c r="E1044">
-        <v>1.622361806617135</v>
-      </c>
-      <c r="F1044">
-        <v>-1</v>
-      </c>
-      <c r="G1044">
-        <v>0.006992414876741677</v>
-      </c>
-      <c r="H1044">
-        <v>0.007057638193382865</v>
-      </c>
-      <c r="I1044">
-        <v>0.06522331664118841</v>
-      </c>
-      <c r="J1044">
-        <v>0.7247035182354308</v>
-      </c>
-      <c r="K1044">
-        <v>3.66</v>
-      </c>
-      <c r="L1044">
-        <v>4.34</v>
-      </c>
-      <c r="M1044">
-        <v>3.75</v>
-      </c>
-      <c r="N1044">
-        <v>4.34</v>
-      </c>
-      <c r="O1044">
-        <v>1</v>
-      </c>
-      <c r="P1044" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:16">
-      <c r="A1045" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1045" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1045">
-        <v>1.554102912164197</v>
-      </c>
-      <c r="D1045" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1045">
-        <v>1.559608841799488</v>
-      </c>
-      <c r="F1045">
-        <v>1</v>
-      </c>
-      <c r="G1045">
-        <v>0.006945897087835803</v>
-      </c>
-      <c r="H1045">
-        <v>0.006980391158200512</v>
-      </c>
-      <c r="I1045">
-        <v>0.00550592963529084</v>
-      </c>
-      <c r="J1045">
-        <v>0.7247035182354308</v>
-      </c>
-      <c r="K1045">
-        <v>3.72</v>
-      </c>
-      <c r="L1045">
-        <v>4.25</v>
-      </c>
-      <c r="M1045">
-        <v>3.74</v>
-      </c>
-      <c r="N1045">
-        <v>4.27</v>
-      </c>
-      <c r="O1045">
-        <v>1</v>
-      </c>
-      <c r="P1045" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:16">
-      <c r="A1046" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1046" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1046">
-        <v>1.674071021437449</v>
-      </c>
-      <c r="D1046" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1046">
-        <v>1.540367267690522</v>
-      </c>
-      <c r="F1046">
-        <v>-1</v>
-      </c>
-      <c r="G1046">
-        <v>0.007005928978562551</v>
-      </c>
-      <c r="H1046">
-        <v>0.006959632732309478</v>
-      </c>
-      <c r="I1046">
-        <v>0.1337037537469268</v>
-      </c>
-      <c r="J1046">
-        <v>0.7283958957821177</v>
-      </c>
-      <c r="K1046">
-        <v>3.66</v>
-      </c>
-      <c r="L1046">
-        <v>4.34</v>
-      </c>
-      <c r="M1046">
-        <v>3.72</v>
-      </c>
-      <c r="N1046">
-        <v>4.25</v>
-      </c>
-      <c r="O1046">
-        <v>1</v>
-      </c>
-      <c r="P1046" t="s">
         <v>487</v>
       </c>
     </row>

--- a/s60_signal/position-01988-600016.xlsx
+++ b/s60_signal/position-01988-600016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="487">
   <si>
     <t>trade_time</t>
   </si>
@@ -676,13 +676,19 @@
     <t>2021-05-06</t>
   </si>
   <si>
-    <t>2021-06-18</t>
-  </si>
-  <si>
     <t>2021-07-14</t>
   </si>
   <si>
     <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>2021-07-16</t>
+  </si>
+  <si>
+    <t>2021-07-08</t>
+  </si>
+  <si>
+    <t>2021-07-15</t>
   </si>
   <si>
     <t>2016-07-22</t>
@@ -1108,13 +1114,7 @@
     <t>2021-05-10</t>
   </si>
   <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>2021-07-16</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
+    <t>2021-07-19</t>
   </si>
   <si>
     <t>2016-05-24</t>
@@ -1472,9 +1472,6 @@
   </si>
   <si>
     <t>2021-07-07</t>
-  </si>
-  <si>
-    <t>2021-07-08</t>
   </si>
   <si>
     <t>2021-07-09</t>
@@ -1835,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1043"/>
+  <dimension ref="A1:P1048"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1899,7 +1896,7 @@
         <v>4.511229357554957</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E2">
         <v>4.134562114333581</v>
@@ -1949,7 +1946,7 @@
         <v>4.54637358977963</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E3">
         <v>4.134562114333581</v>
@@ -1999,7 +1996,7 @@
         <v>4.486167543744384</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E4">
         <v>4.134562114333581</v>
@@ -2049,7 +2046,7 @@
         <v>4.514809369575879</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E5">
         <v>4.134562114333581</v>
@@ -2099,7 +2096,7 @@
         <v>4.542134230445916</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E6">
         <v>4.134562114333581</v>
@@ -2399,7 +2396,7 @@
         <v>3.284532976858507</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E12">
         <v>2.677351292877795</v>
@@ -2449,7 +2446,7 @@
         <v>3.152631441452742</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E13">
         <v>2.677351292877795</v>
@@ -2499,7 +2496,7 @@
         <v>3.063344517229904</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E14">
         <v>2.677351292877795</v>
@@ -2549,7 +2546,7 @@
         <v>3.062156057601301</v>
       </c>
       <c r="D15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E15">
         <v>2.677351292877795</v>
@@ -2599,7 +2596,7 @@
         <v>3.143633135364715</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E16">
         <v>2.677351292877795</v>
@@ -2649,7 +2646,7 @@
         <v>3.110016830269812</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E17">
         <v>2.677351292877795</v>
@@ -2699,7 +2696,7 @@
         <v>2.366926835235442</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E18">
         <v>2.179880990762272</v>
@@ -2749,7 +2746,7 @@
         <v>2.328641604924578</v>
       </c>
       <c r="D19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E19">
         <v>2.179880990762272</v>
@@ -2799,7 +2796,7 @@
         <v>3.263301236899546</v>
       </c>
       <c r="D20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E20">
         <v>2.652832252271777</v>
@@ -2849,7 +2846,7 @@
         <v>3.130193352632475</v>
       </c>
       <c r="D21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E21">
         <v>2.652832252271777</v>
@@ -2899,7 +2896,7 @@
         <v>3.041358809232626</v>
       </c>
       <c r="D22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E22">
         <v>2.652832252271777</v>
@@ -2949,7 +2946,7 @@
         <v>3.039416381565708</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E23">
         <v>2.652832252271777</v>
@@ -2999,7 +2996,7 @@
         <v>3.085920011765251</v>
       </c>
       <c r="D24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E24">
         <v>2.652832252271777</v>
@@ -3049,7 +3046,7 @@
         <v>2.240092728764494</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E25">
         <v>2.153548849017755</v>
@@ -3099,7 +3096,7 @@
         <v>2.302403517191201</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E26">
         <v>2.153548849017755</v>
@@ -3149,7 +3146,7 @@
         <v>3.266809754119012</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E27">
         <v>2.656883991617553</v>
@@ -3199,7 +3196,7 @@
         <v>3.133901217421229</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E28">
         <v>2.656883991617553</v>
@@ -3249,7 +3246,7 @@
         <v>3.044991918682897</v>
       </c>
       <c r="D29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E29">
         <v>2.656883991617553</v>
@@ -3299,7 +3296,7 @@
         <v>3.043174083246784</v>
       </c>
       <c r="D30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E30">
         <v>2.656883991617553</v>
@@ -3349,7 +3346,7 @@
         <v>3.089901979461776</v>
       </c>
       <c r="D31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E31">
         <v>2.656883991617553</v>
@@ -3399,7 +3396,7 @@
         <v>2.244448473153433</v>
       </c>
       <c r="D32" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E32">
         <v>2.223248320745323</v>
@@ -3449,7 +3446,7 @@
         <v>2.306739326823212</v>
       </c>
       <c r="D33" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E33">
         <v>2.223248320745323</v>
@@ -3499,7 +3496,7 @@
         <v>3.150232952413131</v>
       </c>
       <c r="D34" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E34">
         <v>2.674730363322413</v>
@@ -3549,7 +3546,7 @@
         <v>3.060994384824157</v>
       </c>
       <c r="D35" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E35">
         <v>2.674730363322413</v>
@@ -3599,7 +3596,7 @@
         <v>3.059725330805781</v>
       </c>
       <c r="D36" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E36">
         <v>2.674730363322413</v>
@@ -3649,7 +3646,7 @@
         <v>2.263633871517577</v>
       </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E37">
         <v>2.243887682321252</v>
@@ -3699,7 +3696,7 @@
         <v>2.325836920160516</v>
       </c>
       <c r="D38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E38">
         <v>2.243887682321252</v>
@@ -3749,7 +3746,7 @@
         <v>3.082343576888696</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E39">
         <v>2.60054479571305</v>
@@ -3799,7 +3796,7 @@
         <v>2.994473746709487</v>
       </c>
       <c r="D40" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E40">
         <v>2.60054479571305</v>
@@ -3849,7 +3846,7 @@
         <v>2.990923463674834</v>
       </c>
       <c r="D41" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E41">
         <v>2.60054479571305</v>
@@ -3999,7 +3996,7 @@
         <v>3.040409741296517</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E44">
         <v>2.508325187038523</v>
@@ -4049,7 +4046,7 @@
         <v>2.895004863307419</v>
       </c>
       <c r="D45" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E45">
         <v>2.508325187038523</v>
@@ -4099,7 +4096,7 @@
         <v>2.948426001260181</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E46">
         <v>2.508325187038523</v>
@@ -4249,7 +4246,7 @@
         <v>3.031700902303593</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E49">
         <v>2.49878526260407</v>
@@ -4299,7 +4296,7 @@
         <v>2.878860584574042</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E50">
         <v>2.49878526260407</v>
@@ -4449,7 +4446,7 @@
         <v>3.022635677892191</v>
       </c>
       <c r="D53" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E53">
         <v>2.464854567988125</v>
@@ -4499,7 +4496,7 @@
         <v>2.869746622396987</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E54">
         <v>2.464854567988125</v>
@@ -4649,7 +4646,7 @@
         <v>2.853132741882125</v>
       </c>
       <c r="D57" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E57">
         <v>2.446552646137529</v>
@@ -4699,7 +4696,7 @@
         <v>2.094328898937136</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E58">
         <v>1.842794376120828</v>
@@ -4749,7 +4746,7 @@
         <v>2.050128624441065</v>
       </c>
       <c r="D59" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E59">
         <v>1.842794376120828</v>
@@ -4849,7 +4846,7 @@
         <v>2.071512346378907</v>
       </c>
       <c r="D61" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E61">
         <v>1.858583178679253</v>
@@ -4899,7 +4896,7 @@
         <v>2.027077118824455</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E62">
         <v>1.858583178679253</v>
@@ -4999,7 +4996,7 @@
         <v>1.952441204043576</v>
       </c>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E64">
         <v>1.768759504456596</v>
@@ -5049,7 +5046,7 @@
         <v>1.960665672922645</v>
       </c>
       <c r="D65" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E65">
         <v>1.768759504456596</v>
@@ -5099,7 +5096,7 @@
         <v>1.911863728646695</v>
       </c>
       <c r="D66" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E66">
         <v>1.759452065017152</v>
@@ -5149,7 +5146,7 @@
         <v>1.919858426996902</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E67">
         <v>1.759452065017152</v>
@@ -5199,7 +5196,7 @@
         <v>1.905874331946279</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E68">
         <v>1.759452065017152</v>
@@ -5299,7 +5296,7 @@
         <v>2.136708142214575</v>
       </c>
       <c r="D70" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E70">
         <v>2.108561718819574</v>
@@ -5349,7 +5346,7 @@
         <v>2.067829601844572</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E71">
         <v>2.108561718819574</v>
@@ -5399,7 +5396,7 @@
         <v>2.12817237616458</v>
       </c>
       <c r="D72" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E72">
         <v>2.108561718819574</v>
@@ -5649,7 +5646,7 @@
         <v>2.142301413025561</v>
       </c>
       <c r="D77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E77">
         <v>1.97780018839587</v>
@@ -5699,7 +5696,7 @@
         <v>2.110364066104271</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E78">
         <v>1.97780018839587</v>
@@ -5799,7 +5796,7 @@
         <v>2.09768233828219</v>
       </c>
       <c r="D80" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E80">
         <v>1.955795181546213</v>
@@ -5849,7 +5846,7 @@
         <v>2.065795181546212</v>
       </c>
       <c r="D81" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E81">
         <v>1.955795181546213</v>
@@ -5899,7 +5896,7 @@
         <v>2.020133711338287</v>
       </c>
       <c r="D82" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E82">
         <v>1.955795181546213</v>
@@ -5949,7 +5946,7 @@
         <v>2.685866995679533</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E83">
         <v>2.275991495057138</v>
@@ -5999,7 +5996,7 @@
         <v>1.920113324448644</v>
       </c>
       <c r="D84" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E84">
         <v>1.858301408508103</v>
@@ -6049,7 +6046,7 @@
         <v>1.888425907885709</v>
       </c>
       <c r="D85" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E85">
         <v>1.858301408508103</v>
@@ -6099,7 +6096,7 @@
         <v>1.843363658196906</v>
       </c>
       <c r="D86" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E86">
         <v>1.858301408508103</v>
@@ -6149,7 +6146,7 @@
         <v>2.660449968537363</v>
       </c>
       <c r="D87" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E87">
         <v>2.250393991982597</v>
@@ -6199,7 +6196,7 @@
         <v>1.893372807135757</v>
       </c>
       <c r="D88" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E88">
         <v>1.76840079541314</v>
@@ -6249,7 +6246,7 @@
         <v>1.861715469894883</v>
       </c>
       <c r="D89" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E89">
         <v>1.76840079541314</v>
@@ -6299,7 +6296,7 @@
         <v>1.816743458172266</v>
       </c>
       <c r="D90" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E90">
         <v>1.76840079541314</v>
@@ -6349,7 +6346,7 @@
         <v>2.753045004490679</v>
       </c>
       <c r="D91" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E91">
         <v>2.2971803418113</v>
@@ -6399,7 +6396,7 @@
         <v>1.990789359754097</v>
       </c>
       <c r="D92" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E92">
         <v>1.832556276919175</v>
@@ -6449,7 +6446,7 @@
         <v>1.959022442589019</v>
       </c>
       <c r="D93" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E93">
         <v>1.832556276919175</v>
@@ -6499,7 +6496,7 @@
         <v>1.913721691093786</v>
       </c>
       <c r="D94" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E94">
         <v>1.832556276919175</v>
@@ -6549,7 +6546,7 @@
         <v>2.92313924418029</v>
       </c>
       <c r="D95" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E95">
         <v>2.468884941166612</v>
@@ -6599,7 +6596,7 @@
         <v>2.153677001851642</v>
       </c>
       <c r="D96" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E96">
         <v>1.949422698837964</v>
@@ -6649,7 +6646,7 @@
         <v>2.13777236548177</v>
       </c>
       <c r="D97" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E97">
         <v>1.949422698837964</v>
@@ -6699,7 +6696,7 @@
         <v>2.091867729111899</v>
       </c>
       <c r="D98" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E98">
         <v>1.949422698837964</v>
@@ -6749,7 +6746,7 @@
         <v>2.894427873207131</v>
       </c>
       <c r="D99" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E99">
         <v>2.439901746562937</v>
@@ -6799,7 +6796,7 @@
         <v>1.997271113341972</v>
       </c>
       <c r="D100" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E100">
         <v>2.044389132460881</v>
@@ -6849,7 +6846,7 @@
         <v>2.107599942494591</v>
       </c>
       <c r="D101" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E101">
         <v>2.044389132460881</v>
@@ -6899,7 +6896,7 @@
         <v>2.061797239986165</v>
       </c>
       <c r="D102" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E102">
         <v>2.044389132460881</v>
@@ -6949,7 +6946,7 @@
         <v>2.923596716153027</v>
       </c>
       <c r="D103" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E103">
         <v>2.407065525827111</v>
@@ -6999,7 +6996,7 @@
         <v>2.028096884644558</v>
       </c>
       <c r="D104" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E104">
         <v>2.036284363583118</v>
@@ -7049,7 +7046,7 @@
         <v>2.138253117093357</v>
       </c>
       <c r="D105" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E105">
         <v>2.036284363583118</v>
@@ -7099,7 +7096,7 @@
         <v>2.092346856562636</v>
       </c>
       <c r="D106" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E106">
         <v>2.036284363583118</v>
@@ -7149,7 +7146,7 @@
         <v>2.985463460161611</v>
       </c>
       <c r="D107" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E107">
         <v>2.470176926224034</v>
@@ -7199,7 +7196,7 @@
         <v>2.093477952573156</v>
       </c>
       <c r="D108" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E108">
         <v>2.244680549326919</v>
@@ -7249,7 +7246,7 @@
         <v>2.181435983981249</v>
       </c>
       <c r="D109" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E109">
         <v>2.244680549326919</v>
@@ -7299,7 +7296,7 @@
         <v>2.157142203837899</v>
       </c>
       <c r="D110" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E110">
         <v>2.244680549326919</v>
@@ -7349,7 +7346,7 @@
         <v>3.064233105493776</v>
       </c>
       <c r="D111" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E111">
         <v>2.550531286314361</v>
@@ -7399,7 +7396,7 @@
         <v>2.176722086634249</v>
       </c>
       <c r="D112" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E112">
         <v>2.41693684763564</v>
@@ -7449,7 +7446,7 @@
         <v>2.264586899527156</v>
       </c>
       <c r="D113" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E113">
         <v>2.41693684763564</v>
@@ -7499,7 +7496,7 @@
         <v>2.239640589777504</v>
       </c>
       <c r="D114" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E114">
         <v>2.41693684763564</v>
@@ -7549,7 +7546,7 @@
         <v>3.110186183160804</v>
       </c>
       <c r="D115" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E115">
         <v>2.597408863768773</v>
@@ -7599,7 +7596,7 @@
         <v>2.225285516642126</v>
       </c>
       <c r="D116" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E116">
         <v>2.368062836034158</v>
@@ -7649,7 +7646,7 @@
         <v>2.313095947194598</v>
       </c>
       <c r="D117" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E117">
         <v>2.368062836034158</v>
@@ -7699,7 +7696,7 @@
         <v>2.287768961061905</v>
       </c>
       <c r="D118" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E118">
         <v>2.368062836034158</v>
@@ -7749,7 +7746,7 @@
         <v>3.033340385849137</v>
       </c>
       <c r="D119" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E119">
         <v>2.719207193814303</v>
@@ -7799,7 +7796,7 @@
         <v>3.229582457973418</v>
       </c>
       <c r="D120" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E120">
         <v>2.719207193814303</v>
@@ -8149,7 +8146,7 @@
         <v>2.432163407485593</v>
       </c>
       <c r="D127" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E127">
         <v>2.56100240196795</v>
@@ -8199,7 +8196,7 @@
         <v>2.519742171866908</v>
       </c>
       <c r="D128" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E128">
         <v>2.56100240196795</v>
@@ -8249,7 +8246,7 @@
         <v>2.492793522536114</v>
       </c>
       <c r="D129" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E129">
         <v>2.56100240196795</v>
@@ -8299,7 +8296,7 @@
         <v>2.505529815680059</v>
       </c>
       <c r="D130" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E130">
         <v>2.56100240196795</v>
@@ -8549,7 +8546,7 @@
         <v>2.561090333833617</v>
       </c>
       <c r="D135" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E135">
         <v>2.754384456252795</v>
@@ -8599,7 +8596,7 @@
         <v>2.569312051271657</v>
       </c>
       <c r="D136" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E136">
         <v>2.754384456252795</v>
@@ -8649,7 +8646,7 @@
         <v>2.620565448424133</v>
       </c>
       <c r="D137" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E137">
         <v>2.754384456252795</v>
@@ -8699,7 +8696,7 @@
         <v>2.632868616395577</v>
       </c>
       <c r="D138" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E138">
         <v>2.754384456252795</v>
@@ -8949,7 +8946,7 @@
         <v>2.656093329609079</v>
       </c>
       <c r="D143" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E143">
         <v>2.992573434271657</v>
@@ -8999,7 +8996,7 @@
         <v>2.743421332599438</v>
       </c>
       <c r="D144" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E144">
         <v>2.992573434271657</v>
@@ -9049,7 +9046,7 @@
         <v>2.714717353531954</v>
       </c>
       <c r="D145" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E145">
         <v>2.992573434271657</v>
@@ -9099,7 +9096,7 @@
         <v>2.726701362503031</v>
       </c>
       <c r="D146" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E146">
         <v>2.992573434271657</v>
@@ -9399,7 +9396,7 @@
         <v>2.743265879725431</v>
       </c>
       <c r="D152" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E152">
         <v>3.076329367082216</v>
@@ -9449,7 +9446,7 @@
         <v>2.830496265078482</v>
       </c>
       <c r="D153" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E153">
         <v>3.076329367082216</v>
@@ -9499,7 +9496,7 @@
         <v>2.801108962549839</v>
       </c>
       <c r="D154" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E154">
         <v>3.076329367082216</v>
@@ -9549,7 +9546,7 @@
         <v>2.812800118608992</v>
       </c>
       <c r="D155" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E155">
         <v>3.076329367082216</v>
@@ -9599,7 +9596,7 @@
         <v>8.428041485362026</v>
       </c>
       <c r="D156" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E156">
         <v>7.860265385484505</v>
@@ -9649,7 +9646,7 @@
         <v>8.423754692426147</v>
       </c>
       <c r="D157" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E157">
         <v>7.860265385484505</v>
@@ -9699,7 +9696,7 @@
         <v>7.322493060882559</v>
       </c>
       <c r="D158" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E158">
         <v>7.276461614475858</v>
@@ -9749,7 +9746,7 @@
         <v>0.8245990177480174</v>
       </c>
       <c r="D159" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E159">
         <v>0.6142761207337122</v>
@@ -9799,7 +9796,7 @@
         <v>0.5627692680002871</v>
       </c>
       <c r="D160" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E160">
         <v>0.672123473971677</v>
@@ -9849,7 +9846,7 @@
         <v>0.5629845326764906</v>
       </c>
       <c r="D161" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E161">
         <v>0.7139532237194066</v>
@@ -9899,7 +9896,7 @@
         <v>0.5459982381433406</v>
       </c>
       <c r="D162" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E162">
         <v>0.7139532237194066</v>
@@ -9949,7 +9946,7 @@
         <v>0.5636303267051019</v>
       </c>
       <c r="D163" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E163">
         <v>0.8305089889001493</v>
@@ -10049,7 +10046,7 @@
         <v>0.8093250331810289</v>
       </c>
       <c r="D165" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E165">
         <v>0.8194326655191304</v>
@@ -10099,7 +10096,7 @@
         <v>0.8405770778352721</v>
       </c>
       <c r="D166" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E166">
         <v>0.6301931958588023</v>
@@ -10149,7 +10146,7 @@
         <v>0.5784017466352731</v>
       </c>
       <c r="D167" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E167">
         <v>0.7171221400470396</v>
@@ -10199,7 +10196,7 @@
         <v>0.5786576679529203</v>
       </c>
       <c r="D168" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E168">
         <v>0.7298093138823321</v>
@@ -10249,7 +10246,7 @@
         <v>0.5622405663999777</v>
       </c>
       <c r="D169" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E169">
         <v>0.7298093138823321</v>
@@ -10299,7 +10296,7 @@
         <v>0.5794254319058618</v>
       </c>
       <c r="D170" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E170">
         <v>0.84571457279998</v>
@@ -10349,7 +10346,7 @@
         <v>0.9516198317176272</v>
       </c>
       <c r="D171" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E171">
         <v>0.7660984547764507</v>
@@ -10399,7 +10396,7 @@
         <v>0.8243070055529209</v>
       </c>
       <c r="D172" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E172">
         <v>0.7660984547764507</v>
@@ -10449,7 +10446,7 @@
         <v>3.011517550684177</v>
       </c>
       <c r="D173" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E173">
         <v>3.259507704779772</v>
@@ -10499,7 +10496,7 @@
         <v>3.032305079205265</v>
       </c>
       <c r="D174" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E174">
         <v>3.259507704779772</v>
@@ -10549,7 +10546,7 @@
         <v>3.023912955928789</v>
       </c>
       <c r="D175" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E175">
         <v>3.259507704779772</v>
@@ -10599,7 +10596,7 @@
         <v>3.523510986747906</v>
       </c>
       <c r="D176" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E176">
         <v>3.205488012970963</v>
@@ -10649,7 +10646,7 @@
         <v>3.467481449034693</v>
       </c>
       <c r="D177" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E177">
         <v>3.205488012970963</v>
@@ -10699,7 +10696,7 @@
         <v>2.990019863222156</v>
       </c>
       <c r="D178" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E178">
         <v>3.2375712890022</v>
@@ -10749,7 +10746,7 @@
         <v>3.010251669210212</v>
       </c>
       <c r="D179" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E179">
         <v>3.2375712890022</v>
@@ -10799,7 +10796,7 @@
         <v>3.002210528586177</v>
       </c>
       <c r="D180" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E180">
         <v>3.2375712890022</v>
@@ -10849,7 +10846,7 @@
         <v>3.501720813742185</v>
       </c>
       <c r="D181" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E181">
         <v>3.182674140562288</v>
@@ -10899,7 +10896,7 @@
         <v>3.444375091082317</v>
       </c>
       <c r="D182" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E182">
         <v>3.182674140562288</v>
@@ -10949,7 +10946,7 @@
         <v>2.882489184657736</v>
       </c>
       <c r="D183" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E183">
         <v>3.127846106793607</v>
@@ -10999,7 +10996,7 @@
         <v>2.89994128602984</v>
       </c>
       <c r="D184" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E184">
         <v>3.127846106793607</v>
@@ -11049,7 +11046,7 @@
         <v>2.893655748321143</v>
       </c>
       <c r="D185" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E185">
         <v>3.127846106793607</v>
@@ -11099,7 +11096,7 @@
         <v>3.392727132748317</v>
       </c>
       <c r="D186" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E186">
         <v>3.602965080838898</v>
@@ -11149,7 +11146,7 @@
         <v>3.317869283583107</v>
       </c>
       <c r="D187" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E187">
         <v>3.602965080838898</v>
@@ -11199,7 +11196,7 @@
         <v>3.328797899155933</v>
       </c>
       <c r="D188" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E188">
         <v>3.602965080838898</v>
@@ -11249,7 +11246,7 @@
         <v>2.702672232723285</v>
       </c>
       <c r="D189" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E189">
         <v>2.944359421146208</v>
@@ -11299,7 +11296,7 @@
         <v>2.715476004725656</v>
       </c>
       <c r="D190" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E190">
         <v>2.944359421146208</v>
@@ -11349,7 +11346,7 @@
         <v>2.712126253987316</v>
       </c>
       <c r="D191" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E191">
         <v>2.944359421146208</v>
@@ -11399,7 +11396,7 @@
         <v>3.210463691671901</v>
       </c>
       <c r="D192" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E192">
         <v>3.418255150620516</v>
@@ -11449,7 +11446,7 @@
         <v>3.123862694625259</v>
       </c>
       <c r="D193" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E193">
         <v>3.418255150620516</v>
@@ -11499,7 +11496,7 @@
         <v>3.135525256940674</v>
       </c>
       <c r="D194" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E194">
         <v>3.418255150620516</v>
@@ -11549,7 +11546,7 @@
         <v>2.736071235676643</v>
       </c>
       <c r="D195" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E195">
         <v>2.942224758417352</v>
@@ -11599,7 +11596,7 @@
         <v>2.162283479363674</v>
       </c>
       <c r="D196" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E196">
         <v>2.372503094869548</v>
@@ -11635,7 +11632,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11649,7 +11646,7 @@
         <v>2.161118018285999</v>
       </c>
       <c r="D197" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E197">
         <v>2.372503094869548</v>
@@ -11685,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11699,7 +11696,7 @@
         <v>2.166590941071899</v>
       </c>
       <c r="D198" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E198">
         <v>2.372503094869548</v>
@@ -11735,7 +11732,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11749,7 +11746,7 @@
         <v>2.564986248982474</v>
       </c>
       <c r="D199" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E199">
         <v>2.863161941387174</v>
@@ -11785,7 +11782,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11799,7 +11796,7 @@
         <v>2.588567480624777</v>
       </c>
       <c r="D200" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E200">
         <v>2.863161941387174</v>
@@ -11835,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11849,7 +11846,7 @@
         <v>2.554699249928301</v>
       </c>
       <c r="D201" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E201">
         <v>2.863161941387174</v>
@@ -11885,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11899,7 +11896,7 @@
         <v>2.168347865118902</v>
       </c>
       <c r="D202" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E202">
         <v>2.433533788850627</v>
@@ -11935,7 +11932,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11949,7 +11946,7 @@
         <v>2.089009283775184</v>
       </c>
       <c r="D203" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E203">
         <v>2.29873043536549</v>
@@ -11999,7 +11996,7 @@
         <v>2.085949659818351</v>
       </c>
       <c r="D204" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E204">
         <v>2.29873043536549</v>
@@ -12049,7 +12046,7 @@
         <v>2.092618896001614</v>
       </c>
       <c r="D205" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E205">
         <v>2.29873043536549</v>
@@ -12099,7 +12096,7 @@
         <v>2.490116968864166</v>
       </c>
       <c r="D206" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E206">
         <v>2.787893890136412</v>
@@ -12149,7 +12146,7 @@
         <v>2.51010926031438</v>
       </c>
       <c r="D207" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E207">
         <v>2.787893890136412</v>
@@ -12199,7 +12196,7 @@
         <v>2.475941951268564</v>
       </c>
       <c r="D208" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E208">
         <v>2.787893890136412</v>
@@ -12249,7 +12246,7 @@
         <v>2.090388108724073</v>
       </c>
       <c r="D209" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E209">
         <v>2.352882327311732</v>
@@ -12299,7 +12296,7 @@
         <v>2.192228120172728</v>
       </c>
       <c r="D210" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E210">
         <v>2.40265144071812</v>
@@ -12349,7 +12346,7 @@
         <v>2.19183673824522</v>
       </c>
       <c r="D211" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E211">
         <v>2.40265144071812</v>
@@ -12399,7 +12396,7 @@
         <v>2.196820768936278</v>
       </c>
       <c r="D212" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E212">
         <v>2.40265144071812</v>
@@ -12449,7 +12446,7 @@
         <v>2.595582745917984</v>
       </c>
       <c r="D213" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E213">
         <v>2.893921402354298</v>
@@ -12499,7 +12496,7 @@
         <v>2.620630653844811</v>
       </c>
       <c r="D214" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E214">
         <v>2.893921402354298</v>
@@ -12549,7 +12546,7 @@
         <v>2.586884646172047</v>
       </c>
       <c r="D215" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E215">
         <v>2.893921402354298</v>
@@ -12599,7 +12596,7 @@
         <v>2.20020733329942</v>
       </c>
       <c r="D216" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E216">
         <v>2.466493264244539</v>
@@ -12649,7 +12646,7 @@
         <v>2.278141334918415</v>
       </c>
       <c r="D217" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E217">
         <v>2.511164627467769</v>
@@ -12699,7 +12696,7 @@
         <v>2.279970838814265</v>
       </c>
       <c r="D218" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E218">
         <v>2.511164627467769</v>
@@ -12749,7 +12746,7 @@
         <v>2.283552204774781</v>
       </c>
       <c r="D219" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E219">
         <v>2.511164627467769</v>
@@ -12799,7 +12796,7 @@
         <v>2.683366180304393</v>
       </c>
       <c r="D220" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E220">
         <v>2.982172391650888</v>
@@ -12849,7 +12846,7 @@
         <v>2.712622082422847</v>
       </c>
       <c r="D221" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E221">
         <v>2.982172391650888</v>
@@ -12899,7 +12896,7 @@
         <v>2.679226740932718</v>
       </c>
       <c r="D222" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E222">
         <v>2.982172391650888</v>
@@ -12949,7 +12946,7 @@
         <v>2.291614318239729</v>
       </c>
       <c r="D223" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E223">
         <v>2.561056244828568</v>
@@ -12999,7 +12996,7 @@
         <v>2.24731466049155</v>
       </c>
       <c r="D224" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E224">
         <v>2.478681691470373</v>
@@ -13049,7 +13046,7 @@
         <v>2.251415753428024</v>
       </c>
       <c r="D225" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E225">
         <v>2.478681691470373</v>
@@ -13099,7 +13096,7 @@
         <v>2.650839933725667</v>
       </c>
       <c r="D226" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E226">
         <v>2.949472902746843</v>
@@ -13149,7 +13146,7 @@
         <v>2.678536654916245</v>
       </c>
       <c r="D227" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E227">
         <v>2.949472902746843</v>
@@ -13199,7 +13196,7 @@
         <v>2.645011381682127</v>
       </c>
       <c r="D228" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E228">
         <v>2.949472902746843</v>
@@ -13249,7 +13246,7 @@
         <v>2.257745443639777</v>
       </c>
       <c r="D229" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E229">
         <v>2.526017984532709</v>
@@ -13299,7 +13296,7 @@
         <v>2.655872947978581</v>
       </c>
       <c r="D230" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E230">
         <v>2.262418029764449</v>
@@ -13349,7 +13346,7 @@
         <v>2.172840353015851</v>
       </c>
       <c r="D231" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E231">
         <v>2.384007773516882</v>
@@ -13399,7 +13396,7 @@
         <v>2.178126713445307</v>
       </c>
       <c r="D232" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E232">
         <v>2.384007773516882</v>
@@ -13449,7 +13446,7 @@
         <v>2.576661943123215</v>
       </c>
       <c r="D233" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E233">
         <v>2.874899822980062</v>
@@ -13499,7 +13496,7 @@
         <v>2.600802861834847</v>
       </c>
       <c r="D234" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E234">
         <v>2.874899822980062</v>
@@ -13549,7 +13546,7 @@
         <v>2.780802861834847</v>
       </c>
       <c r="D235" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E235">
         <v>2.874899822980062</v>
@@ -13599,7 +13596,7 @@
         <v>2.180505512013787</v>
       </c>
       <c r="D236" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E236">
         <v>2.44611120104751</v>
@@ -13649,7 +13646,7 @@
         <v>3.16471395829044</v>
       </c>
       <c r="D237" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E237">
         <v>2.876141169417832</v>
@@ -13699,7 +13696,7 @@
         <v>3.118858906274599</v>
       </c>
       <c r="D238" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E238">
         <v>2.876141169417832</v>
@@ -13749,7 +13746,7 @@
         <v>3.298858906274599</v>
       </c>
       <c r="D239" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E239">
         <v>2.876141169417832</v>
@@ -13799,7 +13796,7 @@
         <v>3.129205380823773</v>
       </c>
       <c r="D240" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E240">
         <v>2.765963171089123</v>
@@ -13849,7 +13846,7 @@
         <v>2.558576013370311</v>
       </c>
       <c r="D241" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E241">
         <v>2.956487643967009</v>
@@ -13899,7 +13896,7 @@
         <v>2.955013317141319</v>
       </c>
       <c r="D242" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E242">
         <v>2.654899956071243</v>
@@ -13949,7 +13946,7 @@
         <v>2.897336215557339</v>
       </c>
       <c r="D243" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E243">
         <v>2.654899956071243</v>
@@ -13999,7 +13996,7 @@
         <v>3.077336215557339</v>
       </c>
       <c r="D244" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E244">
         <v>2.654899956071243</v>
@@ -14049,7 +14046,7 @@
         <v>2.891075525236986</v>
       </c>
       <c r="D245" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E245">
         <v>2.512633537486157</v>
@@ -14099,7 +14096,7 @@
         <v>2.301868651319306</v>
       </c>
       <c r="D246" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E246">
         <v>2.718639265750892</v>
@@ -14149,7 +14146,7 @@
         <v>1.005369382839041</v>
       </c>
       <c r="D247" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E247">
         <v>0.9358262153664816</v>
@@ -14199,7 +14196,7 @@
         <v>1.044536476187351</v>
       </c>
       <c r="D248" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E248">
         <v>1.246336640426168</v>
@@ -14249,7 +14246,7 @@
         <v>1.031411989433655</v>
       </c>
       <c r="D249" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E249">
         <v>1.246336640426168</v>
@@ -14299,7 +14296,7 @@
         <v>1.039611825194839</v>
       </c>
       <c r="D250" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E250">
         <v>1.246336640426168</v>
@@ -14349,7 +14346,7 @@
         <v>1.017811660956021</v>
       </c>
       <c r="D251" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E251">
         <v>1.246336640426168</v>
@@ -14399,7 +14396,7 @@
         <v>1.044036886784395</v>
       </c>
       <c r="D252" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E252">
         <v>1.246336640426168</v>
@@ -14449,7 +14446,7 @@
         <v>1.410611004000752</v>
       </c>
       <c r="D253" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E253">
         <v>1.196336640426169</v>
@@ -14499,7 +14496,7 @@
         <v>1.386986927844099</v>
       </c>
       <c r="D254" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E254">
         <v>1.320761702015725</v>
@@ -14549,7 +14546,7 @@
         <v>1.406011496717204</v>
       </c>
       <c r="D255" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E255">
         <v>1.320761702015725</v>
@@ -14599,7 +14596,7 @@
         <v>1.380936147709717</v>
       </c>
       <c r="D256" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E256">
         <v>1.320761702015725</v>
@@ -14649,7 +14646,7 @@
         <v>1.465686353008238</v>
       </c>
       <c r="D257" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E257">
         <v>1.320761702015725</v>
@@ -14699,7 +14696,7 @@
         <v>0.9661722288213106</v>
       </c>
       <c r="D258" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E258">
         <v>1.166850901147913</v>
@@ -14749,7 +14746,7 @@
         <v>0.9495430798419413</v>
       </c>
       <c r="D259" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E259">
         <v>1.166850901147913</v>
@@ -14799,7 +14796,7 @@
         <v>0.9588644075153399</v>
       </c>
       <c r="D260" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E260">
         <v>1.166850901147913</v>
@@ -14849,7 +14846,7 @@
         <v>0.9381857351887382</v>
       </c>
       <c r="D261" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E261">
         <v>1.166850901147913</v>
@@ -14899,7 +14896,7 @@
         <v>0.962868909637816</v>
       </c>
       <c r="D262" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E262">
         <v>1.166850901147913</v>
@@ -14949,7 +14946,7 @@
         <v>1.33547104588233</v>
       </c>
       <c r="D263" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E263">
         <v>1.116850901147913</v>
@@ -14999,7 +14996,7 @@
         <v>1.305538577719466</v>
       </c>
       <c r="D264" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E264">
         <v>1.19153407559699</v>
@@ -15049,7 +15046,7 @@
         <v>1.327507062862136</v>
       </c>
       <c r="D265" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E265">
         <v>1.19153407559699</v>
@@ -15099,7 +15096,7 @@
         <v>1.304814884168106</v>
       </c>
       <c r="D266" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E266">
         <v>1.19153407559699</v>
@@ -15149,7 +15146,7 @@
         <v>1.388163224576359</v>
       </c>
       <c r="D267" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E267">
         <v>1.19153407559699</v>
@@ -15199,7 +15196,7 @@
         <v>0.8431624363702266</v>
       </c>
       <c r="D268" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E268">
         <v>1.063566954489587</v>
@@ -15249,7 +15246,7 @@
         <v>0.8539410331322781</v>
       </c>
       <c r="D269" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E269">
         <v>1.063566954489587</v>
@@ -15299,7 +15296,7 @@
         <v>0.8347196298943302</v>
       </c>
       <c r="D270" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E270">
         <v>1.063566954489587</v>
@@ -15349,7 +15346,7 @@
         <v>0.8573990593465091</v>
       </c>
       <c r="D271" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E271">
         <v>1.063566954489587</v>
@@ -15399,7 +15396,7 @@
         <v>1.237834016942537</v>
       </c>
       <c r="D272" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E272">
         <v>1.013566954489587</v>
@@ -15449,7 +15446,7 @@
         <v>1.199704410155996</v>
       </c>
       <c r="D273" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E273">
         <v>1.035093708537022</v>
@@ -15499,7 +15496,7 @@
         <v>1.225498226656382</v>
       </c>
       <c r="D274" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E274">
         <v>1.035093708537022</v>
@@ -15549,7 +15546,7 @@
         <v>1.205902744775742</v>
       </c>
       <c r="D275" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E275">
         <v>1.035093708537022</v>
@@ -15599,7 +15596,7 @@
         <v>1.287429498823176</v>
       </c>
       <c r="D276" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E276">
         <v>1.035093708537022</v>
@@ -15649,7 +15646,7 @@
         <v>0.7929641978726467</v>
       </c>
       <c r="D277" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E277">
         <v>1.014829966085258</v>
@@ -15699,7 +15696,7 @@
         <v>0.8044304417374049</v>
       </c>
       <c r="D278" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E278">
         <v>1.014829966085258</v>
@@ -15749,7 +15746,7 @@
         <v>0.8309626123654903</v>
       </c>
       <c r="D279" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E279">
         <v>1.014829966085258</v>
@@ -15799,7 +15796,7 @@
         <v>0.7858966856021636</v>
       </c>
       <c r="D280" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E280">
         <v>1.014829966085258</v>
@@ -15849,7 +15846,7 @@
         <v>0.8076306002881211</v>
       </c>
       <c r="D281" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E281">
         <v>1.014829966085258</v>
@@ -15899,7 +15896,7 @@
         <v>1.191761661061197</v>
       </c>
       <c r="D282" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E282">
         <v>0.964829966085258</v>
@@ -15949,7 +15946,7 @@
         <v>1.177362929466922</v>
       </c>
       <c r="D283" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E283">
         <v>0.9893645149740777</v>
@@ -15999,7 +15996,7 @@
         <v>1.159228697679533</v>
       </c>
       <c r="D284" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E284">
         <v>0.9893645149740777</v>
@@ -16049,7 +16046,7 @@
         <v>1.239895892848584</v>
       </c>
       <c r="D285" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E285">
         <v>0.9893645149740777</v>
@@ -16099,7 +16096,7 @@
         <v>0.7494679440928866</v>
       </c>
       <c r="D286" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E286">
         <v>0.972599870377854</v>
@@ -16149,7 +16146,7 @@
         <v>0.7615300270505188</v>
       </c>
       <c r="D287" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E287">
         <v>0.972599870377854</v>
@@ -16199,7 +16196,7 @@
         <v>0.7897007551840058</v>
       </c>
       <c r="D288" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E288">
         <v>0.972599870377854</v>
@@ -16249,7 +16246,7 @@
         <v>0.7916076307475572</v>
       </c>
       <c r="D289" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E289">
         <v>0.972599870377854</v>
@@ -16299,7 +16296,7 @@
         <v>0.7645067459414072</v>
       </c>
       <c r="D290" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E290">
         <v>0.972599870377854</v>
@@ -16349,7 +16346,7 @@
         <v>1.151840441838677</v>
       </c>
       <c r="D291" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E291">
         <v>0.9225998703778542</v>
@@ -16399,7 +16396,7 @@
         <v>1.135654192965782</v>
       </c>
       <c r="D292" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E292">
         <v>0.9454213818746622</v>
@@ -16449,7 +16446,7 @@
         <v>1.118786119250749</v>
       </c>
       <c r="D293" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E293">
         <v>0.9454213818746622</v>
@@ -16499,7 +16496,7 @@
         <v>1.198708515553709</v>
       </c>
       <c r="D294" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E294">
         <v>0.9454213818746622</v>
@@ -16549,7 +16546,7 @@
         <v>0.707909471861206</v>
       </c>
       <c r="D295" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E295">
         <v>0.9322511481940143</v>
@@ -16599,7 +16596,7 @@
         <v>0.7205408489589988</v>
       </c>
       <c r="D296" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E296">
         <v>0.9322511481940143</v>
@@ -16649,7 +16646,7 @@
         <v>0.7586986932334456</v>
       </c>
       <c r="D297" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E297">
         <v>0.9322511481940143</v>
@@ -16699,7 +16696,7 @@
         <v>0.7502771359779254</v>
       </c>
       <c r="D298" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E298">
         <v>0.9322511481940143</v>
@@ -16749,7 +16746,7 @@
         <v>0.757645758880134</v>
       </c>
       <c r="D299" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E299">
         <v>0.9322511481940143</v>
@@ -16799,7 +16796,7 @@
         <v>0.7233040825473269</v>
       </c>
       <c r="D300" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E300">
         <v>0.9322511481940143</v>
@@ -16849,7 +16846,7 @@
         <v>1.113697734447957</v>
       </c>
       <c r="D301" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E301">
         <v>0.8822511481940145</v>
@@ -16899,7 +16896,7 @@
         <v>1.095803603154581</v>
       </c>
       <c r="D302" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E302">
         <v>0.9034359390378626</v>
@@ -16949,7 +16946,7 @@
         <v>1.080145279487389</v>
       </c>
       <c r="D303" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E303">
         <v>0.9034359390378626</v>
@@ -16999,7 +16996,7 @@
         <v>1.159356058115149</v>
       </c>
       <c r="D304" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E304">
         <v>0.9034359390378626</v>
@@ -17049,7 +17046,7 @@
         <v>0.6769872492951574</v>
       </c>
       <c r="D305" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E305">
         <v>0.9022290588191</v>
@@ -17099,7 +17096,7 @@
         <v>0.6900422184828958</v>
       </c>
       <c r="D306" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E306">
         <v>0.9022290588191</v>
@@ -17149,7 +17146,7 @@
         <v>0.7283059607798297</v>
       </c>
       <c r="D307" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E307">
         <v>0.9022290588191</v>
@@ -17199,7 +17196,7 @@
         <v>0.7209433837491739</v>
       </c>
       <c r="D308" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E308">
         <v>0.9022290588191</v>
@@ -17249,7 +17246,7 @@
         <v>0.7278884145614359</v>
       </c>
       <c r="D309" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E309">
         <v>0.9022290588191</v>
@@ -17299,7 +17296,7 @@
         <v>0.6926466050374938</v>
       </c>
       <c r="D310" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E310">
         <v>0.9022290588191</v>
@@ -17349,7 +17346,7 @@
         <v>1.085317064421583</v>
       </c>
       <c r="D311" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E311">
         <v>0.8522290588191002</v>
@@ -17399,7 +17396,7 @@
         <v>1.066152156858371</v>
       </c>
       <c r="D312" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E312">
         <v>0.8721960224043537</v>
@@ -17449,7 +17446,7 @@
         <v>1.051393966382313</v>
       </c>
       <c r="D313" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E313">
         <v>0.8721960224043537</v>
@@ -17499,7 +17496,7 @@
         <v>1.13007525489764</v>
       </c>
       <c r="D314" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E314">
         <v>0.8721960224043537</v>
@@ -17549,7 +17546,7 @@
         <v>0.6617004606469044</v>
       </c>
       <c r="D315" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E315">
         <v>0.8873872623061558</v>
@@ -17599,7 +17596,7 @@
         <v>0.6749648378983171</v>
       </c>
       <c r="D316" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E316">
         <v>0.8873872623061558</v>
@@ -17649,7 +17646,7 @@
         <v>0.7132809322111697</v>
       </c>
       <c r="D317" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E317">
         <v>0.8873872623061558</v>
@@ -17699,7 +17696,7 @@
         <v>0.706441875339701</v>
       </c>
       <c r="D318" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E318">
         <v>0.8873872623061558</v>
@@ -17749,7 +17746,7 @@
         <v>0.7131774980882888</v>
       </c>
       <c r="D319" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E319">
         <v>0.8873872623061558</v>
@@ -17799,7 +17796,7 @@
         <v>0.6774906964290377</v>
       </c>
       <c r="D320" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E320">
         <v>0.8873872623061558</v>
@@ -17849,7 +17846,7 @@
         <v>1.071286724155378</v>
       </c>
       <c r="D321" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E321">
         <v>0.837387262306156</v>
@@ -17899,7 +17896,7 @@
         <v>1.051493592401141</v>
       </c>
       <c r="D322" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E322">
         <v>0.8567521777083451</v>
@@ -17949,7 +17946,7 @@
         <v>1.037180394060393</v>
       </c>
       <c r="D323" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E323">
         <v>0.8567521777083451</v>
@@ -17999,7 +17996,7 @@
         <v>1.115599922496127</v>
       </c>
       <c r="D324" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E324">
         <v>0.8567521777083451</v>
@@ -18049,7 +18046,7 @@
         <v>0.6627117104425828</v>
       </c>
       <c r="D325" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E325">
         <v>0.8753255899669172</v>
@@ -18099,7 +18096,7 @@
         <v>0.7010703503368783</v>
       </c>
       <c r="D326" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E326">
         <v>0.8753255899669172</v>
@@ -18149,7 +18146,7 @@
         <v>0.6946567492798454</v>
       </c>
       <c r="D327" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E327">
         <v>0.8753255899669172</v>
@@ -18199,7 +18196,7 @@
         <v>0.7012221897026585</v>
       </c>
       <c r="D328" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E328">
         <v>0.8753255899669172</v>
@@ -18249,7 +18246,7 @@
         <v>0.6651737506011379</v>
       </c>
       <c r="D329" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E329">
         <v>0.8753255899669172</v>
@@ -18299,7 +18296,7 @@
         <v>1.059884508328515</v>
       </c>
       <c r="D330" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E330">
         <v>0.8253255899669174</v>
@@ -18349,7 +18346,7 @@
         <v>1.039580829596956</v>
       </c>
       <c r="D331" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E331">
         <v>0.844201231182506</v>
@@ -18399,7 +18396,7 @@
         <v>1.025629268698476</v>
       </c>
       <c r="D332" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E332">
         <v>0.844201231182506</v>
@@ -18449,7 +18446,7 @@
         <v>1.103836069226992</v>
       </c>
       <c r="D333" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E333">
         <v>0.844201231182506</v>
@@ -18499,7 +18496,7 @@
         <v>0.6443218537517277</v>
       </c>
       <c r="D334" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E334">
         <v>0.8572230747868561</v>
@@ -18549,7 +18546,7 @@
         <v>0.6827443473150883</v>
       </c>
       <c r="D335" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E335">
         <v>0.8572230747868561</v>
@@ -18599,7 +18596,7 @@
         <v>0.6769692829487095</v>
       </c>
       <c r="D336" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E336">
         <v>0.8572230747868561</v>
@@ -18649,7 +18646,7 @@
         <v>0.683279308695262</v>
       </c>
       <c r="D337" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E337">
         <v>0.8572230747868561</v>
@@ -18699,7 +18696,7 @@
         <v>0.6466881134066842</v>
       </c>
       <c r="D338" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E338">
         <v>0.8572230747868561</v>
@@ -18749,7 +18746,7 @@
         <v>1.042771725018969</v>
       </c>
       <c r="D339" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E339">
         <v>0.8072230747868563</v>
@@ -18799,7 +18796,7 @@
         <v>1.021701802258623</v>
       </c>
       <c r="D340" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E340">
         <v>0.8253643988081922</v>
@@ -18849,7 +18846,7 @@
         <v>1.008292997547201</v>
       </c>
       <c r="D341" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E341">
         <v>0.8253643988081922</v>
@@ -18899,7 +18896,7 @@
         <v>1.08618052973039</v>
       </c>
       <c r="D342" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E342">
         <v>0.8253643988081922</v>
@@ -18949,7 +18946,7 @@
         <v>0.626551025676668</v>
       </c>
       <c r="D343" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E343">
         <v>0.8397299159004703</v>
@@ -18999,7 +18996,7 @@
         <v>0.6650352235041792</v>
       </c>
       <c r="D344" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E344">
         <v>0.8397299159004703</v>
@@ -19049,7 +19046,7 @@
         <v>0.6598772017792953</v>
       </c>
       <c r="D345" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E345">
         <v>0.8397299159004703</v>
@@ -19099,7 +19096,7 @@
         <v>0.6659404104692488</v>
       </c>
       <c r="D346" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E346">
         <v>0.8397299159004703</v>
@@ -19149,7 +19146,7 @@
         <v>0.6288247289354008</v>
       </c>
       <c r="D347" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E347">
         <v>0.8397299159004703</v>
@@ -19199,7 +19196,7 @@
         <v>1.026234982226899</v>
       </c>
       <c r="D348" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E348">
         <v>0.7897299159004705</v>
@@ -19249,7 +19246,7 @@
         <v>1.004424608296761</v>
       </c>
       <c r="D349" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E349">
         <v>0.807161640884086</v>
@@ -19299,7 +19296,7 @@
         <v>0.9915402898306089</v>
       </c>
       <c r="D350" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E350">
         <v>0.807161640884086</v>
@@ -19349,7 +19346,7 @@
         <v>1.069119300693051</v>
       </c>
       <c r="D351" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E351">
         <v>0.807161640884086</v>
@@ -19399,7 +19396,7 @@
         <v>1.142735629781317</v>
       </c>
       <c r="D352" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E352">
         <v>1.359544955380558</v>
@@ -19449,7 +19446,7 @@
         <v>1.137455121112266</v>
       </c>
       <c r="D353" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E353">
         <v>1.359544955380558</v>
@@ -19499,7 +19496,7 @@
         <v>1.094341564253561</v>
       </c>
       <c r="D354" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E354">
         <v>1.359544955380558</v>
@@ -19749,7 +19746,7 @@
         <v>1.184551441658606</v>
       </c>
       <c r="D359" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E359">
         <v>1.405438550330987</v>
@@ -19799,7 +19796,7 @@
         <v>1.179048508458293</v>
       </c>
       <c r="D360" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E360">
         <v>1.405438550330987</v>
@@ -19849,7 +19846,7 @@
         <v>1.138752328995576</v>
       </c>
       <c r="D361" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E361">
         <v>1.405438550330987</v>
@@ -20149,7 +20146,7 @@
         <v>1.208450935989571</v>
       </c>
       <c r="D367" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E367">
         <v>1.43166866910912</v>
@@ -20199,7 +20196,7 @@
         <v>1.202820877819413</v>
       </c>
       <c r="D368" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E368">
         <v>1.43166866910912</v>
@@ -20249,7 +20246,7 @@
         <v>1.164134947974739</v>
       </c>
       <c r="D369" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E369">
         <v>1.43166866910912</v>
@@ -20299,7 +20296,7 @@
         <v>1.607271750371773</v>
       </c>
       <c r="D370" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E370">
         <v>1.654778494598649</v>
@@ -20349,7 +20346,7 @@
         <v>1.59290180854193</v>
       </c>
       <c r="D371" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E371">
         <v>1.654778494598649</v>
@@ -20399,7 +20396,7 @@
         <v>1.602847854726919</v>
       </c>
       <c r="D372" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E372">
         <v>1.654778494598649</v>
@@ -20449,7 +20446,7 @@
         <v>1.709711052329885</v>
       </c>
       <c r="D373" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E373">
         <v>1.654778494598649</v>
@@ -20499,7 +20496,7 @@
         <v>1.255887381215909</v>
       </c>
       <c r="D374" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E374">
         <v>1.479187680878161</v>
@@ -20549,7 +20546,7 @@
         <v>1.251747741543268</v>
       </c>
       <c r="D375" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E375">
         <v>1.479187680878161</v>
@@ -20599,7 +20596,7 @@
         <v>1.245887381215909</v>
       </c>
       <c r="D376" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E376">
         <v>1.479187680878161</v>
@@ -20649,7 +20646,7 @@
         <v>1.210118612029109</v>
       </c>
       <c r="D377" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E377">
         <v>1.479187680878161</v>
@@ -20699,7 +20696,7 @@
         <v>1.653792786126277</v>
       </c>
       <c r="D378" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E378">
         <v>1.675746239568729</v>
@@ -20749,7 +20746,7 @@
         <v>1.639653146453635</v>
       </c>
       <c r="D379" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E379">
         <v>1.675746239568729</v>
@@ -20799,7 +20796,7 @@
         <v>1.676211705144204</v>
       </c>
       <c r="D380" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E380">
         <v>1.675746239568729</v>
@@ -20849,7 +20846,7 @@
         <v>1.647142636295151</v>
       </c>
       <c r="D381" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E381">
         <v>1.675746239568729</v>
@@ -20899,7 +20896,7 @@
         <v>1.753468462197983</v>
       </c>
       <c r="D382" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E382">
         <v>1.675746239568729</v>
@@ -20949,7 +20946,7 @@
         <v>1.280568627878574</v>
       </c>
       <c r="D383" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E383">
         <v>1.506420642882063</v>
@@ -20999,7 +20996,7 @@
         <v>1.276560973482204</v>
       </c>
       <c r="D384" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E384">
         <v>1.506420642882063</v>
@@ -21049,7 +21046,7 @@
         <v>1.270568627878574</v>
       </c>
       <c r="D385" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E385">
         <v>1.506420642882063</v>
@@ -21099,7 +21096,7 @@
         <v>1.236471672191206</v>
       </c>
       <c r="D386" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E386">
         <v>1.506420642882063</v>
@@ -21399,7 +21396,7 @@
         <v>1.291319393306684</v>
       </c>
       <c r="D392" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E392">
         <v>1.518282895644987</v>
@@ -21449,7 +21446,7 @@
         <v>1.287369229634528</v>
       </c>
       <c r="D393" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E393">
         <v>1.518282895644987</v>
@@ -21499,7 +21496,7 @@
         <v>1.281319393306684</v>
       </c>
       <c r="D394" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E394">
         <v>1.518282895644987</v>
@@ -21549,7 +21546,7 @@
         <v>1.247950653459365</v>
       </c>
       <c r="D395" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E395">
         <v>1.518282895644987</v>
@@ -21599,7 +21596,7 @@
         <v>1.692066938224333</v>
       </c>
       <c r="D396" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E396">
         <v>1.787784532366555</v>
@@ -21649,7 +21646,7 @@
         <v>1.713917429240804</v>
       </c>
       <c r="D397" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E397">
         <v>1.787784532366555</v>
@@ -21699,7 +21696,7 @@
         <v>1.683585187055182</v>
       </c>
       <c r="D398" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E398">
         <v>1.787784532366555</v>
@@ -21749,7 +21746,7 @@
         <v>1.789468902290213</v>
       </c>
       <c r="D399" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E399">
         <v>1.787784532366555</v>
@@ -21799,7 +21796,7 @@
         <v>1.315907870194452</v>
       </c>
       <c r="D400" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E400">
         <v>1.545413496702969</v>
@@ -21849,7 +21846,7 @@
         <v>1.312089195703514</v>
       </c>
       <c r="D401" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E401">
         <v>1.545413496702969</v>
@@ -21899,7 +21896,7 @@
         <v>1.305907870194452</v>
       </c>
       <c r="D402" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E402">
         <v>1.545413496702969</v>
@@ -21949,7 +21946,7 @@
         <v>1.274204659975895</v>
       </c>
       <c r="D403" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E403">
         <v>1.545413496702969</v>
@@ -21999,7 +21996,7 @@
         <v>1.718627752830372</v>
       </c>
       <c r="D404" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E404">
         <v>1.809781567121418</v>
@@ -22049,7 +22046,7 @@
         <v>1.740083776303188</v>
       </c>
       <c r="D405" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E405">
         <v>1.809781567121418</v>
@@ -22099,7 +22096,7 @@
         <v>1.814451846721636</v>
       </c>
       <c r="D406" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E406">
         <v>1.809781567121418</v>
@@ -22149,7 +22146,7 @@
         <v>1.35168436621829</v>
       </c>
       <c r="D407" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E407">
         <v>1.584888810497543</v>
@@ -22199,7 +22196,7 @@
         <v>1.348057009887907</v>
       </c>
       <c r="D408" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E408">
         <v>1.584888810497543</v>
@@ -22249,7 +22246,7 @@
         <v>1.34168436621829</v>
       </c>
       <c r="D409" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E409">
         <v>1.584888810497543</v>
@@ -22299,7 +22296,7 @@
         <v>1.312404519366766</v>
       </c>
       <c r="D410" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E410">
         <v>1.584888810497543</v>
@@ -22349,7 +22346,7 @@
         <v>1.757274021262539</v>
       </c>
       <c r="D411" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E411">
         <v>1.821783446584072</v>
@@ -22399,7 +22396,7 @@
         <v>1.77815609025369</v>
       </c>
       <c r="D412" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E412">
         <v>1.821783446584072</v>
@@ -22449,7 +22446,7 @@
         <v>1.85080229722714</v>
       </c>
       <c r="D413" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E413">
         <v>1.821783446584072</v>
@@ -22499,7 +22496,7 @@
         <v>1.420621085395937</v>
       </c>
       <c r="D414" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E414">
         <v>1.660952677112452</v>
@@ -22549,7 +22546,7 @@
         <v>1.417362374622654</v>
       </c>
       <c r="D415" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E415">
         <v>1.660952677112452</v>
@@ -22599,7 +22596,7 @@
         <v>1.410621085395937</v>
       </c>
       <c r="D416" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E416">
         <v>1.660952677112452</v>
@@ -22649,7 +22646,7 @@
         <v>1.386010748934345</v>
       </c>
       <c r="D417" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E417">
         <v>1.660952677112452</v>
@@ -22699,7 +22696,7 @@
         <v>1.929717195067925</v>
       </c>
       <c r="D418" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E418">
         <v>1.895223002250114</v>
@@ -22749,7 +22746,7 @@
         <v>1.851516556116533</v>
       </c>
       <c r="D419" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E419">
         <v>1.895223002250114</v>
@@ -22799,7 +22796,7 @@
         <v>1.920844953076086</v>
       </c>
       <c r="D420" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E420">
         <v>1.895223002250114</v>
@@ -22849,7 +22846,7 @@
         <v>1.515514817968792</v>
       </c>
       <c r="D421" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E421">
         <v>1.765657169915654</v>
@@ -22899,7 +22896,7 @@
         <v>1.512763560310871</v>
       </c>
       <c r="D422" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E422">
         <v>1.765657169915654</v>
@@ -22949,7 +22946,7 @@
         <v>1.505514817968792</v>
       </c>
       <c r="D423" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E423">
         <v>1.765657169915654</v>
@@ -22999,7 +22996,7 @@
         <v>1.487332220968461</v>
       </c>
       <c r="D424" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E424">
         <v>1.765657169915654</v>
@@ -23049,7 +23046,7 @@
         <v>2.033575932678857</v>
       </c>
       <c r="D425" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E425">
         <v>2.006662200547338</v>
@@ -23099,7 +23096,7 @@
         <v>1.952499726073742</v>
       </c>
       <c r="D426" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E426">
         <v>2.006662200547338</v>
@@ -23149,7 +23146,7 @@
         <v>2.017261044995029</v>
       </c>
       <c r="D427" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E427">
         <v>2.006662200547338</v>
@@ -23199,7 +23196,7 @@
         <v>1.659769367802348</v>
       </c>
       <c r="D428" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E428">
         <v>1.924825737379062</v>
@@ -23249,7 +23246,7 @@
         <v>1.65778952484942</v>
       </c>
       <c r="D429" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E429">
         <v>1.924825737379062</v>
@@ -23299,7 +23296,7 @@
         <v>1.649769367802349</v>
       </c>
       <c r="D430" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E430">
         <v>1.924825737379062</v>
@@ -23349,7 +23346,7 @@
         <v>1.64135802373192</v>
       </c>
       <c r="D431" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E431">
         <v>1.924825737379062</v>
@@ -23399,7 +23396,7 @@
         <v>2.191458808967277</v>
       </c>
       <c r="D432" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E432">
         <v>2.110664481002491</v>
@@ -23449,7 +23446,7 @@
         <v>2.106011252367206</v>
       </c>
       <c r="D433" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E433">
         <v>2.110664481002491</v>
@@ -23499,7 +23496,7 @@
         <v>2.163829838943562</v>
       </c>
       <c r="D434" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E434">
         <v>2.110664481002491</v>
@@ -23549,7 +23546,7 @@
         <v>2.119970938273062</v>
       </c>
       <c r="D435" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E435">
         <v>2.110664481002491</v>
@@ -23599,7 +23596,7 @@
         <v>1.810285876772395</v>
       </c>
       <c r="D436" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E436">
         <v>2.090903667953855</v>
@@ -23649,7 +23646,7 @@
         <v>1.809110934936954</v>
       </c>
       <c r="D437" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E437">
         <v>2.090903667953855</v>
@@ -23699,7 +23696,7 @@
         <v>1.800285876772395</v>
       </c>
       <c r="D438" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E438">
         <v>2.090903667953855</v>
@@ -23749,7 +23746,7 @@
         <v>1.8020699468568</v>
       </c>
       <c r="D439" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E439">
         <v>2.090903667953855</v>
@@ -23799,7 +23796,7 @@
         <v>2.356195237679592</v>
       </c>
       <c r="D440" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E440">
         <v>2.212069946856801</v>
@@ -23849,7 +23846,7 @@
         <v>2.266186574747096</v>
       </c>
       <c r="D441" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E441">
         <v>2.212069946856801</v>
@@ -23899,7 +23896,7 @@
         <v>2.31676105126607</v>
       </c>
       <c r="D442" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E442">
         <v>2.212069946856801</v>
@@ -23949,7 +23946,7 @@
         <v>2.278536458417978</v>
       </c>
       <c r="D443" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E443">
         <v>2.212069946856801</v>
@@ -23999,7 +23996,7 @@
         <v>2.062986387766934</v>
       </c>
       <c r="D444" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E444">
         <v>2.369730078480806</v>
@@ -24049,7 +24046,7 @@
         <v>2.06316278556248</v>
       </c>
       <c r="D445" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E445">
         <v>2.369730078480806</v>
@@ -24099,7 +24096,7 @@
         <v>2.071887426510505</v>
       </c>
       <c r="D446" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E446">
         <v>2.369730078480806</v>
@@ -24149,7 +24146,7 @@
         <v>2.632769415488232</v>
       </c>
       <c r="D447" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E447">
         <v>2.50778970272981</v>
@@ -24199,7 +24196,7 @@
         <v>2.573515581153569</v>
       </c>
       <c r="D448" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E448">
         <v>2.50778970272981</v>
@@ -24249,7 +24246,7 @@
         <v>2.544750365722385</v>
       </c>
       <c r="D449" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E449">
         <v>2.50778970272981</v>
@@ -24299,7 +24296,7 @@
         <v>2.553999441272534</v>
       </c>
       <c r="D450" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E450">
         <v>2.813202993319117</v>
@@ -24349,7 +24346,7 @@
         <v>2.547533939997146</v>
       </c>
       <c r="D451" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E451">
         <v>2.813202993319117</v>
@@ -24399,7 +24396,7 @@
         <v>3.13326483080243</v>
       </c>
       <c r="D452" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E452">
         <v>2.87387576630591</v>
@@ -24449,7 +24446,7 @@
         <v>3.038144875500626</v>
       </c>
       <c r="D453" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E453">
         <v>2.87387576630591</v>
@@ -24499,7 +24496,7 @@
         <v>3.035948483419955</v>
       </c>
       <c r="D454" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E454">
         <v>2.87387576630591</v>
@@ -24549,7 +24546,7 @@
         <v>3.591660905082458</v>
       </c>
       <c r="D455" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E455">
         <v>3.945252973872349</v>
@@ -24699,7 +24696,7 @@
         <v>2.86820460595768</v>
       </c>
       <c r="D458" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E458">
         <v>3.138678397668333</v>
@@ -24749,7 +24746,7 @@
         <v>2.851519426722356</v>
       </c>
       <c r="D459" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E459">
         <v>3.138678397668333</v>
@@ -24799,7 +24796,7 @@
         <v>2.868149068251708</v>
       </c>
       <c r="D460" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E460">
         <v>3.138678397668333</v>
@@ -24849,7 +24846,7 @@
         <v>3.448970831229631</v>
       </c>
       <c r="D461" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E461">
         <v>3.183720050947811</v>
@@ -24899,7 +24896,7 @@
         <v>3.377034871712487</v>
       </c>
       <c r="D462" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E462">
         <v>3.183720050947811</v>
@@ -24949,7 +24946,7 @@
         <v>2.358110206260426</v>
       </c>
       <c r="D463" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E463">
         <v>2.638276257123781</v>
@@ -24999,7 +24996,7 @@
         <v>2.331756830399265</v>
       </c>
       <c r="D464" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E464">
         <v>2.638276257123781</v>
@@ -25049,7 +25046,7 @@
         <v>2.899146400442653</v>
       </c>
       <c r="D465" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E465">
         <v>2.658455604321169</v>
@@ -25099,7 +25096,7 @@
         <v>2.820803661648716</v>
       </c>
       <c r="D466" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E466">
         <v>2.658455604321169</v>
@@ -25149,7 +25146,7 @@
         <v>2.837060715744168</v>
       </c>
       <c r="D467" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E467">
         <v>2.658455604321169</v>
@@ -25199,7 +25196,7 @@
         <v>2.825582801735491</v>
       </c>
       <c r="D468" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E468">
         <v>2.658455604321169</v>
@@ -25249,7 +25246,7 @@
         <v>2.136909691166413</v>
       </c>
       <c r="D469" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E469">
         <v>2.404885634240017</v>
@@ -25299,7 +25296,7 @@
         <v>2.105907100015784</v>
       </c>
       <c r="D470" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E470">
         <v>2.404885634240017</v>
@@ -25349,7 +25346,7 @@
         <v>2.667641000683959</v>
       </c>
       <c r="D471" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E471">
         <v>2.457950031567318</v>
@@ -25399,7 +25396,7 @@
         <v>2.605888225390645</v>
       </c>
       <c r="D472" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E472">
         <v>2.457950031567318</v>
@@ -25449,7 +25446,7 @@
         <v>2.60970280686063</v>
       </c>
       <c r="D473" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E473">
         <v>2.457950031567318</v>
@@ -25499,7 +25496,7 @@
         <v>2.599356026726996</v>
       </c>
       <c r="D474" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E474">
         <v>2.457950031567318</v>
@@ -25549,7 +25546,7 @@
         <v>1.900611258233865</v>
       </c>
       <c r="D475" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E475">
         <v>2.138942488812295</v>
@@ -25599,7 +25596,7 @@
         <v>1.901190054137531</v>
       </c>
       <c r="D476" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E476">
         <v>2.138942488812295</v>
@@ -25649,7 +25646,7 @@
         <v>1.897421572498996</v>
       </c>
       <c r="D477" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E477">
         <v>2.138942488812295</v>
@@ -25699,7 +25696,7 @@
         <v>2.403846022828351</v>
       </c>
       <c r="D478" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E478">
         <v>2.266842776595331</v>
@@ -25749,7 +25746,7 @@
         <v>2.360997122169641</v>
       </c>
       <c r="D479" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E479">
         <v>2.266842776595331</v>
@@ -25799,7 +25796,7 @@
         <v>2.350633797663673</v>
       </c>
       <c r="D480" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E480">
         <v>2.266842776595331</v>
@@ -25849,7 +25846,7 @@
         <v>2.341575918073307</v>
       </c>
       <c r="D481" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E481">
         <v>2.266842776595331</v>
@@ -25899,7 +25896,7 @@
         <v>0.06833146887762798</v>
       </c>
       <c r="D482" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E482">
         <v>0.2515379924458756</v>
@@ -25949,7 +25946,7 @@
         <v>0.09559505684016401</v>
       </c>
       <c r="D483" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E483">
         <v>0.2515379924458756</v>
@@ -25999,7 +25996,7 @@
         <v>0.02229342594810202</v>
       </c>
       <c r="D484" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E484">
         <v>0.2515379924458756</v>
@@ -26049,7 +26046,7 @@
         <v>0.07493473066175138</v>
       </c>
       <c r="D485" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E485">
         <v>0.2515379924458756</v>
@@ -26099,7 +26096,7 @@
         <v>0.09682060187317454</v>
       </c>
       <c r="D486" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E486">
         <v>0.2921032113004749</v>
@@ -26149,7 +26146,7 @@
         <v>0.4058749537233215</v>
       </c>
       <c r="D487" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E487">
         <v>0.4152146275449082</v>
@@ -26199,7 +26196,7 @@
         <v>0.4038939751880841</v>
       </c>
       <c r="D488" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E488">
         <v>0.4152146275449082</v>
@@ -26249,7 +26246,7 @@
         <v>0.01461566789420843</v>
       </c>
       <c r="D489" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E489">
         <v>0.1862219618346161</v>
@@ -26299,7 +26296,7 @@
         <v>-0.05940006695681266</v>
       </c>
       <c r="D490" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E490">
         <v>0.1862219618346161</v>
@@ -26349,7 +26346,7 @@
         <v>-0.006187479075995483</v>
       </c>
       <c r="D491" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E491">
         <v>0.1862219618346161</v>
@@ -26399,7 +26396,7 @@
         <v>0.01826916638767973</v>
       </c>
       <c r="D492" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E492">
         <v>0.2146943421493139</v>
@@ -26449,7 +26446,7 @@
         <v>0.3336076330766655</v>
       </c>
       <c r="D493" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E493">
         <v>0.3744107800468699</v>
@@ -26499,7 +26496,7 @@
         <v>0.3311981921660534</v>
       </c>
       <c r="D494" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E494">
         <v>0.3744107800468699</v>
@@ -26549,7 +26546,7 @@
         <v>-0.03183657790337602</v>
       </c>
       <c r="D495" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E495">
         <v>0.1263451749282281</v>
@@ -26585,7 +26582,7 @@
         <v>1</v>
       </c>
       <c r="P495" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -26599,7 +26596,7 @@
         <v>-0.04547307224016794</v>
       </c>
       <c r="D496" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E496">
         <v>0.1263451749282281</v>
@@ -26635,7 +26632,7 @@
         <v>1</v>
       </c>
       <c r="P496" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -26649,7 +26646,7 @@
         <v>-0.06638219582436466</v>
       </c>
       <c r="D497" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E497">
         <v>0.1263451749282281</v>
@@ -26685,7 +26682,7 @@
         <v>1</v>
       </c>
       <c r="P497" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -26699,7 +26696,7 @@
         <v>-0.04001797130880469</v>
       </c>
       <c r="D498" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E498">
         <v>0.1572550173647782</v>
@@ -26735,7 +26732,7 @@
         <v>1</v>
       </c>
       <c r="P498" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -26749,7 +26746,7 @@
         <v>0.2799834663959002</v>
       </c>
       <c r="D499" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E499">
         <v>0.2990743428117018</v>
@@ -26785,7 +26782,7 @@
         <v>1</v>
       </c>
       <c r="P499" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -26799,7 +26796,7 @@
         <v>0.2927108371484932</v>
       </c>
       <c r="D500" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E500">
         <v>0.2990743428117018</v>
@@ -26835,7 +26832,7 @@
         <v>1</v>
       </c>
       <c r="P500" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -26849,7 +26846,7 @@
         <v>2.328573731313484</v>
       </c>
       <c r="D501" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E501">
         <v>2.38850098797026</v>
@@ -26899,7 +26896,7 @@
         <v>2.311727797453313</v>
       </c>
       <c r="D502" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E502">
         <v>2.38850098797026</v>
@@ -26949,7 +26946,7 @@
         <v>2.277498128152465</v>
       </c>
       <c r="D503" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E503">
         <v>2.38850098797026</v>
@@ -26999,7 +26996,7 @@
         <v>2.434271318669412</v>
       </c>
       <c r="D504" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E504">
         <v>2.368966046207545</v>
@@ -27049,7 +27046,7 @@
         <v>2.32366077374568</v>
       </c>
       <c r="D505" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E505">
         <v>2.390041649368564</v>
@@ -27099,7 +27096,7 @@
         <v>2.442730657271108</v>
       </c>
       <c r="D506" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E506">
         <v>2.371117252529581</v>
@@ -27149,7 +27146,7 @@
         <v>2.477425384809242</v>
       </c>
       <c r="D507" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E507">
         <v>2.518428244627036</v>
@@ -27199,7 +27196,7 @@
         <v>2.431582310766867</v>
       </c>
       <c r="D508" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E508">
         <v>2.369968906025341</v>
@@ -27499,7 +27496,7 @@
         <v>2.273423820568129</v>
       </c>
       <c r="D514" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E514">
         <v>2.348847751625323</v>
@@ -27549,7 +27546,7 @@
         <v>2.238819356972905</v>
       </c>
       <c r="D515" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E515">
         <v>2.348847751625323</v>
@@ -27599,7 +27596,7 @@
         <v>2.3942432880301</v>
       </c>
       <c r="D516" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E516">
         <v>2.328113468120607</v>
@@ -27649,7 +27646,7 @@
         <v>2.281983648211115</v>
       </c>
       <c r="D517" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E517">
         <v>2.349638824434876</v>
@@ -27699,7 +27696,7 @@
         <v>2.403452215220548</v>
       </c>
       <c r="D518" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E518">
         <v>2.331164180749144</v>
@@ -27749,7 +27746,7 @@
         <v>2.437322395311055</v>
       </c>
       <c r="D519" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E519">
         <v>2.477350789963473</v>
@@ -27799,7 +27796,7 @@
         <v>2.390429897244429</v>
       </c>
       <c r="D520" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E520">
         <v>2.328141862773026</v>
@@ -28099,7 +28096,7 @@
         <v>2.216097983185153</v>
       </c>
       <c r="D526" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E526">
         <v>2.278296441308225</v>
@@ -28149,7 +28146,7 @@
         <v>2.180932601415928</v>
       </c>
       <c r="D527" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E527">
         <v>2.289502608815942</v>
@@ -28199,7 +28196,7 @@
         <v>2.334337227046717</v>
       </c>
       <c r="D528" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E528">
         <v>2.26697338715442</v>
@@ -28249,7 +28246,7 @@
         <v>2.219609547262124</v>
       </c>
       <c r="D529" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E529">
         <v>2.289171845277491</v>
@@ -28299,7 +28296,7 @@
         <v>2.344667990585168</v>
       </c>
       <c r="D530" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E530">
         <v>2.271370303400561</v>
@@ -28349,7 +28346,7 @@
         <v>2.377304150692871</v>
       </c>
       <c r="D531" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E531">
         <v>2.415874158092884</v>
@@ -28399,7 +28396,7 @@
         <v>2.32884108173904</v>
       </c>
       <c r="D532" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E532">
         <v>2.265543394554435</v>
@@ -28699,7 +28696,7 @@
         <v>2.129304507872965</v>
       </c>
       <c r="D538" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E538">
         <v>2.23657380748992</v>
@@ -28749,7 +28746,7 @@
         <v>2.280908153496441</v>
       </c>
       <c r="D539" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E539">
         <v>2.212443714710786</v>
@@ -28799,7 +28796,7 @@
         <v>2.163979275925133</v>
       </c>
       <c r="D540" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E540">
         <v>2.235242499502962</v>
@@ -28849,7 +28846,7 @@
         <v>2.292239461483399</v>
       </c>
       <c r="D541" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E541">
         <v>2.218041284295136</v>
@@ -28899,7 +28896,7 @@
         <v>2.323775022697745</v>
       </c>
       <c r="D542" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E542">
         <v>2.361044322314699</v>
@@ -28949,7 +28946,7 @@
         <v>2.273911191516004</v>
       </c>
       <c r="D543" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E543">
         <v>2.209713014327742</v>
@@ -29299,7 +29296,7 @@
         <v>2.045412902019458</v>
       </c>
       <c r="D550" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E550">
         <v>2.135412902019459</v>
@@ -29349,7 +29346,7 @@
         <v>2.194090096275951</v>
       </c>
       <c r="D551" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E551">
         <v>2.123837270543807</v>
@@ -29399,7 +29396,7 @@
         <v>2.073584444811665</v>
       </c>
       <c r="D552" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E552">
         <v>2.147611539124977</v>
@@ -29449,7 +29446,7 @@
         <v>2.2070472105779</v>
       </c>
       <c r="D553" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E553">
         <v>2.131385807706146</v>
@@ -29499,7 +29496,7 @@
         <v>2.236794384845756</v>
       </c>
       <c r="D554" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E554">
         <v>2.271950136253223</v>
@@ -29549,7 +29546,7 @@
         <v>2.184654424823028</v>
       </c>
       <c r="D555" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E555">
         <v>2.118993021951275</v>
@@ -29899,7 +29896,7 @@
         <v>2.129009034907942</v>
       </c>
       <c r="D562" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E562">
         <v>2.057415588061476</v>
@@ -29949,7 +29946,7 @@
         <v>2.005822141215011</v>
       </c>
       <c r="D563" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E563">
         <v>2.081921104523186</v>
@@ -29999,7 +29996,7 @@
         <v>2.143184895677456</v>
       </c>
       <c r="D564" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E564">
         <v>2.205162829830622</v>
@@ -30049,7 +30046,7 @@
         <v>2.171591448830991</v>
       </c>
       <c r="D565" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E565">
         <v>2.205162829830622</v>
@@ -30099,7 +30096,7 @@
         <v>2.117745243753671</v>
       </c>
       <c r="D566" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E566">
         <v>2.050986969061109</v>
@@ -30399,7 +30396,7 @@
         <v>2.096029330113085</v>
       </c>
       <c r="D572" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E572">
         <v>2.023756526051743</v>
@@ -30435,7 +30432,7 @@
         <v>1</v>
       </c>
       <c r="P572" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -30449,7 +30446,7 @@
         <v>1.971483721990404</v>
       </c>
       <c r="D573" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E573">
         <v>2.048632600994294</v>
@@ -30485,7 +30482,7 @@
         <v>1</v>
       </c>
       <c r="P573" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -30499,7 +30496,7 @@
         <v>1.973756526051743</v>
       </c>
       <c r="D574" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E574">
         <v>2.048632600994294</v>
@@ -30535,7 +30532,7 @@
         <v>1</v>
       </c>
       <c r="P574" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -30549,7 +30546,7 @@
         <v>2.110822788350668</v>
       </c>
       <c r="D575" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E575">
         <v>2.171318488580469</v>
@@ -30585,7 +30582,7 @@
         <v>1</v>
       </c>
       <c r="P575" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="576" spans="1:16">
@@ -30599,7 +30596,7 @@
         <v>2.138549984289327</v>
       </c>
       <c r="D576" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E576">
         <v>2.171318488580469</v>
@@ -30635,7 +30632,7 @@
         <v>1</v>
       </c>
       <c r="P576" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -30649,7 +30646,7 @@
         <v>2.083839142756712</v>
       </c>
       <c r="D577" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E577">
         <v>2.016525030342887</v>
@@ -30685,7 +30682,7 @@
         <v>1</v>
       </c>
       <c r="P577" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -30735,7 +30732,7 @@
         <v>1</v>
       </c>
       <c r="P578" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -30785,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="P579" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="580" spans="1:16">
@@ -30835,7 +30832,7 @@
         <v>1</v>
       </c>
       <c r="P580" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="581" spans="1:16">
@@ -30849,7 +30846,7 @@
         <v>1.949210917929062</v>
       </c>
       <c r="D581" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E581">
         <v>1.907020730572688</v>
@@ -30885,7 +30882,7 @@
         <v>1</v>
       </c>
       <c r="P581" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -30899,7 +30896,7 @@
         <v>1.92954138474893</v>
       </c>
       <c r="D582" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E582">
         <v>1.907020730572688</v>
@@ -30935,7 +30932,7 @@
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -30949,7 +30946,7 @@
         <v>2.096163622975572</v>
       </c>
       <c r="D583" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E583">
         <v>2.023893585246604</v>
@@ -30985,7 +30982,7 @@
         <v>1</v>
       </c>
       <c r="P583" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="584" spans="1:16">
@@ -30999,7 +30996,7 @@
         <v>2.110954566365543</v>
       </c>
       <c r="D584" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E584">
         <v>2.171456302229613</v>
@@ -31035,7 +31032,7 @@
         <v>1</v>
       </c>
       <c r="P584" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -31049,7 +31046,7 @@
         <v>2.138684528636575</v>
       </c>
       <c r="D585" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E585">
         <v>2.171456302229613</v>
@@ -31085,7 +31082,7 @@
         <v>1</v>
       </c>
       <c r="P585" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="586" spans="1:16">
@@ -31135,7 +31132,7 @@
         <v>1</v>
       </c>
       <c r="P586" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="587" spans="1:16">
@@ -31185,7 +31182,7 @@
         <v>1</v>
       </c>
       <c r="P587" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="588" spans="1:16">
@@ -31235,7 +31232,7 @@
         <v>1</v>
       </c>
       <c r="P588" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="589" spans="1:16">
@@ -31285,7 +31282,7 @@
         <v>1</v>
       </c>
       <c r="P589" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="590" spans="1:16">
@@ -31335,7 +31332,7 @@
         <v>1</v>
       </c>
       <c r="P590" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="591" spans="1:16">
@@ -31349,7 +31346,7 @@
         <v>2.110759270205002</v>
       </c>
       <c r="D591" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E591">
         <v>2.038789891875891</v>
@@ -31385,7 +31382,7 @@
         <v>1</v>
       </c>
       <c r="P591" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="592" spans="1:16">
@@ -31399,7 +31396,7 @@
         <v>2.12527688686783</v>
       </c>
       <c r="D592" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E592">
         <v>2.013886368543326</v>
@@ -31435,7 +31432,7 @@
         <v>1</v>
       </c>
       <c r="P592" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="593" spans="1:16">
@@ -31449,7 +31446,7 @@
         <v>2.153307508538719</v>
       </c>
       <c r="D593" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E593">
         <v>2.013886368543326</v>
@@ -31485,7 +31482,7 @@
         <v>1</v>
       </c>
       <c r="P593" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="594" spans="1:16">
@@ -31535,7 +31532,7 @@
         <v>1</v>
       </c>
       <c r="P594" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="595" spans="1:16">
@@ -31585,7 +31582,7 @@
         <v>1</v>
       </c>
       <c r="P595" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="596" spans="1:16">
@@ -31635,7 +31632,7 @@
         <v>1</v>
       </c>
       <c r="P596" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="597" spans="1:16">
@@ -31685,7 +31682,7 @@
         <v>1</v>
       </c>
       <c r="P597" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="598" spans="1:16">
@@ -31735,7 +31732,7 @@
         <v>1</v>
       </c>
       <c r="P598" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="599" spans="1:16">
@@ -31799,7 +31796,7 @@
         <v>2.156860011399363</v>
       </c>
       <c r="D600" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E600">
         <v>2.046855775258495</v>
@@ -31849,7 +31846,7 @@
         <v>2.185553637592861</v>
       </c>
       <c r="D601" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E601">
         <v>2.046855775258495</v>
@@ -31899,7 +31896,7 @@
         <v>2.132072798202768</v>
       </c>
       <c r="D602" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E602">
         <v>2.065549401451994</v>
@@ -32249,7 +32246,7 @@
         <v>2.170392584088286</v>
       </c>
       <c r="D609" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E609">
         <v>2.060982334916589</v>
@@ -32299,7 +32296,7 @@
         <v>2.19937029100617</v>
       </c>
       <c r="D610" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E610">
         <v>2.060982334916589</v>
@@ -32349,7 +32346,7 @@
         <v>2.146251008901658</v>
       </c>
       <c r="D611" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E611">
         <v>2.079960041834473</v>
@@ -32685,7 +32682,7 @@
         <v>1</v>
       </c>
       <c r="P617" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="618" spans="1:16">
@@ -32699,7 +32696,7 @@
         <v>2.199468285459675</v>
       </c>
       <c r="D618" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E618">
         <v>2.091334259821454</v>
@@ -32735,7 +32732,7 @@
         <v>1</v>
       </c>
       <c r="P618" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -32749,7 +32746,7 @@
         <v>2.229056360154438</v>
       </c>
       <c r="D619" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E619">
         <v>2.091334259821454</v>
@@ -32785,7 +32782,7 @@
         <v>1</v>
       </c>
       <c r="P619" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -32799,7 +32796,7 @@
         <v>2.176713909765957</v>
       </c>
       <c r="D620" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E620">
         <v>2.110922334516219</v>
@@ -32835,7 +32832,7 @@
         <v>1</v>
       </c>
       <c r="P620" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -32885,7 +32882,7 @@
         <v>1</v>
       </c>
       <c r="P621" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -32935,7 +32932,7 @@
         <v>1</v>
       </c>
       <c r="P622" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -32985,7 +32982,7 @@
         <v>1</v>
       </c>
       <c r="P623" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="624" spans="1:16">
@@ -33035,7 +33032,7 @@
         <v>1</v>
       </c>
       <c r="P624" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -33085,7 +33082,7 @@
         <v>1</v>
       </c>
       <c r="P625" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="626" spans="1:16">
@@ -33099,7 +33096,7 @@
         <v>2.220298065961964</v>
       </c>
       <c r="D626" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E626">
         <v>2.113078324582432</v>
@@ -33135,7 +33132,7 @@
         <v>1</v>
       </c>
       <c r="P626" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="627" spans="1:16">
@@ -33149,7 +33146,7 @@
         <v>2.250323407041319</v>
       </c>
       <c r="D627" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E627">
         <v>2.113078324582432</v>
@@ -33185,7 +33182,7 @@
         <v>1</v>
       </c>
       <c r="P627" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="628" spans="1:16">
@@ -33199,7 +33196,7 @@
         <v>2.198537477505952</v>
       </c>
       <c r="D628" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E628">
         <v>2.133103665661787</v>
@@ -33235,7 +33232,7 @@
         <v>1</v>
       </c>
       <c r="P628" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="629" spans="1:16">
@@ -33285,7 +33282,7 @@
         <v>1</v>
       </c>
       <c r="P629" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="630" spans="1:16">
@@ -33335,7 +33332,7 @@
         <v>1</v>
       </c>
       <c r="P630" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="631" spans="1:16">
@@ -33385,7 +33382,7 @@
         <v>1</v>
       </c>
       <c r="P631" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="632" spans="1:16">
@@ -33435,7 +33432,7 @@
         <v>1</v>
       </c>
       <c r="P632" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -33499,7 +33496,7 @@
         <v>2.238063065063528</v>
       </c>
       <c r="D634" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E634">
         <v>2.131623085094942</v>
@@ -33549,7 +33546,7 @@
         <v>2.268461335513335</v>
       </c>
       <c r="D635" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E635">
         <v>2.131623085094942</v>
@@ -33599,7 +33596,7 @@
         <v>2.217150043358544</v>
       </c>
       <c r="D636" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E636">
         <v>2.15202135554475</v>
@@ -33899,7 +33896,7 @@
         <v>2.240855764159465</v>
       </c>
       <c r="D642" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E642">
         <v>2.134538364494709</v>
@@ -33949,7 +33946,7 @@
         <v>2.271312659971973</v>
       </c>
       <c r="D643" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E643">
         <v>2.134538364494709</v>
@@ -33999,7 +33996,7 @@
         <v>2.220075981915165</v>
       </c>
       <c r="D644" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E644">
         <v>2.154995260307217</v>
@@ -34249,7 +34246,7 @@
         <v>2.244303552497403</v>
       </c>
       <c r="D649" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E649">
         <v>2.138137487053587</v>
@@ -34299,7 +34296,7 @@
         <v>2.274832825546012</v>
       </c>
       <c r="D650" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E650">
         <v>2.138137487053587</v>
@@ -34349,7 +34346,7 @@
         <v>2.223688263971516</v>
       </c>
       <c r="D651" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E651">
         <v>2.149196033150806</v>
@@ -34649,7 +34646,7 @@
         <v>2.233337795982168</v>
       </c>
       <c r="D657" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E657">
         <v>2.126690409164592</v>
@@ -34685,7 +34682,7 @@
         <v>1</v>
       </c>
       <c r="P657" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="658" spans="1:16">
@@ -34699,7 +34696,7 @@
         <v>2.263636871852023</v>
       </c>
       <c r="D658" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E658">
         <v>2.126690409164592</v>
@@ -34735,7 +34732,7 @@
         <v>1</v>
       </c>
       <c r="P658" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="659" spans="1:16">
@@ -34749,7 +34746,7 @@
         <v>2.21219933205002</v>
       </c>
       <c r="D659" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E659">
         <v>2.137288560904301</v>
@@ -34785,7 +34782,7 @@
         <v>1</v>
       </c>
       <c r="P659" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="660" spans="1:16">
@@ -34835,7 +34832,7 @@
         <v>1</v>
       </c>
       <c r="P660" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -34885,7 +34882,7 @@
         <v>1</v>
       </c>
       <c r="P661" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="662" spans="1:16">
@@ -34935,7 +34932,7 @@
         <v>1</v>
       </c>
       <c r="P662" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="663" spans="1:16">
@@ -34985,7 +34982,7 @@
         <v>1</v>
       </c>
       <c r="P663" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="664" spans="1:16">
@@ -35035,7 +35032,7 @@
         <v>1</v>
       </c>
       <c r="P664" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="665" spans="1:16">
@@ -35049,7 +35046,7 @@
         <v>2.221972886589618</v>
       </c>
       <c r="D665" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E665">
         <v>2.114826658329239</v>
@@ -35099,7 +35096,7 @@
         <v>2.252033386117262</v>
       </c>
       <c r="D666" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E666">
         <v>2.114826658329239</v>
@@ -35149,7 +35146,7 @@
         <v>2.200292203697901</v>
       </c>
       <c r="D667" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E667">
         <v>2.124947657384527</v>
@@ -35249,7 +35246,7 @@
         <v>2.06227538422784</v>
       </c>
       <c r="D669" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E669">
         <v>1.996930837914467</v>
@@ -35299,7 +35296,7 @@
         <v>2.053206474965166</v>
       </c>
       <c r="D670" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E670">
         <v>1.996930837914467</v>
@@ -35349,7 +35346,7 @@
         <v>2.020473702280834</v>
       </c>
       <c r="D671" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E671">
         <v>1.996930837914467</v>
@@ -35399,7 +35396,7 @@
         <v>2.029603111071154</v>
       </c>
       <c r="D672" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E672">
         <v>1.996930837914467</v>
@@ -35449,7 +35446,7 @@
         <v>2.207355417889053</v>
       </c>
       <c r="D673" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E673">
         <v>2.099567583178076</v>
@@ -35499,7 +35496,7 @@
         <v>2.237109062157716</v>
       </c>
       <c r="D674" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E674">
         <v>2.099567583178076</v>
@@ -35549,7 +35546,7 @@
         <v>2.184977336681469</v>
       </c>
       <c r="D675" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E675">
         <v>2.109074871715402</v>
@@ -35649,7 +35646,7 @@
         <v>2.036943146239156</v>
       </c>
       <c r="D677" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E677">
         <v>2.010221174266302</v>
@@ -35699,7 +35696,7 @@
         <v>2.004238269487459</v>
       </c>
       <c r="D678" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E678">
         <v>2.010221174266302</v>
@@ -35749,7 +35746,7 @@
         <v>2.013172406749336</v>
       </c>
       <c r="D679" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E679">
         <v>2.010221174266302</v>
@@ -35799,7 +35796,7 @@
         <v>2.197603098441371</v>
       </c>
       <c r="D680" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E680">
         <v>2.089387203907309</v>
@@ -35849,7 +35846,7 @@
         <v>2.22715201844682</v>
       </c>
       <c r="D681" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E681">
         <v>2.089387203907309</v>
@@ -35899,7 +35896,7 @@
         <v>2.174759734817391</v>
       </c>
       <c r="D682" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E682">
         <v>2.098485043918206</v>
@@ -35999,7 +35996,7 @@
         <v>2.184014672997228</v>
       </c>
       <c r="D684" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E684">
         <v>2.09430865482284</v>
@@ -36149,7 +36146,7 @@
         <v>2.195758520592005</v>
       </c>
       <c r="D687" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E687">
         <v>2.087461661763028</v>
@@ -36199,7 +36196,7 @@
         <v>2.225268718543363</v>
       </c>
       <c r="D688" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E688">
         <v>2.087461661763028</v>
@@ -36349,7 +36346,7 @@
         <v>2.182096171226417</v>
       </c>
       <c r="D691" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E691">
         <v>2.092337350250998</v>
@@ -36399,7 +36396,7 @@
         <v>1.991357746153715</v>
       </c>
       <c r="D692" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E692">
         <v>1.93891617990999</v>
@@ -36449,7 +36446,7 @@
         <v>2.000136963031852</v>
       </c>
       <c r="D693" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E693">
         <v>1.93891617990999</v>
@@ -36499,7 +36496,7 @@
         <v>2.189904250619724</v>
       </c>
       <c r="D694" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E694">
         <v>2.08135042955914</v>
@@ -36549,7 +36546,7 @@
         <v>2.219291553590749</v>
       </c>
       <c r="D695" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E695">
         <v>2.08135042955914</v>
@@ -36699,7 +36696,7 @@
         <v>2.176007283564408</v>
       </c>
       <c r="D698" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E698">
         <v>2.086080878524897</v>
@@ -36749,7 +36746,7 @@
         <v>1.984855484466945</v>
       </c>
       <c r="D699" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E699">
         <v>1.914929079427434</v>
@@ -36799,7 +36796,7 @@
         <v>1.993556495448507</v>
       </c>
       <c r="D700" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E700">
         <v>1.914929079427434</v>
@@ -36849,7 +36846,7 @@
         <v>2.193018564119005</v>
       </c>
       <c r="D701" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E701">
         <v>2.084601440024992</v>
@@ -36885,7 +36882,7 @@
         <v>1</v>
       </c>
       <c r="P701" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="702" spans="1:16">
@@ -36899,7 +36896,7 @@
         <v>2.222471243900129</v>
       </c>
       <c r="D702" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E702">
         <v>2.084601440024992</v>
@@ -36935,7 +36932,7 @@
         <v>1</v>
       </c>
       <c r="P702" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="703" spans="1:16">
@@ -36985,7 +36982,7 @@
         <v>1</v>
       </c>
       <c r="P703" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="704" spans="1:16">
@@ -37035,7 +37032,7 @@
         <v>1</v>
       </c>
       <c r="P704" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="705" spans="1:16">
@@ -37049,7 +37046,7 @@
         <v>2.179246407337514</v>
       </c>
       <c r="D705" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E705">
         <v>2.089409152493594</v>
@@ -37085,7 +37082,7 @@
         <v>1</v>
       </c>
       <c r="P705" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="706" spans="1:16">
@@ -37135,7 +37132,7 @@
         <v>1</v>
       </c>
       <c r="P706" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="707" spans="1:16">
@@ -37185,7 +37182,7 @@
         <v>1</v>
       </c>
       <c r="P707" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="708" spans="1:16">
@@ -37199,7 +37196,7 @@
         <v>2.19977860938273</v>
       </c>
       <c r="D708" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E708">
         <v>2.091658204832735</v>
@@ -37249,7 +37246,7 @@
         <v>2.229373198510994</v>
       </c>
       <c r="D709" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E709">
         <v>2.091658204832735</v>
@@ -37449,7 +37446,7 @@
         <v>1.995822806604482</v>
       </c>
       <c r="D713" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E713">
         <v>2.003132389411005</v>
@@ -37499,7 +37496,7 @@
         <v>2.004655726958832</v>
       </c>
       <c r="D714" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E714">
         <v>2.003132389411005</v>
@@ -37549,7 +37546,7 @@
         <v>2.193355078571245</v>
       </c>
       <c r="D715" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E715">
         <v>2.084952725149754</v>
@@ -37599,7 +37596,7 @@
         <v>2.222814822587054</v>
       </c>
       <c r="D716" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E716">
         <v>2.084952725149754</v>
@@ -39199,7 +39196,7 @@
         <v>2.337261384103764</v>
       </c>
       <c r="D748" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E748">
         <v>2.334684098776408</v>
@@ -40185,7 +40182,7 @@
         <v>1</v>
       </c>
       <c r="P767" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="768" spans="1:16">
@@ -40235,7 +40232,7 @@
         <v>1</v>
       </c>
       <c r="P768" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="769" spans="1:16">
@@ -40285,7 +40282,7 @@
         <v>1</v>
       </c>
       <c r="P769" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="770" spans="1:16">
@@ -40335,7 +40332,7 @@
         <v>1</v>
       </c>
       <c r="P770" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="771" spans="1:16">
@@ -40385,7 +40382,7 @@
         <v>1</v>
       </c>
       <c r="P771" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="772" spans="1:16">
@@ -40435,7 +40432,7 @@
         <v>1</v>
       </c>
       <c r="P772" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="773" spans="1:16">
@@ -40699,7 +40696,7 @@
         <v>2.194922646011972</v>
       </c>
       <c r="D778" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E778">
         <v>2.189382078142695</v>
@@ -40749,7 +40746,7 @@
         <v>2.206481859731435</v>
       </c>
       <c r="D779" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E779">
         <v>2.189382078142695</v>
@@ -40949,7 +40946,7 @@
         <v>2.131068921554799</v>
       </c>
       <c r="D783" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E783">
         <v>2.092957793173342</v>
@@ -40999,7 +40996,7 @@
         <v>2.132036227593599</v>
       </c>
       <c r="D784" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E784">
         <v>2.092957793173342</v>
@@ -41049,7 +41046,7 @@
         <v>2.146598315033257</v>
       </c>
       <c r="D785" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E785">
         <v>2.092957793173342</v>
@@ -41099,7 +41096,7 @@
         <v>2.102497010383471</v>
       </c>
       <c r="D786" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E786">
         <v>2.092957793173342</v>
@@ -41599,7 +41596,7 @@
         <v>2.073856432611444</v>
       </c>
       <c r="D796" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E796">
         <v>2.047486402626956</v>
@@ -41649,7 +41646,7 @@
         <v>2.077590491138006</v>
       </c>
       <c r="D797" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E797">
         <v>2.047486402626956</v>
@@ -41699,7 +41696,7 @@
         <v>2.08056732910815</v>
       </c>
       <c r="D798" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E798">
         <v>2.047486402626956</v>
@@ -41749,7 +41746,7 @@
         <v>2.048347711694423</v>
       </c>
       <c r="D799" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E799">
         <v>2.047486402626956</v>
@@ -41799,7 +41796,7 @@
         <v>2.04370029984487</v>
       </c>
       <c r="D800" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E800">
         <v>2.047486402626956</v>
@@ -41949,7 +41946,7 @@
         <v>2.024445400397088</v>
       </c>
       <c r="D803" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E803">
         <v>2.022683653209794</v>
@@ -41999,7 +41996,7 @@
         <v>2.030568938892565</v>
       </c>
       <c r="D804" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E804">
         <v>2.022683653209794</v>
@@ -42049,7 +42046,7 @@
         <v>2.034621883962056</v>
       </c>
       <c r="D805" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E805">
         <v>2.022683653209794</v>
@@ -42099,7 +42096,7 @@
         <v>2.001582175159937</v>
       </c>
       <c r="D806" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E806">
         <v>2.022683653209794</v>
@@ -42149,7 +42146,7 @@
         <v>1.997617471872931</v>
       </c>
       <c r="D807" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E807">
         <v>2.022683653209794</v>
@@ -43599,7 +43596,7 @@
         <v>1.759602623534774</v>
       </c>
       <c r="D836" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E836">
         <v>1.719390259748886</v>
@@ -43649,7 +43646,7 @@
         <v>1.825899932835016</v>
       </c>
       <c r="D837" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E837">
         <v>1.719390259748886</v>
@@ -43699,7 +43696,7 @@
         <v>1.830538284330232</v>
       </c>
       <c r="D838" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E838">
         <v>1.719390259748886</v>
@@ -43749,7 +43746,7 @@
         <v>1.836410866058698</v>
       </c>
       <c r="D839" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E839">
         <v>1.719390259748886</v>
@@ -43799,7 +43796,7 @@
         <v>1.829091690311091</v>
       </c>
       <c r="D840" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E840">
         <v>1.719390259748886</v>
@@ -43849,7 +43846,7 @@
         <v>1.827645096291951</v>
       </c>
       <c r="D841" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E841">
         <v>1.719390259748886</v>
@@ -43899,7 +43896,7 @@
         <v>1.815986138486923</v>
       </c>
       <c r="D842" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E842">
         <v>1.719390259748886</v>
@@ -43949,7 +43946,7 @@
         <v>2.078884835277132</v>
       </c>
       <c r="D843" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E843">
         <v>1.919229396577419</v>
@@ -44299,7 +44296,7 @@
         <v>2.058494156511253</v>
       </c>
       <c r="D850" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E850">
         <v>1.898167274316649</v>
@@ -44449,7 +44446,7 @@
         <v>2.05395617407601</v>
       </c>
       <c r="D853" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E853">
         <v>1.893479860917333</v>
@@ -44499,7 +44496,7 @@
         <v>1.719695780725853</v>
       </c>
       <c r="D854" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E854">
         <v>1.897089270892098</v>
@@ -44549,7 +44546,7 @@
         <v>1.731500485713235</v>
       </c>
       <c r="D855" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E855">
         <v>1.603580408564653</v>
@@ -44599,7 +44596,7 @@
         <v>2.009186193442025</v>
       </c>
       <c r="D856" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E856">
         <v>1.863835939658896</v>
@@ -44649,7 +44646,7 @@
         <v>2.007288122382748</v>
       </c>
       <c r="D857" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E857">
         <v>1.863835939658896</v>
@@ -44699,7 +44696,7 @@
         <v>1.708676548738404</v>
       </c>
       <c r="D858" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E858">
         <v>1.886090558889729</v>
@@ -44749,7 +44746,7 @@
         <v>1.721096853278158</v>
       </c>
       <c r="D859" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E859">
         <v>1.580396345711901</v>
@@ -44799,7 +44796,7 @@
         <v>1.963236498776014</v>
       </c>
       <c r="D860" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E860">
         <v>1.815877954142098</v>
@@ -44849,7 +44846,7 @@
         <v>1.960776106278517</v>
       </c>
       <c r="D861" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E861">
         <v>1.815877954142098</v>
@@ -44899,7 +44896,7 @@
         <v>1.665538461263496</v>
       </c>
       <c r="D862" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E862">
         <v>1.843032803048852</v>
@@ -44949,7 +44946,7 @@
         <v>1.680368714824194</v>
       </c>
       <c r="D863" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E863">
         <v>1.46569689127351</v>
@@ -44999,7 +44996,7 @@
         <v>1.897510677314785</v>
       </c>
       <c r="D864" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E864">
         <v>1.747279500623998</v>
@@ -45049,7 +45046,7 @@
         <v>1.894245947841364</v>
       </c>
       <c r="D865" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E865">
         <v>1.747279500623998</v>
@@ -45099,7 +45096,7 @@
         <v>1.603834324681888</v>
       </c>
       <c r="D866" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E866">
         <v>1.755351101073204</v>
@@ -45149,7 +45146,7 @@
         <v>1.536662065884782</v>
       </c>
       <c r="D867" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E867">
         <v>1.400775406788205</v>
@@ -45199,7 +45196,7 @@
         <v>1.895854864894484</v>
       </c>
       <c r="D868" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E868">
         <v>1.745551318779732</v>
@@ -45249,7 +45246,7 @@
         <v>1.892569871982353</v>
       </c>
       <c r="D869" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E869">
         <v>1.745551318779732</v>
@@ -45299,7 +45296,7 @@
         <v>1.602279829455136</v>
       </c>
       <c r="D870" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E870">
         <v>1.753770552853825</v>
@@ -45349,7 +45346,7 @@
         <v>1.535116254988906</v>
       </c>
       <c r="D871" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E871">
         <v>1.325406297516124</v>
@@ -45499,7 +45496,7 @@
         <v>1.521259989314879</v>
       </c>
       <c r="D874" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E874">
         <v>1.310460213193578</v>
@@ -45699,7 +45696,7 @@
         <v>1.513048711151803</v>
       </c>
       <c r="D878" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E878">
         <v>1.301603104163743</v>
@@ -45899,7 +45896,7 @@
         <v>1.507728180990036</v>
       </c>
       <c r="D882" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E882">
         <v>1.295864105337568</v>
@@ -46049,7 +46046,7 @@
         <v>1.483132200904999</v>
       </c>
       <c r="D885" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E885">
         <v>1.269333609964943</v>
@@ -46135,7 +46132,7 @@
         <v>1</v>
       </c>
       <c r="P886" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="887" spans="1:16">
@@ -46185,7 +46182,7 @@
         <v>1</v>
       </c>
       <c r="P887" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="888" spans="1:16">
@@ -46199,7 +46196,7 @@
         <v>1.477459737368338</v>
       </c>
       <c r="D888" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E888">
         <v>1.263214997610793</v>
@@ -46235,7 +46232,7 @@
         <v>1</v>
       </c>
       <c r="P888" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="889" spans="1:16">
@@ -46249,7 +46246,7 @@
         <v>1.484299398814228</v>
       </c>
       <c r="D889" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E889">
         <v>1.263214997610793</v>
@@ -46285,7 +46282,7 @@
         <v>1</v>
       </c>
       <c r="P889" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="890" spans="1:16">
@@ -46349,7 +46346,7 @@
         <v>1.488270615876439</v>
       </c>
       <c r="D891" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E891">
         <v>1.274876169934136</v>
@@ -46399,7 +46396,7 @@
         <v>1.495171012594845</v>
       </c>
       <c r="D892" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E892">
         <v>1.274876169934136</v>
@@ -46499,7 +46496,7 @@
         <v>1.49050375652243</v>
       </c>
       <c r="D894" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E894">
         <v>1.277284950855655</v>
@@ -46549,7 +46546,7 @@
         <v>1.497416698974804</v>
       </c>
       <c r="D895" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E895">
         <v>1.277284950855655</v>
@@ -46649,7 +46646,7 @@
         <v>1.508128402761513</v>
       </c>
       <c r="D897" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E897">
         <v>1.296295805225902</v>
@@ -46699,7 +46696,7 @@
         <v>1.515140360080398</v>
       </c>
       <c r="D898" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E898">
         <v>1.296295805225902</v>
@@ -46799,7 +46796,7 @@
         <v>1.51528028529547</v>
       </c>
       <c r="D900" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E900">
         <v>1.304010195374889</v>
@@ -46849,7 +46846,7 @@
         <v>1.452891679611439</v>
       </c>
       <c r="D901" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E901">
         <v>1.304010195374889</v>
@@ -47135,7 +47132,7 @@
         <v>1</v>
       </c>
       <c r="P906" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="907" spans="1:16">
@@ -47149,7 +47146,7 @@
         <v>1.771438143096434</v>
       </c>
       <c r="D907" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E907">
         <v>1.769334769083512</v>
@@ -47185,7 +47182,7 @@
         <v>1</v>
       </c>
       <c r="P907" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="908" spans="1:16">
@@ -47199,7 +47196,7 @@
         <v>1.793666905958362</v>
       </c>
       <c r="D908" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E908">
         <v>1.769334769083512</v>
@@ -47235,7 +47232,7 @@
         <v>1</v>
       </c>
       <c r="P908" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="909" spans="1:16">
@@ -47299,7 +47296,7 @@
         <v>1.811874519598647</v>
       </c>
       <c r="D910" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E910">
         <v>1.900918826425524</v>
@@ -47349,7 +47346,7 @@
         <v>1.834912009990619</v>
       </c>
       <c r="D911" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E911">
         <v>1.900918826425524</v>
@@ -47449,7 +47446,7 @@
         <v>1.895528965493513</v>
       </c>
       <c r="D913" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E913">
         <v>1.932861573643335</v>
@@ -47499,7 +47496,7 @@
         <v>1.920239544803383</v>
       </c>
       <c r="D914" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E914">
         <v>1.932861573643335</v>
@@ -47585,7 +47582,7 @@
         <v>1</v>
       </c>
       <c r="P915" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="916" spans="1:16">
@@ -47599,7 +47596,7 @@
         <v>2.14694519285309</v>
       </c>
       <c r="D916" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E916">
         <v>2.227783075723198</v>
@@ -47635,7 +47632,7 @@
         <v>1</v>
       </c>
       <c r="P916" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="917" spans="1:16">
@@ -47649,7 +47646,7 @@
         <v>2.127521979580261</v>
       </c>
       <c r="D917" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E917">
         <v>2.227783075723198</v>
@@ -47685,7 +47682,7 @@
         <v>1</v>
       </c>
       <c r="P917" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="918" spans="1:16">
@@ -47699,7 +47696,7 @@
         <v>2.083648255813952</v>
       </c>
       <c r="D918" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E918">
         <v>2.227783075723198</v>
@@ -47735,7 +47732,7 @@
         <v>1</v>
       </c>
       <c r="P918" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="919" spans="1:16">
@@ -47799,7 +47796,7 @@
         <v>2.161847691918457</v>
       </c>
       <c r="D920" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E920">
         <v>2.29633267654658</v>
@@ -47849,7 +47846,7 @@
         <v>2.142803814985473</v>
       </c>
       <c r="D921" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E921">
         <v>2.29633267654658</v>
@@ -47899,7 +47896,7 @@
         <v>2.099201045747626</v>
       </c>
       <c r="D922" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E922">
         <v>2.29633267654658</v>
@@ -47985,7 +47982,7 @@
         <v>1</v>
       </c>
       <c r="P923" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="924" spans="1:16">
@@ -48035,7 +48032,7 @@
         <v>1</v>
       </c>
       <c r="P924" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="925" spans="1:16">
@@ -48085,7 +48082,7 @@
         <v>1</v>
       </c>
       <c r="P925" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="926" spans="1:16">
@@ -48135,7 +48132,7 @@
         <v>1</v>
       </c>
       <c r="P926" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="927" spans="1:16">
@@ -48149,7 +48146,7 @@
         <v>2.281990200644458</v>
       </c>
       <c r="D927" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E927">
         <v>2.416557544639771</v>
@@ -48185,7 +48182,7 @@
         <v>1</v>
       </c>
       <c r="P927" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="928" spans="1:16">
@@ -48199,7 +48196,7 @@
         <v>2.266004496660863</v>
       </c>
       <c r="D928" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E928">
         <v>2.416557544639771</v>
@@ -48235,7 +48232,7 @@
         <v>1</v>
       </c>
       <c r="P928" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="929" spans="1:16">
@@ -48249,7 +48246,7 @@
         <v>2.22458613667258</v>
       </c>
       <c r="D929" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E929">
         <v>2.416557544639771</v>
@@ -48285,7 +48282,7 @@
         <v>1</v>
       </c>
       <c r="P929" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="930" spans="1:16">
@@ -48549,7 +48546,7 @@
         <v>2.294610334852642</v>
       </c>
       <c r="D935" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E935">
         <v>2.429085896053713</v>
@@ -48599,7 +48596,7 @@
         <v>2.278945870648891</v>
       </c>
       <c r="D936" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E936">
         <v>2.429085896053713</v>
@@ -48649,7 +48646,7 @@
         <v>2.237756967646212</v>
       </c>
       <c r="D937" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E937">
         <v>2.429085896053713</v>
@@ -48699,7 +48696,7 @@
         <v>1.478865024995372</v>
       </c>
       <c r="D938" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E938">
         <v>1.091736715423069</v>
@@ -48749,7 +48746,7 @@
         <v>1.38490187002407</v>
       </c>
       <c r="D939" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E939">
         <v>1.556095167561563</v>
@@ -48799,7 +48796,7 @@
         <v>1.411000217357541</v>
       </c>
       <c r="D940" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E940">
         <v>1.026647048618012</v>
@@ -48849,7 +48846,7 @@
         <v>1.329020625073216</v>
       </c>
       <c r="D941" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E941">
         <v>1.617052203789723</v>
@@ -48899,7 +48896,7 @@
         <v>1.335000528139656</v>
       </c>
       <c r="D942" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E942">
         <v>0.9537551533830149</v>
@@ -48949,7 +48946,7 @@
         <v>1.274396341734775</v>
       </c>
       <c r="D943" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E943">
         <v>1.498550586395873</v>
@@ -48999,7 +48996,7 @@
         <v>1.286901151623061</v>
       </c>
       <c r="D944" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E944">
         <v>0.9076226658689572</v>
@@ -49049,7 +49046,7 @@
         <v>1.247256712491893</v>
       </c>
       <c r="D945" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E945">
         <v>1.441230237098444</v>
@@ -49099,7 +49096,7 @@
         <v>1.233587671663713</v>
       </c>
       <c r="D946" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E946">
         <v>0.8564892910380584</v>
@@ -49149,7 +49146,7 @@
         <v>1.211322305183469</v>
       </c>
       <c r="D947" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E947">
         <v>1.391965348904197</v>
@@ -49199,7 +49196,7 @@
         <v>1.21037766405574</v>
       </c>
       <c r="D948" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E948">
         <v>0.8342283915478834</v>
@@ -49249,7 +49246,7 @@
         <v>1.192426425383669</v>
       </c>
       <c r="D949" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E949">
         <v>1.2587927643563</v>
@@ -49299,7 +49296,7 @@
         <v>1.194808180139088</v>
       </c>
       <c r="D950" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E950">
         <v>0.8192955779772646</v>
@@ -49349,7 +49346,7 @@
         <v>1.198498033457667</v>
       </c>
       <c r="D951" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E951">
         <v>1.158999179108742</v>
@@ -49399,7 +49396,7 @@
         <v>1.182088322901234</v>
       </c>
       <c r="D952" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E952">
         <v>0.8070958636004386</v>
@@ -49499,7 +49496,7 @@
         <v>1.320193729932789</v>
       </c>
       <c r="D954" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E954">
         <v>0.7970809127030485</v>
@@ -49549,7 +49546,7 @@
         <v>1.179856657365155</v>
       </c>
       <c r="D955" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E955">
         <v>1.189234093919208</v>
@@ -49599,7 +49596,7 @@
         <v>1.227366403581364</v>
       </c>
       <c r="D956" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E956">
         <v>1.189234093919208</v>
@@ -49649,7 +49646,7 @@
         <v>1.310478356163625</v>
       </c>
       <c r="D957" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E957">
         <v>0.7876399845205837</v>
@@ -49699,7 +49696,7 @@
         <v>0.6344231633251383</v>
       </c>
       <c r="D958" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E958">
         <v>0.9193140943676656</v>
@@ -49749,7 +49746,7 @@
         <v>1.171934328095761</v>
       </c>
       <c r="D959" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E959">
         <v>1.093069676752978</v>
@@ -49799,7 +49796,7 @@
         <v>1.219663630781329</v>
       </c>
       <c r="D960" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E960">
         <v>1.093069676752978</v>
@@ -49849,7 +49846,7 @@
         <v>1.353847387031876</v>
       </c>
       <c r="D961" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E961">
         <v>0.8297839015225001</v>
@@ -49899,7 +49896,7 @@
         <v>0.6751786179452095</v>
       </c>
       <c r="D962" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E962">
         <v>0.9775934449943753</v>
@@ -49949,7 +49946,7 @@
         <v>1.245944786534167</v>
       </c>
       <c r="D963" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E963">
         <v>1.097570180737918</v>
@@ -49999,7 +49996,7 @@
         <v>1.254048493296459</v>
       </c>
       <c r="D964" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E964">
         <v>1.097570180737918</v>
@@ -50049,7 +50046,7 @@
         <v>3.119396810901764</v>
       </c>
       <c r="D965" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E965">
         <v>2.981001707605099</v>
@@ -50099,7 +50096,7 @@
         <v>3.159377089407229</v>
       </c>
       <c r="D966" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E966">
         <v>2.981001707605099</v>
@@ -50149,7 +50146,7 @@
         <v>3.120981986110565</v>
       </c>
       <c r="D967" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E967">
         <v>2.981001707605099</v>
@@ -50249,7 +50246,7 @@
         <v>2.837870800176567</v>
       </c>
       <c r="D969" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E969">
         <v>2.894132615033631</v>
@@ -50299,7 +50296,7 @@
         <v>2.879396810901763</v>
       </c>
       <c r="D970" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E970">
         <v>2.894132615033631</v>
@@ -50349,7 +50346,7 @@
         <v>3.139316734249427</v>
       </c>
       <c r="D971" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E971">
         <v>2.958809334024729</v>
@@ -50399,7 +50396,7 @@
         <v>3.085357479560983</v>
       </c>
       <c r="D972" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E972">
         <v>2.958809334024729</v>
@@ -50499,7 +50496,7 @@
         <v>2.814418597528316</v>
       </c>
       <c r="D974" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E974">
         <v>2.897121366001221</v>
@@ -50549,7 +50546,7 @@
         <v>2.858415811425125</v>
       </c>
       <c r="D975" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E975">
         <v>2.897121366001221</v>
@@ -50599,7 +50596,7 @@
         <v>3.109459846308594</v>
       </c>
       <c r="D976" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E976">
         <v>2.925779250264097</v>
@@ -50649,7 +50646,7 @@
         <v>3.053481285189368</v>
       </c>
       <c r="D977" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E977">
         <v>2.925779250264097</v>
@@ -50749,7 +50746,7 @@
         <v>2.77951344351053</v>
       </c>
       <c r="D979" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E979">
         <v>2.852045057017663</v>
@@ -50799,7 +50796,7 @@
         <v>2.827188679834833</v>
       </c>
       <c r="D980" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E980">
         <v>2.852045057017663</v>
@@ -50849,7 +50846,7 @@
         <v>3.01635970015435</v>
       </c>
       <c r="D981" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E981">
         <v>2.903149755514105</v>
@@ -50949,7 +50946,7 @@
         <v>2.75559930495377</v>
       </c>
       <c r="D983" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E983">
         <v>2.855417565754478</v>
@@ -50999,7 +50996,7 @@
         <v>2.805794419514426</v>
       </c>
       <c r="D984" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E984">
         <v>2.855417565754478</v>
@@ -51249,7 +51246,7 @@
         <v>2.647424121190128</v>
       </c>
       <c r="D989" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E989">
         <v>2.713888571480405</v>
@@ -51299,7 +51296,7 @@
         <v>2.709017860486209</v>
       </c>
       <c r="D990" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E990">
         <v>2.713888571480405</v>
@@ -51349,7 +51346,7 @@
         <v>2.709276438497821</v>
       </c>
       <c r="D991" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E991">
         <v>2.713888571480405</v>
@@ -51749,7 +51746,7 @@
         <v>2.507960672292075</v>
       </c>
       <c r="D999" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E999">
         <v>2.634810324051362</v>
@@ -51799,7 +51796,7 @@
         <v>2.480590741940218</v>
       </c>
       <c r="D1000" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E1000">
         <v>2.521446129036562</v>
@@ -51849,7 +51846,7 @@
         <v>2.525024170825448</v>
       </c>
       <c r="D1001" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E1001">
         <v>2.521446129036562</v>
@@ -51899,7 +51896,7 @@
         <v>2.374355272751924</v>
       </c>
       <c r="D1002" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1002">
         <v>2.508178066449632</v>
@@ -52049,7 +52046,7 @@
         <v>2.297264431187501</v>
       </c>
       <c r="D1005" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1005">
         <v>2.435110755238258</v>
@@ -52099,7 +52096,7 @@
         <v>2.26769516637735</v>
       </c>
       <c r="D1006" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E1006">
         <v>2.422957079289015</v>
@@ -52249,7 +52246,7 @@
         <v>2.219172623318876</v>
       </c>
       <c r="D1009" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1009">
         <v>2.361094720222901</v>
@@ -52299,7 +52296,7 @@
         <v>2.188788203938071</v>
       </c>
       <c r="D1010" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E1010">
         <v>2.345170584879249</v>
@@ -52349,7 +52346,7 @@
         <v>2.193248487975224</v>
       </c>
       <c r="D1011" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E1011">
         <v>2.145170584879249</v>
@@ -52399,7 +52396,7 @@
         <v>2.244786165498444</v>
       </c>
       <c r="D1012" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E1012">
         <v>2.145170584879249</v>
@@ -52449,7 +52446,7 @@
         <v>2.139178489138268</v>
       </c>
       <c r="D1013" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1013">
         <v>2.285275645237524</v>
@@ -52499,7 +52496,7 @@
         <v>2.107959057918417</v>
       </c>
       <c r="D1014" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E1014">
         <v>2.27386057382472</v>
@@ -52549,7 +52546,7 @@
         <v>2.117763417725465</v>
       </c>
       <c r="D1015" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E1015">
         <v>2.06381166377648</v>
@@ -52599,7 +52596,7 @@
         <v>2.156397256360898</v>
       </c>
       <c r="D1016" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E1016">
         <v>2.06381166377648</v>
@@ -52649,7 +52646,7 @@
         <v>2.057977785544642</v>
       </c>
       <c r="D1017" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1017">
         <v>2.208312974190537</v>
@@ -52699,7 +52696,7 @@
         <v>2.273206827011388</v>
       </c>
       <c r="D1018" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E1018">
         <v>2.138737562907135</v>
@@ -52749,7 +52746,7 @@
         <v>2.025910747815463</v>
       </c>
       <c r="D1019" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E1019">
         <v>2.201474977928105</v>
@@ -52799,7 +52796,7 @@
         <v>2.04113978928221</v>
       </c>
       <c r="D1020" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E1020">
         <v>2.069195645840627</v>
@@ -52849,7 +52846,7 @@
         <v>2.08299453265309</v>
       </c>
       <c r="D1021" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E1021">
         <v>2.069195645840627</v>
@@ -52899,7 +52896,7 @@
         <v>1.942015135643571</v>
       </c>
       <c r="D1022" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1022">
         <v>2.098402654660086</v>
@@ -52949,7 +52946,7 @@
         <v>2.154957662266692</v>
       </c>
       <c r="D1023" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E1023">
         <v>2.02204863336159</v>
@@ -52999,7 +52996,7 @@
         <v>2.151713656181408</v>
       </c>
       <c r="D1024" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E1024">
         <v>2.02204863336159</v>
@@ -53049,7 +53046,7 @@
         <v>1.968838124994323</v>
       </c>
       <c r="D1025" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E1025">
         <v>2.061613163027353</v>
@@ -53099,7 +53096,7 @@
         <v>1.931713656181408</v>
       </c>
       <c r="D1026" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E1026">
         <v>2.044455196496419</v>
@@ -53149,7 +53146,7 @@
         <v>1.918201668351977</v>
       </c>
       <c r="D1027" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E1027">
         <v>2.044455196496419</v>
@@ -53199,7 +53196,7 @@
         <v>2.558838698778969</v>
       </c>
       <c r="D1028" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E1028">
         <v>2.418783335811877</v>
@@ -53249,7 +53246,7 @@
         <v>2.549888393340562</v>
       </c>
       <c r="D1029" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E1029">
         <v>2.418783335811877</v>
@@ -53299,7 +53296,7 @@
         <v>2.349004347317614</v>
       </c>
       <c r="D1030" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E1030">
         <v>2.458617687273231</v>
@@ -53349,7 +53346,7 @@
         <v>2.342871828486698</v>
       </c>
       <c r="D1031" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E1031">
         <v>2.213976886015383</v>
@@ -53399,7 +53396,7 @@
         <v>2.314805569071239</v>
       </c>
       <c r="D1032" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E1032">
         <v>2.213976886015383</v>
@@ -53449,7 +53446,7 @@
         <v>2.286739309655781</v>
       </c>
       <c r="D1033" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E1033">
         <v>2.213976886015383</v>
@@ -53496,40 +53493,40 @@
         <v>220</v>
       </c>
       <c r="C1034">
-        <v>2.066190481835586</v>
+        <v>1.710325886585777</v>
       </c>
       <c r="D1034" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E1034">
-        <v>1.877152967535816</v>
+        <v>1.690807129435892</v>
       </c>
       <c r="F1034">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1034">
-        <v>0.007213809518164414</v>
+        <v>0.006789674113414224</v>
       </c>
       <c r="H1034">
-        <v>0.006942847032464185</v>
+        <v>0.006729192870564108</v>
       </c>
       <c r="I1034">
-        <v>0.1890375142997702</v>
+        <v>-0.01951875714988516</v>
       </c>
       <c r="J1034">
         <v>0.6827080950038233</v>
       </c>
       <c r="K1034">
-        <v>3.77</v>
+        <v>3.72</v>
       </c>
       <c r="L1034">
-        <v>4.64</v>
+        <v>4.25</v>
       </c>
       <c r="M1034">
-        <v>3.71</v>
+        <v>3.69</v>
       </c>
       <c r="N1034">
-        <v>4.41</v>
+        <v>4.21</v>
       </c>
       <c r="O1034">
         <v>1</v>
@@ -53540,34 +53537,34 @@
     </row>
     <row r="1035" spans="1:16">
       <c r="A1035" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1035" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1035">
-        <v>1.710325886585777</v>
+        <v>1.683711088313052</v>
       </c>
       <c r="D1035" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E1035">
-        <v>1.679844643735663</v>
+        <v>1.664406966633108</v>
       </c>
       <c r="F1035">
         <v>1</v>
       </c>
       <c r="G1035">
-        <v>0.006789674113414224</v>
+        <v>0.006816288911686948</v>
       </c>
       <c r="H1035">
-        <v>0.006800155356264337</v>
+        <v>0.006755593033366892</v>
       </c>
       <c r="I1035">
-        <v>-0.03048124285011422</v>
+        <v>-0.01930412167994389</v>
       </c>
       <c r="J1035">
-        <v>0.6827080950038233</v>
+        <v>0.6898626106685345</v>
       </c>
       <c r="K1035">
         <v>3.72</v>
@@ -53576,16 +53573,16 @@
         <v>4.25</v>
       </c>
       <c r="M1035">
-        <v>3.75</v>
+        <v>3.69</v>
       </c>
       <c r="N1035">
-        <v>4.24</v>
+        <v>4.21</v>
       </c>
       <c r="O1035">
         <v>1</v>
       </c>
       <c r="P1035" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1036" spans="1:16">
@@ -53596,46 +53593,46 @@
         <v>221</v>
       </c>
       <c r="C1036">
-        <v>1.683711088313052</v>
+        <v>1.774652822327312</v>
       </c>
       <c r="D1036" t="s">
-        <v>365</v>
+        <v>220</v>
       </c>
       <c r="E1036">
-        <v>1.653015209992996</v>
+        <v>1.642597950562186</v>
       </c>
       <c r="F1036">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1036">
-        <v>0.006816288911686948</v>
+        <v>0.006905347177672688</v>
       </c>
       <c r="H1036">
-        <v>0.006826984790007005</v>
+        <v>0.006857402049437814</v>
       </c>
       <c r="I1036">
-        <v>-0.03069587832005594</v>
+        <v>0.132054871765126</v>
       </c>
       <c r="J1036">
-        <v>0.6898626106685345</v>
+        <v>0.7009145294187672</v>
       </c>
       <c r="K1036">
+        <v>3.66</v>
+      </c>
+      <c r="L1036">
+        <v>4.34</v>
+      </c>
+      <c r="M1036">
         <v>3.72</v>
       </c>
-      <c r="L1036">
+      <c r="N1036">
         <v>4.25</v>
       </c>
-      <c r="M1036">
-        <v>3.75</v>
-      </c>
-      <c r="N1036">
-        <v>4.24</v>
-      </c>
       <c r="O1036">
         <v>1</v>
       </c>
       <c r="P1036" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1037" spans="1:16">
@@ -53646,90 +53643,90 @@
         <v>221</v>
       </c>
       <c r="C1037">
-        <v>1.642597950562186</v>
+        <v>1.745068418380975</v>
       </c>
       <c r="D1037" t="s">
-        <v>365</v>
+        <v>220</v>
       </c>
       <c r="E1037">
-        <v>1.611570514679623</v>
+        <v>1.612528556387221</v>
       </c>
       <c r="F1037">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1037">
-        <v>0.006857402049437814</v>
+        <v>0.006934931581619024</v>
       </c>
       <c r="H1037">
-        <v>0.006868429485320376</v>
+        <v>0.006887471443612779</v>
       </c>
       <c r="I1037">
-        <v>-0.0310274358825624</v>
+        <v>0.1325398619937541</v>
       </c>
       <c r="J1037">
-        <v>0.7009145294187672</v>
+        <v>0.7089976998959082</v>
       </c>
       <c r="K1037">
+        <v>3.66</v>
+      </c>
+      <c r="L1037">
+        <v>4.34</v>
+      </c>
+      <c r="M1037">
         <v>3.72</v>
       </c>
-      <c r="L1037">
+      <c r="N1037">
         <v>4.25</v>
       </c>
-      <c r="M1037">
-        <v>3.75</v>
-      </c>
-      <c r="N1037">
-        <v>4.24</v>
-      </c>
       <c r="O1037">
         <v>1</v>
       </c>
       <c r="P1037" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1038" spans="1:16">
       <c r="A1038" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1038" t="s">
         <v>222</v>
       </c>
       <c r="C1038">
-        <v>1.745068418380975</v>
+        <v>1.581258625390344</v>
       </c>
       <c r="D1038" t="s">
         <v>366</v>
       </c>
       <c r="E1038">
-        <v>1.681258625390344</v>
+        <v>1.593798487384098</v>
       </c>
       <c r="F1038">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1038">
-        <v>0.006934931581619024</v>
+        <v>0.006898741374609657</v>
       </c>
       <c r="H1038">
-        <v>0.006998741374609656</v>
+        <v>0.006826201512615901</v>
       </c>
       <c r="I1038">
-        <v>0.06380979299063139</v>
+        <v>0.01253986199375401</v>
       </c>
       <c r="J1038">
         <v>0.7089976998959082</v>
       </c>
       <c r="K1038">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="L1038">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="M1038">
-        <v>3.75</v>
+        <v>3.69</v>
       </c>
       <c r="N1038">
-        <v>4.34</v>
+        <v>4.21</v>
       </c>
       <c r="O1038">
         <v>1</v>
@@ -53740,96 +53737,96 @@
     </row>
     <row r="1039" spans="1:16">
       <c r="A1039" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1039" t="s">
         <v>221</v>
       </c>
       <c r="C1039">
-        <v>1.612528556387221</v>
+        <v>1.725336643125503</v>
       </c>
       <c r="D1039" t="s">
-        <v>365</v>
+        <v>220</v>
       </c>
       <c r="E1039">
-        <v>1.581258625390344</v>
+        <v>1.592473309406249</v>
       </c>
       <c r="F1039">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1039">
-        <v>0.006887471443612779</v>
+        <v>0.006954663356874498</v>
       </c>
       <c r="H1039">
-        <v>0.006898741374609657</v>
+        <v>0.006907526690593752</v>
       </c>
       <c r="I1039">
-        <v>-0.03126993099687692</v>
+        <v>0.132863333719254</v>
       </c>
       <c r="J1039">
-        <v>0.7089976998959082</v>
+        <v>0.7143888953209009</v>
       </c>
       <c r="K1039">
+        <v>3.66</v>
+      </c>
+      <c r="L1039">
+        <v>4.34</v>
+      </c>
+      <c r="M1039">
         <v>3.72</v>
       </c>
-      <c r="L1039">
+      <c r="N1039">
         <v>4.25</v>
       </c>
-      <c r="M1039">
-        <v>3.75</v>
-      </c>
-      <c r="N1039">
-        <v>4.24</v>
-      </c>
       <c r="O1039">
         <v>1</v>
       </c>
       <c r="P1039" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1040" spans="1:16">
       <c r="A1040" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1040" t="s">
         <v>222</v>
       </c>
       <c r="C1040">
-        <v>1.725336643125503</v>
+        <v>1.561041642546622</v>
       </c>
       <c r="D1040" t="s">
-        <v>221</v>
+        <v>366</v>
       </c>
       <c r="E1040">
-        <v>1.592473309406249</v>
+        <v>1.573904976265876</v>
       </c>
       <c r="F1040">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1040">
-        <v>0.006954663356874498</v>
+        <v>0.006918958357453379</v>
       </c>
       <c r="H1040">
-        <v>0.006907526690593752</v>
+        <v>0.006846095023734124</v>
       </c>
       <c r="I1040">
-        <v>0.132863333719254</v>
+        <v>0.01286333371925386</v>
       </c>
       <c r="J1040">
         <v>0.7143888953209009</v>
       </c>
       <c r="K1040">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="L1040">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="M1040">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
       <c r="N1040">
-        <v>4.25</v>
+        <v>4.21</v>
       </c>
       <c r="O1040">
         <v>1</v>
@@ -53843,13 +53840,13 @@
         <v>0</v>
       </c>
       <c r="B1041" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C1041">
-        <v>1.706714139491356</v>
+        <v>1.680740288937959</v>
       </c>
       <c r="D1041" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1041">
         <v>1.57354551882728</v>
@@ -53858,22 +53855,22 @@
         <v>-1</v>
       </c>
       <c r="G1041">
-        <v>0.006973285860508644</v>
+        <v>0.007019259711062041</v>
       </c>
       <c r="H1041">
         <v>0.00692645448117272</v>
       </c>
       <c r="I1041">
-        <v>0.1331686206640756</v>
+        <v>0.107194770110679</v>
       </c>
       <c r="J1041">
         <v>0.7194770110679355</v>
       </c>
       <c r="K1041">
-        <v>3.66</v>
+        <v>3.71</v>
       </c>
       <c r="L1041">
-        <v>4.34</v>
+        <v>4.35</v>
       </c>
       <c r="M1041">
         <v>3.72</v>
@@ -53890,34 +53887,34 @@
     </row>
     <row r="1042" spans="1:16">
       <c r="A1042" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1042" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1042">
-        <v>1.687585123258323</v>
+        <v>1.706714139491356</v>
       </c>
       <c r="D1042" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1042">
-        <v>1.554102912164197</v>
+        <v>1.57354551882728</v>
       </c>
       <c r="F1042">
         <v>-1</v>
       </c>
       <c r="G1042">
-        <v>0.006992414876741677</v>
+        <v>0.006973285860508644</v>
       </c>
       <c r="H1042">
-        <v>0.006945897087835803</v>
+        <v>0.00692645448117272</v>
       </c>
       <c r="I1042">
-        <v>0.1334822110941256</v>
+        <v>0.1331686206640756</v>
       </c>
       <c r="J1042">
-        <v>0.7247035182354308</v>
+        <v>0.7194770110679355</v>
       </c>
       <c r="K1042">
         <v>3.66</v>
@@ -53935,57 +53932,307 @@
         <v>1</v>
       </c>
       <c r="P1042" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1043" spans="1:16">
       <c r="A1043" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1043" t="s">
         <v>222</v>
       </c>
       <c r="C1043">
-        <v>1.674071021437449</v>
+        <v>1.541961208495242</v>
       </c>
       <c r="D1043" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1043">
+        <v>1.555129829159318</v>
+      </c>
+      <c r="F1043">
+        <v>1</v>
+      </c>
+      <c r="G1043">
+        <v>0.006938038791504758</v>
+      </c>
+      <c r="H1043">
+        <v>0.006864870170840682</v>
+      </c>
+      <c r="I1043">
+        <v>0.01316862066407598</v>
+      </c>
+      <c r="J1043">
+        <v>0.7194770110679355</v>
+      </c>
+      <c r="K1043">
+        <v>3.75</v>
+      </c>
+      <c r="L1043">
+        <v>4.24</v>
+      </c>
+      <c r="M1043">
+        <v>3.69</v>
+      </c>
+      <c r="N1043">
+        <v>4.21</v>
+      </c>
+      <c r="O1043">
+        <v>1</v>
+      </c>
+      <c r="P1043" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:16">
+      <c r="A1044" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1044" t="s">
         <v>221</v>
       </c>
-      <c r="E1043">
-        <v>1.540367267690522</v>
-      </c>
-      <c r="F1043">
+      <c r="C1044">
+        <v>1.687585123258323</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1044">
+        <v>1.554102912164197</v>
+      </c>
+      <c r="F1044">
         <v>-1</v>
       </c>
-      <c r="G1043">
-        <v>0.007005928978562551</v>
-      </c>
-      <c r="H1043">
-        <v>0.006959632732309478</v>
-      </c>
-      <c r="I1043">
-        <v>0.1337037537469268</v>
-      </c>
-      <c r="J1043">
+      <c r="G1044">
+        <v>0.006992414876741677</v>
+      </c>
+      <c r="H1044">
+        <v>0.006945897087835803</v>
+      </c>
+      <c r="I1044">
+        <v>0.1334822110941256</v>
+      </c>
+      <c r="J1044">
+        <v>0.7247035182354308</v>
+      </c>
+      <c r="K1044">
+        <v>3.66</v>
+      </c>
+      <c r="L1044">
+        <v>4.34</v>
+      </c>
+      <c r="M1044">
+        <v>3.72</v>
+      </c>
+      <c r="N1044">
+        <v>4.25</v>
+      </c>
+      <c r="O1044">
+        <v>1</v>
+      </c>
+      <c r="P1044" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:16">
+      <c r="A1045" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1045">
+        <v>1.522361806617135</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1045">
+        <v>1.53584401771126</v>
+      </c>
+      <c r="F1045">
+        <v>1</v>
+      </c>
+      <c r="G1045">
+        <v>0.006957638193382866</v>
+      </c>
+      <c r="H1045">
+        <v>0.006884155982288739</v>
+      </c>
+      <c r="I1045">
+        <v>0.01348221109412551</v>
+      </c>
+      <c r="J1045">
+        <v>0.7247035182354308</v>
+      </c>
+      <c r="K1045">
+        <v>3.75</v>
+      </c>
+      <c r="L1045">
+        <v>4.24</v>
+      </c>
+      <c r="M1045">
+        <v>3.69</v>
+      </c>
+      <c r="N1045">
+        <v>4.21</v>
+      </c>
+      <c r="O1045">
+        <v>1</v>
+      </c>
+      <c r="P1045" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:16">
+      <c r="A1046" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1046">
+        <v>1.508515390817059</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1046">
+        <v>1.522219144563985</v>
+      </c>
+      <c r="F1046">
+        <v>1</v>
+      </c>
+      <c r="G1046">
+        <v>0.006971484609182942</v>
+      </c>
+      <c r="H1046">
+        <v>0.006897780855436015</v>
+      </c>
+      <c r="I1046">
+        <v>0.01370375374692667</v>
+      </c>
+      <c r="J1046">
         <v>0.7283958957821177</v>
       </c>
-      <c r="K1043">
-        <v>3.66</v>
-      </c>
-      <c r="L1043">
-        <v>4.34</v>
-      </c>
-      <c r="M1043">
-        <v>3.72</v>
-      </c>
-      <c r="N1043">
-        <v>4.25</v>
-      </c>
-      <c r="O1043">
-        <v>1</v>
-      </c>
-      <c r="P1043" t="s">
-        <v>487</v>
+      <c r="K1046">
+        <v>3.75</v>
+      </c>
+      <c r="L1046">
+        <v>4.24</v>
+      </c>
+      <c r="M1046">
+        <v>3.69</v>
+      </c>
+      <c r="N1046">
+        <v>4.21</v>
+      </c>
+      <c r="O1046">
+        <v>1</v>
+      </c>
+      <c r="P1046" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:16">
+      <c r="A1047" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1047">
+        <v>1.493174878743735</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1047">
+        <v>1.507124080683835</v>
+      </c>
+      <c r="F1047">
+        <v>1</v>
+      </c>
+      <c r="G1047">
+        <v>0.006986825121256265</v>
+      </c>
+      <c r="H1047">
+        <v>0.006912875919316165</v>
+      </c>
+      <c r="I1047">
+        <v>0.01394920194009996</v>
+      </c>
+      <c r="J1047">
+        <v>0.7324866990016706</v>
+      </c>
+      <c r="K1047">
+        <v>3.75</v>
+      </c>
+      <c r="L1047">
+        <v>4.24</v>
+      </c>
+      <c r="M1047">
+        <v>3.69</v>
+      </c>
+      <c r="N1047">
+        <v>4.21</v>
+      </c>
+      <c r="O1047">
+        <v>1</v>
+      </c>
+      <c r="P1047" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:16">
+      <c r="A1048" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1048">
+        <v>1.508536698709351</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1048">
+        <v>1.471153106994671</v>
+      </c>
+      <c r="F1048">
+        <v>-1</v>
+      </c>
+      <c r="G1048">
+        <v>0.007031463301290648</v>
+      </c>
+      <c r="H1048">
+        <v>0.007008846893005329</v>
+      </c>
+      <c r="I1048">
+        <v>0.03738359171468009</v>
+      </c>
+      <c r="J1048">
+        <v>0.7383591714680878</v>
+      </c>
+      <c r="K1048">
+        <v>3.74</v>
+      </c>
+      <c r="L1048">
+        <v>4.27</v>
+      </c>
+      <c r="M1048">
+        <v>3.75</v>
+      </c>
+      <c r="N1048">
+        <v>4.24</v>
+      </c>
+      <c r="O1048">
+        <v>1</v>
+      </c>
+      <c r="P1048" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
